--- a/output/55/Расписание_Итог_4.xlsx
+++ b/output/55/Расписание_Итог_4.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="10500" tabRatio="924" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Расписание" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Расписание" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1" refMode="R1C1"/>

--- a/output/55/Расписание_Итог_4.xlsx
+++ b/output/55/Расписание_Итог_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="10500" tabRatio="924" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12180" tabRatio="924" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <numFmt numFmtId="166" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="43">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -39,48 +39,12 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <family val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
       <color indexed="8"/>
       <sz val="12"/>
     </font>
@@ -97,14 +61,21 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <charset val="204"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <charset val="0"/>
       <color indexed="8"/>
       <sz val="12"/>
     </font>
@@ -125,12 +96,6 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
@@ -155,45 +120,8 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
-      <color indexed="8"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -229,6 +157,13 @@
       <charset val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -381,18 +316,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1475,137 +1404,137 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="44" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="44" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="45" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="45" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="44" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="44" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="10" borderId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="46" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="47" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="47" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="48" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,574 +1661,301 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2307,20 +1963,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2861,3523 +2517,3523 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.138888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1" s="243">
-      <c r="A1" s="142" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1" s="146">
+      <c r="A1" s="60" t="inlineStr">
         <is>
           <t>Наряд</t>
         </is>
       </c>
-      <c r="B1" s="244" t="inlineStr">
+      <c r="B1" s="147" t="inlineStr">
         <is>
           <t>Ном. ПС</t>
         </is>
       </c>
-      <c r="C1" s="139" t="inlineStr">
+      <c r="C1" s="57" t="inlineStr">
         <is>
           <t>1 смена</t>
         </is>
       </c>
-      <c r="D1" s="245" t="n"/>
-      <c r="E1" s="245" t="n"/>
-      <c r="F1" s="245" t="n"/>
-      <c r="G1" s="246" t="n"/>
-      <c r="H1" s="139" t="inlineStr">
+      <c r="D1" s="148" t="n"/>
+      <c r="E1" s="148" t="n"/>
+      <c r="F1" s="148" t="n"/>
+      <c r="G1" s="149" t="n"/>
+      <c r="H1" s="57" t="inlineStr">
         <is>
           <t>2 смена</t>
         </is>
       </c>
-      <c r="I1" s="245" t="n"/>
-      <c r="J1" s="245" t="n"/>
-      <c r="K1" s="245" t="n"/>
-      <c r="L1" s="246" t="n"/>
-      <c r="M1" s="111" t="n"/>
-      <c r="N1" s="112" t="n"/>
-      <c r="O1" s="112" t="n"/>
-      <c r="P1" s="113" t="n"/>
-      <c r="Q1" s="126" t="n"/>
-      <c r="R1" s="126" t="n"/>
-      <c r="S1" s="126" t="n"/>
-      <c r="T1" s="126" t="n"/>
-      <c r="U1" s="126" t="n"/>
-      <c r="V1" s="126" t="n"/>
-      <c r="W1" s="126" t="n"/>
-      <c r="X1" s="126" t="n"/>
-      <c r="Y1" s="126" t="n"/>
-      <c r="Z1" s="126" t="n"/>
-      <c r="AA1" s="111" t="n"/>
-      <c r="AB1" s="112" t="n"/>
-      <c r="AC1" s="111" t="n"/>
-      <c r="AD1" s="112" t="n"/>
-      <c r="AE1" s="113" t="n"/>
-      <c r="AF1" s="126" t="n"/>
-      <c r="AG1" s="126" t="n"/>
-      <c r="AH1" s="126" t="n"/>
-      <c r="AI1" s="126" t="n"/>
-      <c r="AJ1" s="126" t="n"/>
-      <c r="AK1" s="126" t="n"/>
-      <c r="AL1" s="126" t="n"/>
-      <c r="AM1" s="126" t="n"/>
-      <c r="AN1" s="126" t="n"/>
-      <c r="AO1" s="126" t="n"/>
-      <c r="AP1" s="121" t="n"/>
-      <c r="AQ1" s="121" t="n"/>
-    </row>
-    <row r="2" ht="15.6" customHeight="1" s="243">
-      <c r="A2" s="247" t="n"/>
-      <c r="B2" s="247" t="n"/>
-      <c r="C2" s="142" t="inlineStr">
+      <c r="I1" s="148" t="n"/>
+      <c r="J1" s="148" t="n"/>
+      <c r="K1" s="148" t="n"/>
+      <c r="L1" s="149" t="n"/>
+      <c r="M1" s="76" t="n"/>
+      <c r="N1" s="77" t="n"/>
+      <c r="O1" s="77" t="n"/>
+      <c r="P1" s="78" t="n"/>
+      <c r="Q1" s="89" t="n"/>
+      <c r="R1" s="89" t="n"/>
+      <c r="S1" s="89" t="n"/>
+      <c r="T1" s="89" t="n"/>
+      <c r="U1" s="89" t="n"/>
+      <c r="V1" s="89" t="n"/>
+      <c r="W1" s="89" t="n"/>
+      <c r="X1" s="89" t="n"/>
+      <c r="Y1" s="89" t="n"/>
+      <c r="Z1" s="89" t="n"/>
+      <c r="AA1" s="76" t="n"/>
+      <c r="AB1" s="77" t="n"/>
+      <c r="AC1" s="76" t="n"/>
+      <c r="AD1" s="77" t="n"/>
+      <c r="AE1" s="78" t="n"/>
+      <c r="AF1" s="89" t="n"/>
+      <c r="AG1" s="89" t="n"/>
+      <c r="AH1" s="89" t="n"/>
+      <c r="AI1" s="89" t="n"/>
+      <c r="AJ1" s="89" t="n"/>
+      <c r="AK1" s="89" t="n"/>
+      <c r="AL1" s="89" t="n"/>
+      <c r="AM1" s="89" t="n"/>
+      <c r="AN1" s="89" t="n"/>
+      <c r="AO1" s="89" t="n"/>
+      <c r="AP1" s="86" t="n"/>
+      <c r="AQ1" s="86" t="n"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="146">
+      <c r="A2" s="150" t="n"/>
+      <c r="B2" s="150" t="n"/>
+      <c r="C2" s="60" t="inlineStr">
         <is>
           <t>Таб. №</t>
         </is>
       </c>
-      <c r="D2" s="245" t="n"/>
-      <c r="E2" s="246" t="n"/>
-      <c r="F2" s="139" t="inlineStr">
+      <c r="D2" s="148" t="n"/>
+      <c r="E2" s="149" t="n"/>
+      <c r="F2" s="57" t="inlineStr">
         <is>
           <t>Нач./Оконч.</t>
         </is>
       </c>
-      <c r="G2" s="246" t="n"/>
-      <c r="H2" s="142" t="inlineStr">
+      <c r="G2" s="149" t="n"/>
+      <c r="H2" s="60" t="inlineStr">
         <is>
           <t>Таб. №</t>
         </is>
       </c>
-      <c r="I2" s="245" t="n"/>
-      <c r="J2" s="246" t="n"/>
-      <c r="K2" s="139" t="inlineStr">
+      <c r="I2" s="148" t="n"/>
+      <c r="J2" s="149" t="n"/>
+      <c r="K2" s="57" t="inlineStr">
         <is>
           <t>Нач./Оконч.</t>
         </is>
       </c>
-      <c r="L2" s="246" t="n"/>
-      <c r="M2" s="111" t="n"/>
-      <c r="N2" s="114" t="n"/>
-      <c r="O2" s="112" t="n"/>
-      <c r="P2" s="113" t="n"/>
-      <c r="Q2" s="112" t="n"/>
-      <c r="R2" s="112" t="n"/>
-      <c r="S2" s="112" t="n"/>
-      <c r="T2" s="126" t="n"/>
-      <c r="U2" s="126" t="n"/>
-      <c r="V2" s="112" t="n"/>
-      <c r="W2" s="112" t="n"/>
-      <c r="X2" s="112" t="n"/>
-      <c r="Y2" s="126" t="n"/>
-      <c r="Z2" s="126" t="n"/>
-      <c r="AA2" s="111" t="n"/>
-      <c r="AB2" s="114" t="n"/>
-      <c r="AC2" s="111" t="n"/>
-      <c r="AD2" s="112" t="n"/>
-      <c r="AE2" s="113" t="n"/>
-      <c r="AF2" s="112" t="n"/>
-      <c r="AG2" s="112" t="n"/>
-      <c r="AH2" s="112" t="n"/>
-      <c r="AI2" s="126" t="n"/>
-      <c r="AJ2" s="126" t="n"/>
-      <c r="AK2" s="112" t="n"/>
-      <c r="AL2" s="112" t="n"/>
-      <c r="AM2" s="112" t="n"/>
-      <c r="AN2" s="126" t="n"/>
-      <c r="AO2" s="126" t="n"/>
-      <c r="AP2" s="121" t="n"/>
-      <c r="AQ2" s="121" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="243">
-      <c r="A3" s="143" t="n"/>
-      <c r="B3" s="143" t="n"/>
-      <c r="C3" s="143" t="n"/>
-      <c r="D3" s="143" t="n"/>
-      <c r="E3" s="143" t="n"/>
-      <c r="F3" s="143" t="n"/>
-      <c r="G3" s="143" t="n"/>
-      <c r="H3" s="143" t="n"/>
-      <c r="I3" s="143" t="n"/>
-      <c r="J3" s="143" t="n"/>
-      <c r="K3" s="143" t="n"/>
-      <c r="L3" s="143" t="n"/>
-      <c r="M3" s="111" t="n"/>
-      <c r="N3" s="111" t="n"/>
-      <c r="O3" s="111" t="n"/>
-      <c r="P3" s="111" t="n"/>
-      <c r="Q3" s="111" t="n"/>
-      <c r="R3" s="111" t="n"/>
-      <c r="S3" s="111" t="n"/>
-      <c r="T3" s="111" t="n"/>
-      <c r="U3" s="111" t="n"/>
-      <c r="V3" s="111" t="n"/>
-      <c r="W3" s="111" t="n"/>
-      <c r="X3" s="111" t="n"/>
-      <c r="Y3" s="111" t="n"/>
-      <c r="Z3" s="111" t="n"/>
-      <c r="AA3" s="111" t="n"/>
-      <c r="AB3" s="111" t="n"/>
-      <c r="AC3" s="111" t="n"/>
-      <c r="AD3" s="111" t="n"/>
-      <c r="AE3" s="111" t="n"/>
-      <c r="AF3" s="111" t="n"/>
-      <c r="AG3" s="111" t="n"/>
-      <c r="AH3" s="111" t="n"/>
-      <c r="AI3" s="111" t="n"/>
-      <c r="AJ3" s="111" t="n"/>
-      <c r="AK3" s="111" t="n"/>
-      <c r="AL3" s="111" t="n"/>
-      <c r="AM3" s="111" t="n"/>
-      <c r="AN3" s="111" t="n"/>
-      <c r="AO3" s="111" t="n"/>
-      <c r="AP3" s="121" t="n"/>
-      <c r="AQ3" s="121" t="n"/>
-    </row>
-    <row r="4" ht="15.6" customHeight="1" s="243">
-      <c r="A4" s="86" t="inlineStr">
+      <c r="L2" s="149" t="n"/>
+      <c r="M2" s="76" t="n"/>
+      <c r="N2" s="79" t="n"/>
+      <c r="O2" s="77" t="n"/>
+      <c r="P2" s="78" t="n"/>
+      <c r="Q2" s="77" t="n"/>
+      <c r="R2" s="77" t="n"/>
+      <c r="S2" s="77" t="n"/>
+      <c r="T2" s="89" t="n"/>
+      <c r="U2" s="89" t="n"/>
+      <c r="V2" s="77" t="n"/>
+      <c r="W2" s="77" t="n"/>
+      <c r="X2" s="77" t="n"/>
+      <c r="Y2" s="89" t="n"/>
+      <c r="Z2" s="89" t="n"/>
+      <c r="AA2" s="76" t="n"/>
+      <c r="AB2" s="79" t="n"/>
+      <c r="AC2" s="76" t="n"/>
+      <c r="AD2" s="77" t="n"/>
+      <c r="AE2" s="78" t="n"/>
+      <c r="AF2" s="77" t="n"/>
+      <c r="AG2" s="77" t="n"/>
+      <c r="AH2" s="77" t="n"/>
+      <c r="AI2" s="89" t="n"/>
+      <c r="AJ2" s="89" t="n"/>
+      <c r="AK2" s="77" t="n"/>
+      <c r="AL2" s="77" t="n"/>
+      <c r="AM2" s="77" t="n"/>
+      <c r="AN2" s="89" t="n"/>
+      <c r="AO2" s="89" t="n"/>
+      <c r="AP2" s="86" t="n"/>
+      <c r="AQ2" s="86" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="61" t="n"/>
+      <c r="B3" s="61" t="n"/>
+      <c r="C3" s="61" t="n"/>
+      <c r="D3" s="61" t="n"/>
+      <c r="E3" s="61" t="n"/>
+      <c r="F3" s="61" t="n"/>
+      <c r="G3" s="61" t="n"/>
+      <c r="H3" s="61" t="n"/>
+      <c r="I3" s="61" t="n"/>
+      <c r="J3" s="61" t="n"/>
+      <c r="K3" s="61" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="76" t="n"/>
+      <c r="N3" s="76" t="n"/>
+      <c r="O3" s="76" t="n"/>
+      <c r="P3" s="76" t="n"/>
+      <c r="Q3" s="76" t="n"/>
+      <c r="R3" s="76" t="n"/>
+      <c r="S3" s="76" t="n"/>
+      <c r="T3" s="76" t="n"/>
+      <c r="U3" s="76" t="n"/>
+      <c r="V3" s="76" t="n"/>
+      <c r="W3" s="76" t="n"/>
+      <c r="X3" s="76" t="n"/>
+      <c r="Y3" s="76" t="n"/>
+      <c r="Z3" s="76" t="n"/>
+      <c r="AA3" s="76" t="n"/>
+      <c r="AB3" s="76" t="n"/>
+      <c r="AC3" s="76" t="n"/>
+      <c r="AD3" s="76" t="n"/>
+      <c r="AE3" s="76" t="n"/>
+      <c r="AF3" s="76" t="n"/>
+      <c r="AG3" s="76" t="n"/>
+      <c r="AH3" s="76" t="n"/>
+      <c r="AI3" s="76" t="n"/>
+      <c r="AJ3" s="76" t="n"/>
+      <c r="AK3" s="76" t="n"/>
+      <c r="AL3" s="76" t="n"/>
+      <c r="AM3" s="76" t="n"/>
+      <c r="AN3" s="76" t="n"/>
+      <c r="AO3" s="76" t="n"/>
+      <c r="AP3" s="86" t="n"/>
+      <c r="AQ3" s="86" t="n"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="146">
+      <c r="A4" s="62" t="inlineStr">
         <is>
           <t>Маршрут 55       ул. Шаврова - Придорожная аллея. Смены на к/ст ул. Шаврова</t>
         </is>
       </c>
-      <c r="B4" s="248" t="n"/>
-      <c r="C4" s="248" t="n"/>
-      <c r="D4" s="248" t="n"/>
-      <c r="E4" s="248" t="n"/>
-      <c r="F4" s="248" t="n"/>
-      <c r="G4" s="248" t="n"/>
-      <c r="H4" s="248" t="n"/>
-      <c r="I4" s="248" t="n"/>
-      <c r="J4" s="248" t="n"/>
-      <c r="K4" s="248" t="n"/>
-      <c r="L4" s="248" t="n"/>
-      <c r="M4" s="111" t="n"/>
-      <c r="N4" s="111" t="n"/>
-      <c r="O4" s="115" t="n"/>
-      <c r="P4" s="115" t="n"/>
-      <c r="Q4" s="115" t="n"/>
-      <c r="R4" s="115" t="n"/>
-      <c r="S4" s="115" t="n"/>
-      <c r="T4" s="115" t="n"/>
-      <c r="U4" s="115" t="n"/>
-      <c r="V4" s="115" t="n"/>
-      <c r="W4" s="115" t="n"/>
-      <c r="X4" s="115" t="n"/>
-      <c r="Y4" s="115" t="n"/>
-      <c r="Z4" s="115" t="n"/>
-      <c r="AA4" s="111" t="n"/>
-      <c r="AB4" s="111" t="n"/>
-      <c r="AC4" s="111" t="n"/>
-      <c r="AD4" s="115" t="n"/>
-      <c r="AE4" s="115" t="n"/>
-      <c r="AF4" s="115" t="n"/>
-      <c r="AG4" s="115" t="n"/>
-      <c r="AH4" s="115" t="n"/>
-      <c r="AI4" s="115" t="n"/>
-      <c r="AJ4" s="115" t="n"/>
-      <c r="AK4" s="115" t="n"/>
-      <c r="AL4" s="115" t="n"/>
-      <c r="AM4" s="115" t="n"/>
-      <c r="AN4" s="115" t="n"/>
-      <c r="AO4" s="115" t="n"/>
-      <c r="AP4" s="121" t="n"/>
-      <c r="AQ4" s="121" t="n"/>
-    </row>
-    <row r="5" ht="15.6" customHeight="1" s="243">
-      <c r="A5" s="249" t="inlineStr">
+      <c r="B4" s="151" t="n"/>
+      <c r="C4" s="151" t="n"/>
+      <c r="D4" s="151" t="n"/>
+      <c r="E4" s="151" t="n"/>
+      <c r="F4" s="151" t="n"/>
+      <c r="G4" s="151" t="n"/>
+      <c r="H4" s="151" t="n"/>
+      <c r="I4" s="151" t="n"/>
+      <c r="J4" s="151" t="n"/>
+      <c r="K4" s="151" t="n"/>
+      <c r="L4" s="151" t="n"/>
+      <c r="M4" s="76" t="n"/>
+      <c r="N4" s="76" t="n"/>
+      <c r="O4" s="80" t="n"/>
+      <c r="P4" s="80" t="n"/>
+      <c r="Q4" s="80" t="n"/>
+      <c r="R4" s="80" t="n"/>
+      <c r="S4" s="80" t="n"/>
+      <c r="T4" s="80" t="n"/>
+      <c r="U4" s="80" t="n"/>
+      <c r="V4" s="80" t="n"/>
+      <c r="W4" s="80" t="n"/>
+      <c r="X4" s="80" t="n"/>
+      <c r="Y4" s="80" t="n"/>
+      <c r="Z4" s="80" t="n"/>
+      <c r="AA4" s="76" t="n"/>
+      <c r="AB4" s="76" t="n"/>
+      <c r="AC4" s="76" t="n"/>
+      <c r="AD4" s="80" t="n"/>
+      <c r="AE4" s="80" t="n"/>
+      <c r="AF4" s="80" t="n"/>
+      <c r="AG4" s="80" t="n"/>
+      <c r="AH4" s="80" t="n"/>
+      <c r="AI4" s="80" t="n"/>
+      <c r="AJ4" s="80" t="n"/>
+      <c r="AK4" s="80" t="n"/>
+      <c r="AL4" s="80" t="n"/>
+      <c r="AM4" s="80" t="n"/>
+      <c r="AN4" s="80" t="n"/>
+      <c r="AO4" s="80" t="n"/>
+      <c r="AP4" s="86" t="n"/>
+      <c r="AQ4" s="86" t="n"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="146">
+      <c r="A5" s="152" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B5" s="250" t="n"/>
-      <c r="C5" s="89" t="inlineStr">
-        <is>
-          <t>22719</t>
-        </is>
-      </c>
-      <c r="D5" s="251" t="n"/>
-      <c r="E5" s="251" t="n"/>
-      <c r="F5" s="90" t="inlineStr">
+      <c r="B5" s="153" t="n"/>
+      <c r="C5" s="33" t="inlineStr">
+        <is>
+          <t>10075</t>
+        </is>
+      </c>
+      <c r="D5" s="154" t="n"/>
+      <c r="E5" s="154" t="n"/>
+      <c r="F5" s="34" t="inlineStr">
         <is>
           <t>04:39</t>
         </is>
       </c>
-      <c r="G5" s="90" t="inlineStr">
+      <c r="G5" s="34" t="inlineStr">
         <is>
           <t>11:23</t>
         </is>
       </c>
-      <c r="H5" s="54" t="inlineStr">
-        <is>
-          <t>20549</t>
-        </is>
-      </c>
-      <c r="I5" s="251" t="n"/>
-      <c r="J5" s="251" t="n"/>
-      <c r="K5" s="90" t="inlineStr">
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>54437</t>
+        </is>
+      </c>
+      <c r="I5" s="154" t="n"/>
+      <c r="J5" s="154" t="n"/>
+      <c r="K5" s="34" t="inlineStr">
         <is>
           <t>16:10</t>
         </is>
       </c>
-      <c r="L5" s="90" t="inlineStr">
+      <c r="L5" s="34" t="inlineStr">
         <is>
           <t>01:18</t>
         </is>
       </c>
-      <c r="M5" s="111" t="n"/>
-      <c r="N5" s="116" t="n"/>
-      <c r="O5" s="117" t="n"/>
-      <c r="P5" s="118" t="n"/>
-      <c r="Q5" s="127" t="n"/>
-      <c r="R5" s="127" t="n"/>
-      <c r="S5" s="127" t="n"/>
-      <c r="T5" s="128" t="n"/>
-      <c r="U5" s="128" t="n"/>
-      <c r="V5" s="127" t="n"/>
-      <c r="W5" s="127" t="n"/>
-      <c r="X5" s="127" t="n"/>
-      <c r="Y5" s="128" t="n"/>
-      <c r="Z5" s="128" t="n"/>
-      <c r="AA5" s="111" t="n"/>
-      <c r="AB5" s="116" t="n"/>
-      <c r="AC5" s="111" t="n"/>
-      <c r="AD5" s="117" t="n"/>
-      <c r="AE5" s="118" t="n"/>
-      <c r="AF5" s="127" t="n"/>
-      <c r="AG5" s="127" t="n"/>
-      <c r="AH5" s="127" t="n"/>
-      <c r="AI5" s="128" t="n"/>
-      <c r="AJ5" s="128" t="n"/>
-      <c r="AK5" s="131" t="n"/>
-      <c r="AL5" s="131" t="n"/>
-      <c r="AM5" s="131" t="n"/>
-      <c r="AN5" s="128" t="n"/>
-      <c r="AO5" s="128" t="n"/>
-      <c r="AP5" s="121" t="n"/>
-      <c r="AQ5" s="121" t="n"/>
-    </row>
-    <row r="6" ht="15.6" customHeight="1" s="243">
-      <c r="A6" s="252" t="n"/>
-      <c r="B6" s="248" t="n"/>
-      <c r="C6" s="92" t="n"/>
-      <c r="D6" s="248" t="n"/>
-      <c r="E6" s="248" t="n"/>
-      <c r="F6" s="93" t="inlineStr">
+      <c r="M5" s="76" t="n"/>
+      <c r="N5" s="81" t="n"/>
+      <c r="O5" s="82" t="n"/>
+      <c r="P5" s="83" t="n"/>
+      <c r="Q5" s="90" t="n"/>
+      <c r="R5" s="90" t="n"/>
+      <c r="S5" s="90" t="n"/>
+      <c r="T5" s="91" t="n"/>
+      <c r="U5" s="91" t="n"/>
+      <c r="V5" s="90" t="n"/>
+      <c r="W5" s="90" t="n"/>
+      <c r="X5" s="90" t="n"/>
+      <c r="Y5" s="91" t="n"/>
+      <c r="Z5" s="91" t="n"/>
+      <c r="AA5" s="76" t="n"/>
+      <c r="AB5" s="81" t="n"/>
+      <c r="AC5" s="76" t="n"/>
+      <c r="AD5" s="82" t="n"/>
+      <c r="AE5" s="83" t="n"/>
+      <c r="AF5" s="90" t="n"/>
+      <c r="AG5" s="90" t="n"/>
+      <c r="AH5" s="90" t="n"/>
+      <c r="AI5" s="91" t="n"/>
+      <c r="AJ5" s="91" t="n"/>
+      <c r="AK5" s="94" t="n"/>
+      <c r="AL5" s="94" t="n"/>
+      <c r="AM5" s="94" t="n"/>
+      <c r="AN5" s="91" t="n"/>
+      <c r="AO5" s="91" t="n"/>
+      <c r="AP5" s="86" t="n"/>
+      <c r="AQ5" s="86" t="n"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="146">
+      <c r="A6" s="155" t="n"/>
+      <c r="B6" s="151" t="n"/>
+      <c r="C6" s="37" t="n"/>
+      <c r="D6" s="151" t="n"/>
+      <c r="E6" s="151" t="n"/>
+      <c r="F6" s="38" t="inlineStr">
         <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="G6" s="93" t="inlineStr">
+      <c r="G6" s="38" t="inlineStr">
         <is>
           <t>7,1</t>
         </is>
       </c>
-      <c r="H6" s="58" t="n"/>
-      <c r="I6" s="248" t="n"/>
-      <c r="J6" s="248" t="n"/>
-      <c r="K6" s="93" t="inlineStr">
+      <c r="H6" s="10" t="n"/>
+      <c r="I6" s="151" t="n"/>
+      <c r="J6" s="151" t="n"/>
+      <c r="K6" s="38" t="inlineStr">
         <is>
           <t>9,7</t>
         </is>
       </c>
-      <c r="L6" s="93" t="inlineStr">
+      <c r="L6" s="38" t="inlineStr">
         <is>
           <t>9,5</t>
         </is>
       </c>
-      <c r="M6" s="111" t="n"/>
-      <c r="N6" s="119" t="n"/>
-      <c r="O6" s="117" t="n"/>
-      <c r="P6" s="118" t="n"/>
-      <c r="Q6" s="129" t="n"/>
-      <c r="R6" s="129" t="n"/>
-      <c r="S6" s="129" t="n"/>
-      <c r="T6" s="130" t="n"/>
-      <c r="U6" s="130" t="n"/>
-      <c r="V6" s="129" t="n"/>
-      <c r="W6" s="129" t="n"/>
-      <c r="X6" s="129" t="n"/>
-      <c r="Y6" s="130" t="n"/>
-      <c r="Z6" s="130" t="n"/>
-      <c r="AA6" s="111" t="n"/>
-      <c r="AB6" s="119" t="n"/>
-      <c r="AC6" s="111" t="n"/>
-      <c r="AD6" s="117" t="n"/>
-      <c r="AE6" s="118" t="n"/>
-      <c r="AF6" s="129" t="n"/>
-      <c r="AG6" s="129" t="n"/>
-      <c r="AH6" s="129" t="n"/>
-      <c r="AI6" s="130" t="n"/>
-      <c r="AJ6" s="130" t="n"/>
-      <c r="AK6" s="133" t="n"/>
-      <c r="AL6" s="133" t="n"/>
-      <c r="AM6" s="133" t="n"/>
-      <c r="AN6" s="130" t="n"/>
-      <c r="AO6" s="130" t="n"/>
-      <c r="AP6" s="121" t="n"/>
-      <c r="AQ6" s="121" t="n"/>
-    </row>
-    <row r="7" ht="15.6" customHeight="1" s="243">
-      <c r="A7" s="249" t="inlineStr">
+      <c r="M6" s="76" t="n"/>
+      <c r="N6" s="84" t="n"/>
+      <c r="O6" s="82" t="n"/>
+      <c r="P6" s="83" t="n"/>
+      <c r="Q6" s="92" t="n"/>
+      <c r="R6" s="92" t="n"/>
+      <c r="S6" s="92" t="n"/>
+      <c r="T6" s="93" t="n"/>
+      <c r="U6" s="93" t="n"/>
+      <c r="V6" s="92" t="n"/>
+      <c r="W6" s="92" t="n"/>
+      <c r="X6" s="92" t="n"/>
+      <c r="Y6" s="93" t="n"/>
+      <c r="Z6" s="93" t="n"/>
+      <c r="AA6" s="76" t="n"/>
+      <c r="AB6" s="84" t="n"/>
+      <c r="AC6" s="76" t="n"/>
+      <c r="AD6" s="82" t="n"/>
+      <c r="AE6" s="83" t="n"/>
+      <c r="AF6" s="92" t="n"/>
+      <c r="AG6" s="92" t="n"/>
+      <c r="AH6" s="92" t="n"/>
+      <c r="AI6" s="93" t="n"/>
+      <c r="AJ6" s="93" t="n"/>
+      <c r="AK6" s="96" t="n"/>
+      <c r="AL6" s="96" t="n"/>
+      <c r="AM6" s="96" t="n"/>
+      <c r="AN6" s="93" t="n"/>
+      <c r="AO6" s="93" t="n"/>
+      <c r="AP6" s="86" t="n"/>
+      <c r="AQ6" s="86" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="146">
+      <c r="A7" s="152" t="inlineStr">
         <is>
           <t>2 Ш</t>
         </is>
       </c>
-      <c r="B7" s="250" t="n"/>
-      <c r="C7" s="54" t="inlineStr">
-        <is>
-          <t>25166</t>
-        </is>
-      </c>
-      <c r="D7" s="251" t="n"/>
-      <c r="E7" s="251" t="n"/>
-      <c r="F7" s="90" t="inlineStr">
+      <c r="B7" s="153" t="n"/>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>10480</t>
+        </is>
+      </c>
+      <c r="D7" s="154" t="n"/>
+      <c r="E7" s="154" t="n"/>
+      <c r="F7" s="34" t="inlineStr">
         <is>
           <t>04:46</t>
         </is>
       </c>
-      <c r="G7" s="90" t="inlineStr">
+      <c r="G7" s="34" t="inlineStr">
         <is>
           <t>12:13</t>
         </is>
       </c>
-      <c r="H7" s="54" t="inlineStr">
-        <is>
-          <t>25234</t>
-        </is>
-      </c>
-      <c r="I7" s="251" t="n"/>
-      <c r="J7" s="251" t="n"/>
-      <c r="K7" s="90" t="inlineStr">
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>54467</t>
+        </is>
+      </c>
+      <c r="I7" s="154" t="n"/>
+      <c r="J7" s="154" t="n"/>
+      <c r="K7" s="34" t="inlineStr">
         <is>
           <t>12:13</t>
         </is>
       </c>
-      <c r="L7" s="90" t="inlineStr">
+      <c r="L7" s="34" t="inlineStr">
         <is>
           <t>21:22</t>
         </is>
       </c>
-      <c r="M7" s="111" t="n"/>
-      <c r="N7" s="116" t="n"/>
-      <c r="O7" s="117" t="n"/>
-      <c r="P7" s="118" t="n"/>
-      <c r="Q7" s="131" t="n"/>
-      <c r="R7" s="131" t="n"/>
-      <c r="S7" s="131" t="n"/>
-      <c r="T7" s="128" t="n"/>
-      <c r="U7" s="128" t="n"/>
-      <c r="V7" s="127" t="n"/>
-      <c r="W7" s="127" t="n"/>
-      <c r="X7" s="127" t="n"/>
-      <c r="Y7" s="128" t="n"/>
-      <c r="Z7" s="128" t="n"/>
-      <c r="AA7" s="111" t="n"/>
-      <c r="AB7" s="116" t="n"/>
-      <c r="AC7" s="111" t="n"/>
-      <c r="AD7" s="117" t="n"/>
-      <c r="AE7" s="118" t="n"/>
-      <c r="AF7" s="127" t="n"/>
-      <c r="AG7" s="127" t="n"/>
-      <c r="AH7" s="127" t="n"/>
-      <c r="AI7" s="128" t="n"/>
-      <c r="AJ7" s="128" t="n"/>
-      <c r="AK7" s="127" t="n"/>
-      <c r="AL7" s="127" t="n"/>
-      <c r="AM7" s="127" t="n"/>
-      <c r="AN7" s="128" t="n"/>
-      <c r="AO7" s="128" t="n"/>
-      <c r="AP7" s="121" t="n"/>
-      <c r="AQ7" s="121" t="n"/>
-    </row>
-    <row r="8" ht="15.6" customHeight="1" s="243">
-      <c r="A8" s="252" t="n"/>
-      <c r="B8" s="248" t="n"/>
-      <c r="C8" s="92" t="n"/>
-      <c r="D8" s="248" t="n"/>
-      <c r="E8" s="248" t="n"/>
-      <c r="F8" s="93" t="inlineStr">
+      <c r="M7" s="76" t="n"/>
+      <c r="N7" s="81" t="n"/>
+      <c r="O7" s="82" t="n"/>
+      <c r="P7" s="83" t="n"/>
+      <c r="Q7" s="94" t="n"/>
+      <c r="R7" s="94" t="n"/>
+      <c r="S7" s="94" t="n"/>
+      <c r="T7" s="91" t="n"/>
+      <c r="U7" s="91" t="n"/>
+      <c r="V7" s="90" t="n"/>
+      <c r="W7" s="90" t="n"/>
+      <c r="X7" s="90" t="n"/>
+      <c r="Y7" s="91" t="n"/>
+      <c r="Z7" s="91" t="n"/>
+      <c r="AA7" s="76" t="n"/>
+      <c r="AB7" s="81" t="n"/>
+      <c r="AC7" s="76" t="n"/>
+      <c r="AD7" s="82" t="n"/>
+      <c r="AE7" s="83" t="n"/>
+      <c r="AF7" s="90" t="n"/>
+      <c r="AG7" s="90" t="n"/>
+      <c r="AH7" s="90" t="n"/>
+      <c r="AI7" s="91" t="n"/>
+      <c r="AJ7" s="91" t="n"/>
+      <c r="AK7" s="90" t="n"/>
+      <c r="AL7" s="90" t="n"/>
+      <c r="AM7" s="90" t="n"/>
+      <c r="AN7" s="91" t="n"/>
+      <c r="AO7" s="91" t="n"/>
+      <c r="AP7" s="86" t="n"/>
+      <c r="AQ7" s="86" t="n"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="146">
+      <c r="A8" s="155" t="n"/>
+      <c r="B8" s="151" t="n"/>
+      <c r="C8" s="37" t="n"/>
+      <c r="D8" s="151" t="n"/>
+      <c r="E8" s="151" t="n"/>
+      <c r="F8" s="38" t="inlineStr">
         <is>
           <t>7,9</t>
         </is>
       </c>
-      <c r="G8" s="93" t="inlineStr">
+      <c r="G8" s="38" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
-      <c r="H8" s="94" t="n"/>
-      <c r="I8" s="248" t="n"/>
-      <c r="J8" s="248" t="n"/>
-      <c r="K8" s="93" t="inlineStr">
+      <c r="H8" s="63" t="n"/>
+      <c r="I8" s="151" t="n"/>
+      <c r="J8" s="151" t="n"/>
+      <c r="K8" s="38" t="inlineStr">
         <is>
           <t>9,6</t>
         </is>
       </c>
-      <c r="L8" s="93" t="inlineStr">
+      <c r="L8" s="38" t="inlineStr">
         <is>
           <t>9,9</t>
         </is>
       </c>
-      <c r="M8" s="111" t="n"/>
-      <c r="N8" s="119" t="n"/>
-      <c r="O8" s="117" t="n"/>
-      <c r="P8" s="118" t="n"/>
-      <c r="Q8" s="129" t="n"/>
-      <c r="R8" s="129" t="n"/>
-      <c r="S8" s="129" t="n"/>
-      <c r="T8" s="130" t="n"/>
-      <c r="U8" s="130" t="n"/>
-      <c r="V8" s="129" t="n"/>
-      <c r="W8" s="129" t="n"/>
-      <c r="X8" s="129" t="n"/>
-      <c r="Y8" s="130" t="n"/>
-      <c r="Z8" s="130" t="n"/>
-      <c r="AA8" s="111" t="n"/>
-      <c r="AB8" s="119" t="n"/>
-      <c r="AC8" s="111" t="n"/>
-      <c r="AD8" s="117" t="n"/>
-      <c r="AE8" s="118" t="n"/>
-      <c r="AF8" s="133" t="n"/>
-      <c r="AG8" s="133" t="n"/>
-      <c r="AH8" s="133" t="n"/>
-      <c r="AI8" s="130" t="n"/>
-      <c r="AJ8" s="130" t="n"/>
-      <c r="AK8" s="129" t="n"/>
-      <c r="AL8" s="129" t="n"/>
-      <c r="AM8" s="129" t="n"/>
-      <c r="AN8" s="130" t="n"/>
-      <c r="AO8" s="130" t="n"/>
-      <c r="AP8" s="121" t="n"/>
-      <c r="AQ8" s="121" t="n"/>
-    </row>
-    <row r="9" ht="15.6" customHeight="1" s="243">
-      <c r="A9" s="249" t="inlineStr">
+      <c r="M8" s="76" t="n"/>
+      <c r="N8" s="84" t="n"/>
+      <c r="O8" s="82" t="n"/>
+      <c r="P8" s="83" t="n"/>
+      <c r="Q8" s="92" t="n"/>
+      <c r="R8" s="92" t="n"/>
+      <c r="S8" s="92" t="n"/>
+      <c r="T8" s="93" t="n"/>
+      <c r="U8" s="93" t="n"/>
+      <c r="V8" s="92" t="n"/>
+      <c r="W8" s="92" t="n"/>
+      <c r="X8" s="92" t="n"/>
+      <c r="Y8" s="93" t="n"/>
+      <c r="Z8" s="93" t="n"/>
+      <c r="AA8" s="76" t="n"/>
+      <c r="AB8" s="84" t="n"/>
+      <c r="AC8" s="76" t="n"/>
+      <c r="AD8" s="82" t="n"/>
+      <c r="AE8" s="83" t="n"/>
+      <c r="AF8" s="96" t="n"/>
+      <c r="AG8" s="96" t="n"/>
+      <c r="AH8" s="96" t="n"/>
+      <c r="AI8" s="93" t="n"/>
+      <c r="AJ8" s="93" t="n"/>
+      <c r="AK8" s="92" t="n"/>
+      <c r="AL8" s="92" t="n"/>
+      <c r="AM8" s="92" t="n"/>
+      <c r="AN8" s="93" t="n"/>
+      <c r="AO8" s="93" t="n"/>
+      <c r="AP8" s="86" t="n"/>
+      <c r="AQ8" s="86" t="n"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="146">
+      <c r="A9" s="152" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B9" s="253" t="n"/>
-      <c r="C9" s="89" t="inlineStr">
-        <is>
-          <t>25184</t>
-        </is>
-      </c>
-      <c r="D9" s="251" t="n"/>
-      <c r="E9" s="251" t="n"/>
-      <c r="F9" s="90" t="inlineStr">
+      <c r="B9" s="156" t="n"/>
+      <c r="C9" s="33" t="inlineStr">
+        <is>
+          <t>10485</t>
+        </is>
+      </c>
+      <c r="D9" s="154" t="n"/>
+      <c r="E9" s="154" t="n"/>
+      <c r="F9" s="34" t="inlineStr">
         <is>
           <t>04:48</t>
         </is>
       </c>
-      <c r="G9" s="90" t="inlineStr">
+      <c r="G9" s="34" t="inlineStr">
         <is>
           <t>11:29</t>
         </is>
       </c>
-      <c r="H9" s="89" t="inlineStr">
-        <is>
-          <t>25243</t>
-        </is>
-      </c>
-      <c r="I9" s="251" t="n"/>
-      <c r="J9" s="251" t="n"/>
-      <c r="K9" s="90" t="inlineStr">
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t>54477</t>
+        </is>
+      </c>
+      <c r="I9" s="154" t="n"/>
+      <c r="J9" s="154" t="n"/>
+      <c r="K9" s="34" t="inlineStr">
         <is>
           <t>15:53</t>
         </is>
       </c>
-      <c r="L9" s="90" t="inlineStr">
+      <c r="L9" s="34" t="inlineStr">
         <is>
           <t>00:12</t>
         </is>
       </c>
-      <c r="M9" s="111" t="n"/>
-      <c r="N9" s="116" t="n"/>
-      <c r="O9" s="117" t="n"/>
-      <c r="P9" s="118" t="n"/>
-      <c r="Q9" s="127" t="n"/>
-      <c r="R9" s="127" t="n"/>
-      <c r="S9" s="127" t="n"/>
-      <c r="T9" s="128" t="n"/>
-      <c r="U9" s="128" t="n"/>
-      <c r="V9" s="127" t="n"/>
-      <c r="W9" s="127" t="n"/>
-      <c r="X9" s="127" t="n"/>
-      <c r="Y9" s="128" t="n"/>
-      <c r="Z9" s="128" t="n"/>
-      <c r="AA9" s="111" t="n"/>
-      <c r="AB9" s="116" t="n"/>
-      <c r="AC9" s="111" t="n"/>
-      <c r="AD9" s="117" t="n"/>
-      <c r="AE9" s="118" t="n"/>
-      <c r="AF9" s="127" t="n"/>
-      <c r="AG9" s="127" t="n"/>
-      <c r="AH9" s="127" t="n"/>
-      <c r="AI9" s="128" t="n"/>
-      <c r="AJ9" s="128" t="n"/>
-      <c r="AK9" s="127" t="n"/>
-      <c r="AL9" s="127" t="n"/>
-      <c r="AM9" s="127" t="n"/>
-      <c r="AN9" s="128" t="n"/>
-      <c r="AO9" s="128" t="n"/>
-      <c r="AP9" s="121" t="n"/>
-      <c r="AQ9" s="121" t="n"/>
-    </row>
-    <row r="10" ht="15.6" customHeight="1" s="243">
-      <c r="A10" s="252" t="n"/>
-      <c r="B10" s="248" t="n"/>
-      <c r="C10" s="92" t="n"/>
-      <c r="D10" s="248" t="n"/>
-      <c r="E10" s="248" t="n"/>
-      <c r="F10" s="93" t="inlineStr">
+      <c r="M9" s="76" t="n"/>
+      <c r="N9" s="81" t="n"/>
+      <c r="O9" s="82" t="n"/>
+      <c r="P9" s="83" t="n"/>
+      <c r="Q9" s="90" t="n"/>
+      <c r="R9" s="90" t="n"/>
+      <c r="S9" s="90" t="n"/>
+      <c r="T9" s="91" t="n"/>
+      <c r="U9" s="91" t="n"/>
+      <c r="V9" s="90" t="n"/>
+      <c r="W9" s="90" t="n"/>
+      <c r="X9" s="90" t="n"/>
+      <c r="Y9" s="91" t="n"/>
+      <c r="Z9" s="91" t="n"/>
+      <c r="AA9" s="76" t="n"/>
+      <c r="AB9" s="81" t="n"/>
+      <c r="AC9" s="76" t="n"/>
+      <c r="AD9" s="82" t="n"/>
+      <c r="AE9" s="83" t="n"/>
+      <c r="AF9" s="90" t="n"/>
+      <c r="AG9" s="90" t="n"/>
+      <c r="AH9" s="90" t="n"/>
+      <c r="AI9" s="91" t="n"/>
+      <c r="AJ9" s="91" t="n"/>
+      <c r="AK9" s="90" t="n"/>
+      <c r="AL9" s="90" t="n"/>
+      <c r="AM9" s="90" t="n"/>
+      <c r="AN9" s="91" t="n"/>
+      <c r="AO9" s="91" t="n"/>
+      <c r="AP9" s="86" t="n"/>
+      <c r="AQ9" s="86" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="146">
+      <c r="A10" s="155" t="n"/>
+      <c r="B10" s="151" t="n"/>
+      <c r="C10" s="37" t="n"/>
+      <c r="D10" s="151" t="n"/>
+      <c r="E10" s="151" t="n"/>
+      <c r="F10" s="38" t="inlineStr">
         <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="G10" s="93" t="inlineStr">
+      <c r="G10" s="38" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H10" s="92" t="n"/>
-      <c r="I10" s="248" t="n"/>
-      <c r="J10" s="248" t="n"/>
-      <c r="K10" s="93" t="inlineStr">
+      <c r="H10" s="37" t="n"/>
+      <c r="I10" s="151" t="n"/>
+      <c r="J10" s="151" t="n"/>
+      <c r="K10" s="38" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="L10" s="93" t="inlineStr">
+      <c r="L10" s="38" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="M10" s="111" t="n"/>
-      <c r="N10" s="119" t="n"/>
-      <c r="O10" s="117" t="n"/>
-      <c r="P10" s="118" t="n"/>
-      <c r="Q10" s="132" t="n"/>
-      <c r="R10" s="132" t="n"/>
-      <c r="S10" s="132" t="n"/>
-      <c r="T10" s="130" t="n"/>
-      <c r="U10" s="130" t="n"/>
-      <c r="V10" s="129" t="n"/>
-      <c r="W10" s="129" t="n"/>
-      <c r="X10" s="129" t="n"/>
-      <c r="Y10" s="130" t="n"/>
-      <c r="Z10" s="130" t="n"/>
-      <c r="AA10" s="111" t="n"/>
-      <c r="AB10" s="119" t="n"/>
-      <c r="AC10" s="111" t="n"/>
-      <c r="AD10" s="117" t="n"/>
-      <c r="AE10" s="118" t="n"/>
-      <c r="AF10" s="129" t="n"/>
-      <c r="AG10" s="129" t="n"/>
-      <c r="AH10" s="129" t="n"/>
-      <c r="AI10" s="130" t="n"/>
-      <c r="AJ10" s="130" t="n"/>
-      <c r="AK10" s="133" t="n"/>
-      <c r="AL10" s="133" t="n"/>
-      <c r="AM10" s="133" t="n"/>
-      <c r="AN10" s="130" t="n"/>
-      <c r="AO10" s="130" t="n"/>
-      <c r="AP10" s="121" t="n"/>
-      <c r="AQ10" s="121" t="n"/>
-    </row>
-    <row r="11" ht="15.6" customHeight="1" s="243">
-      <c r="A11" s="249" t="inlineStr">
+      <c r="M10" s="76" t="n"/>
+      <c r="N10" s="84" t="n"/>
+      <c r="O10" s="82" t="n"/>
+      <c r="P10" s="83" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="93" t="n"/>
+      <c r="U10" s="93" t="n"/>
+      <c r="V10" s="92" t="n"/>
+      <c r="W10" s="92" t="n"/>
+      <c r="X10" s="92" t="n"/>
+      <c r="Y10" s="93" t="n"/>
+      <c r="Z10" s="93" t="n"/>
+      <c r="AA10" s="76" t="n"/>
+      <c r="AB10" s="84" t="n"/>
+      <c r="AC10" s="76" t="n"/>
+      <c r="AD10" s="82" t="n"/>
+      <c r="AE10" s="83" t="n"/>
+      <c r="AF10" s="92" t="n"/>
+      <c r="AG10" s="92" t="n"/>
+      <c r="AH10" s="92" t="n"/>
+      <c r="AI10" s="93" t="n"/>
+      <c r="AJ10" s="93" t="n"/>
+      <c r="AK10" s="96" t="n"/>
+      <c r="AL10" s="96" t="n"/>
+      <c r="AM10" s="96" t="n"/>
+      <c r="AN10" s="93" t="n"/>
+      <c r="AO10" s="93" t="n"/>
+      <c r="AP10" s="86" t="n"/>
+      <c r="AQ10" s="86" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="146">
+      <c r="A11" s="152" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B11" s="253" t="n"/>
-      <c r="C11" s="73" t="inlineStr">
-        <is>
-          <t>25232</t>
-        </is>
-      </c>
-      <c r="D11" s="251" t="n"/>
-      <c r="E11" s="251" t="n"/>
-      <c r="F11" s="90" t="inlineStr">
+      <c r="B11" s="156" t="n"/>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>10572</t>
+        </is>
+      </c>
+      <c r="D11" s="154" t="n"/>
+      <c r="E11" s="154" t="n"/>
+      <c r="F11" s="34" t="inlineStr">
         <is>
           <t>04:50</t>
         </is>
       </c>
-      <c r="G11" s="90" t="inlineStr">
+      <c r="G11" s="34" t="inlineStr">
         <is>
           <t>13:02</t>
         </is>
       </c>
-      <c r="H11" s="89" t="inlineStr">
-        <is>
-          <t>25252</t>
-        </is>
-      </c>
-      <c r="I11" s="251" t="n"/>
-      <c r="J11" s="251" t="n"/>
-      <c r="K11" s="90" t="inlineStr">
+      <c r="H11" s="33" t="inlineStr">
+        <is>
+          <t>54543</t>
+        </is>
+      </c>
+      <c r="I11" s="154" t="n"/>
+      <c r="J11" s="154" t="n"/>
+      <c r="K11" s="34" t="inlineStr">
         <is>
           <t>16:37</t>
         </is>
       </c>
-      <c r="L11" s="90" t="inlineStr">
+      <c r="L11" s="34" t="inlineStr">
         <is>
           <t>00:49</t>
         </is>
       </c>
-      <c r="M11" s="111" t="n"/>
-      <c r="N11" s="116" t="n"/>
-      <c r="O11" s="117" t="n"/>
-      <c r="P11" s="118" t="n"/>
-      <c r="Q11" s="127" t="n"/>
-      <c r="R11" s="127" t="n"/>
-      <c r="S11" s="127" t="n"/>
-      <c r="T11" s="128" t="n"/>
-      <c r="U11" s="128" t="n"/>
-      <c r="V11" s="127" t="n"/>
-      <c r="W11" s="127" t="n"/>
-      <c r="X11" s="127" t="n"/>
-      <c r="Y11" s="128" t="n"/>
-      <c r="Z11" s="128" t="n"/>
-      <c r="AA11" s="111" t="n"/>
-      <c r="AB11" s="116" t="n"/>
-      <c r="AC11" s="111" t="n"/>
-      <c r="AD11" s="117" t="n"/>
-      <c r="AE11" s="118" t="n"/>
-      <c r="AF11" s="127" t="n"/>
-      <c r="AG11" s="127" t="n"/>
-      <c r="AH11" s="127" t="n"/>
-      <c r="AI11" s="128" t="n"/>
-      <c r="AJ11" s="128" t="n"/>
-      <c r="AK11" s="127" t="n"/>
-      <c r="AL11" s="127" t="n"/>
-      <c r="AM11" s="127" t="n"/>
-      <c r="AN11" s="128" t="n"/>
-      <c r="AO11" s="128" t="n"/>
-      <c r="AP11" s="121" t="n"/>
-      <c r="AQ11" s="121" t="n"/>
-    </row>
-    <row r="12" ht="15.6" customHeight="1" s="243">
-      <c r="A12" s="252" t="n"/>
-      <c r="B12" s="248" t="n"/>
-      <c r="C12" s="92" t="n"/>
-      <c r="D12" s="248" t="n"/>
-      <c r="E12" s="248" t="n"/>
-      <c r="F12" s="93" t="inlineStr">
+      <c r="M11" s="76" t="n"/>
+      <c r="N11" s="81" t="n"/>
+      <c r="O11" s="82" t="n"/>
+      <c r="P11" s="83" t="n"/>
+      <c r="Q11" s="90" t="n"/>
+      <c r="R11" s="90" t="n"/>
+      <c r="S11" s="90" t="n"/>
+      <c r="T11" s="91" t="n"/>
+      <c r="U11" s="91" t="n"/>
+      <c r="V11" s="90" t="n"/>
+      <c r="W11" s="90" t="n"/>
+      <c r="X11" s="90" t="n"/>
+      <c r="Y11" s="91" t="n"/>
+      <c r="Z11" s="91" t="n"/>
+      <c r="AA11" s="76" t="n"/>
+      <c r="AB11" s="81" t="n"/>
+      <c r="AC11" s="76" t="n"/>
+      <c r="AD11" s="82" t="n"/>
+      <c r="AE11" s="83" t="n"/>
+      <c r="AF11" s="90" t="n"/>
+      <c r="AG11" s="90" t="n"/>
+      <c r="AH11" s="90" t="n"/>
+      <c r="AI11" s="91" t="n"/>
+      <c r="AJ11" s="91" t="n"/>
+      <c r="AK11" s="90" t="n"/>
+      <c r="AL11" s="90" t="n"/>
+      <c r="AM11" s="90" t="n"/>
+      <c r="AN11" s="91" t="n"/>
+      <c r="AO11" s="91" t="n"/>
+      <c r="AP11" s="86" t="n"/>
+      <c r="AQ11" s="86" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="146">
+      <c r="A12" s="155" t="n"/>
+      <c r="B12" s="151" t="n"/>
+      <c r="C12" s="37" t="n"/>
+      <c r="D12" s="151" t="n"/>
+      <c r="E12" s="151" t="n"/>
+      <c r="F12" s="38" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="G12" s="93" t="inlineStr">
+      <c r="G12" s="38" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="H12" s="92" t="n"/>
-      <c r="I12" s="248" t="n"/>
-      <c r="J12" s="248" t="n"/>
-      <c r="K12" s="93" t="inlineStr">
+      <c r="H12" s="37" t="n"/>
+      <c r="I12" s="151" t="n"/>
+      <c r="J12" s="151" t="n"/>
+      <c r="K12" s="38" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L12" s="93" t="inlineStr">
+      <c r="L12" s="38" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="M12" s="111" t="n"/>
-      <c r="N12" s="119" t="n"/>
-      <c r="O12" s="117" t="n"/>
-      <c r="P12" s="118" t="n"/>
-      <c r="Q12" s="129" t="n"/>
-      <c r="R12" s="129" t="n"/>
-      <c r="S12" s="129" t="n"/>
-      <c r="T12" s="130" t="n"/>
-      <c r="U12" s="130" t="n"/>
-      <c r="V12" s="129" t="n"/>
-      <c r="W12" s="129" t="n"/>
-      <c r="X12" s="129" t="n"/>
-      <c r="Y12" s="130" t="n"/>
-      <c r="Z12" s="130" t="n"/>
-      <c r="AA12" s="111" t="n"/>
-      <c r="AB12" s="119" t="n"/>
-      <c r="AC12" s="111" t="n"/>
-      <c r="AD12" s="117" t="n"/>
-      <c r="AE12" s="118" t="n"/>
-      <c r="AF12" s="129" t="n"/>
-      <c r="AG12" s="129" t="n"/>
-      <c r="AH12" s="129" t="n"/>
-      <c r="AI12" s="130" t="n"/>
-      <c r="AJ12" s="130" t="n"/>
-      <c r="AK12" s="133" t="n"/>
-      <c r="AL12" s="133" t="n"/>
-      <c r="AM12" s="133" t="n"/>
-      <c r="AN12" s="130" t="n"/>
-      <c r="AO12" s="130" t="n"/>
-      <c r="AP12" s="121" t="n"/>
-      <c r="AQ12" s="121" t="n"/>
-    </row>
-    <row r="13" ht="15.6" customHeight="1" s="243">
-      <c r="A13" s="249" t="inlineStr">
+      <c r="M12" s="76" t="n"/>
+      <c r="N12" s="84" t="n"/>
+      <c r="O12" s="82" t="n"/>
+      <c r="P12" s="83" t="n"/>
+      <c r="Q12" s="92" t="n"/>
+      <c r="R12" s="92" t="n"/>
+      <c r="S12" s="92" t="n"/>
+      <c r="T12" s="93" t="n"/>
+      <c r="U12" s="93" t="n"/>
+      <c r="V12" s="92" t="n"/>
+      <c r="W12" s="92" t="n"/>
+      <c r="X12" s="92" t="n"/>
+      <c r="Y12" s="93" t="n"/>
+      <c r="Z12" s="93" t="n"/>
+      <c r="AA12" s="76" t="n"/>
+      <c r="AB12" s="84" t="n"/>
+      <c r="AC12" s="76" t="n"/>
+      <c r="AD12" s="82" t="n"/>
+      <c r="AE12" s="83" t="n"/>
+      <c r="AF12" s="92" t="n"/>
+      <c r="AG12" s="92" t="n"/>
+      <c r="AH12" s="92" t="n"/>
+      <c r="AI12" s="93" t="n"/>
+      <c r="AJ12" s="93" t="n"/>
+      <c r="AK12" s="96" t="n"/>
+      <c r="AL12" s="96" t="n"/>
+      <c r="AM12" s="96" t="n"/>
+      <c r="AN12" s="93" t="n"/>
+      <c r="AO12" s="93" t="n"/>
+      <c r="AP12" s="86" t="n"/>
+      <c r="AQ12" s="86" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="146">
+      <c r="A13" s="152" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B13" s="95" t="n"/>
-      <c r="C13" s="54" t="inlineStr">
-        <is>
-          <t>25244</t>
-        </is>
-      </c>
-      <c r="D13" s="251" t="n"/>
-      <c r="E13" s="251" t="n"/>
-      <c r="F13" s="90" t="inlineStr">
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>10632</t>
+        </is>
+      </c>
+      <c r="D13" s="154" t="n"/>
+      <c r="E13" s="154" t="n"/>
+      <c r="F13" s="34" t="inlineStr">
         <is>
           <t>04:54</t>
         </is>
       </c>
-      <c r="G13" s="90" t="inlineStr">
+      <c r="G13" s="34" t="inlineStr">
         <is>
           <t>13:10</t>
         </is>
       </c>
-      <c r="H13" s="89" t="inlineStr">
-        <is>
-          <t>25727</t>
-        </is>
-      </c>
-      <c r="I13" s="251" t="n"/>
-      <c r="J13" s="251" t="n"/>
-      <c r="K13" s="90" t="inlineStr">
+      <c r="H13" s="33" t="inlineStr">
+        <is>
+          <t>54598</t>
+        </is>
+      </c>
+      <c r="I13" s="154" t="n"/>
+      <c r="J13" s="154" t="n"/>
+      <c r="K13" s="34" t="inlineStr">
         <is>
           <t>16:28</t>
         </is>
       </c>
-      <c r="L13" s="90" t="inlineStr">
+      <c r="L13" s="34" t="inlineStr">
         <is>
           <t>00:41</t>
         </is>
       </c>
-      <c r="M13" s="111" t="n"/>
-      <c r="N13" s="116" t="n"/>
-      <c r="O13" s="117" t="n"/>
-      <c r="P13" s="120" t="n"/>
-      <c r="Q13" s="127" t="n"/>
-      <c r="R13" s="127" t="n"/>
-      <c r="S13" s="127" t="n"/>
-      <c r="T13" s="128" t="n"/>
-      <c r="U13" s="128" t="n"/>
-      <c r="V13" s="127" t="n"/>
-      <c r="W13" s="127" t="n"/>
-      <c r="X13" s="127" t="n"/>
-      <c r="Y13" s="128" t="n"/>
-      <c r="Z13" s="128" t="n"/>
-      <c r="AA13" s="111" t="n"/>
-      <c r="AB13" s="116" t="n"/>
-      <c r="AC13" s="111" t="n"/>
-      <c r="AD13" s="117" t="n"/>
-      <c r="AE13" s="120" t="n"/>
-      <c r="AF13" s="127" t="n"/>
-      <c r="AG13" s="127" t="n"/>
-      <c r="AH13" s="127" t="n"/>
-      <c r="AI13" s="128" t="n"/>
-      <c r="AJ13" s="128" t="n"/>
-      <c r="AK13" s="127" t="n"/>
-      <c r="AL13" s="127" t="n"/>
-      <c r="AM13" s="127" t="n"/>
-      <c r="AN13" s="128" t="n"/>
-      <c r="AO13" s="128" t="n"/>
-      <c r="AP13" s="121" t="n"/>
-      <c r="AQ13" s="121" t="n"/>
-    </row>
-    <row r="14" ht="16.35" customHeight="1" s="243">
-      <c r="A14" s="252" t="n"/>
-      <c r="C14" s="92" t="n"/>
-      <c r="D14" s="248" t="n"/>
-      <c r="E14" s="248" t="n"/>
-      <c r="F14" s="93" t="inlineStr">
+      <c r="M13" s="76" t="n"/>
+      <c r="N13" s="81" t="n"/>
+      <c r="O13" s="82" t="n"/>
+      <c r="P13" s="85" t="n"/>
+      <c r="Q13" s="90" t="n"/>
+      <c r="R13" s="90" t="n"/>
+      <c r="S13" s="90" t="n"/>
+      <c r="T13" s="91" t="n"/>
+      <c r="U13" s="91" t="n"/>
+      <c r="V13" s="90" t="n"/>
+      <c r="W13" s="90" t="n"/>
+      <c r="X13" s="90" t="n"/>
+      <c r="Y13" s="91" t="n"/>
+      <c r="Z13" s="91" t="n"/>
+      <c r="AA13" s="76" t="n"/>
+      <c r="AB13" s="81" t="n"/>
+      <c r="AC13" s="76" t="n"/>
+      <c r="AD13" s="82" t="n"/>
+      <c r="AE13" s="85" t="n"/>
+      <c r="AF13" s="90" t="n"/>
+      <c r="AG13" s="90" t="n"/>
+      <c r="AH13" s="90" t="n"/>
+      <c r="AI13" s="91" t="n"/>
+      <c r="AJ13" s="91" t="n"/>
+      <c r="AK13" s="90" t="n"/>
+      <c r="AL13" s="90" t="n"/>
+      <c r="AM13" s="90" t="n"/>
+      <c r="AN13" s="91" t="n"/>
+      <c r="AO13" s="91" t="n"/>
+      <c r="AP13" s="86" t="n"/>
+      <c r="AQ13" s="86" t="n"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" s="146">
+      <c r="A14" s="155" t="n"/>
+      <c r="C14" s="37" t="n"/>
+      <c r="D14" s="151" t="n"/>
+      <c r="E14" s="151" t="n"/>
+      <c r="F14" s="38" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="G14" s="93" t="inlineStr">
+      <c r="G14" s="38" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="H14" s="92" t="n"/>
-      <c r="I14" s="248" t="n"/>
-      <c r="J14" s="248" t="n"/>
-      <c r="K14" s="93" t="inlineStr">
+      <c r="H14" s="37" t="n"/>
+      <c r="I14" s="151" t="n"/>
+      <c r="J14" s="151" t="n"/>
+      <c r="K14" s="38" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L14" s="93" t="inlineStr">
+      <c r="L14" s="38" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="M14" s="111" t="n"/>
-      <c r="N14" s="119" t="n"/>
-      <c r="O14" s="117" t="n"/>
-      <c r="P14" s="120" t="n"/>
-      <c r="Q14" s="129" t="n"/>
-      <c r="R14" s="129" t="n"/>
-      <c r="S14" s="129" t="n"/>
-      <c r="T14" s="130" t="n"/>
-      <c r="U14" s="130" t="n"/>
-      <c r="V14" s="129" t="n"/>
-      <c r="W14" s="129" t="n"/>
-      <c r="X14" s="129" t="n"/>
-      <c r="Y14" s="130" t="n"/>
-      <c r="Z14" s="130" t="n"/>
-      <c r="AA14" s="111" t="n"/>
-      <c r="AB14" s="119" t="n"/>
-      <c r="AC14" s="111" t="n"/>
-      <c r="AD14" s="117" t="n"/>
-      <c r="AE14" s="120" t="n"/>
-      <c r="AF14" s="129" t="n"/>
-      <c r="AG14" s="129" t="n"/>
-      <c r="AH14" s="129" t="n"/>
-      <c r="AI14" s="130" t="n"/>
-      <c r="AJ14" s="130" t="n"/>
-      <c r="AK14" s="133" t="n"/>
-      <c r="AL14" s="133" t="n"/>
-      <c r="AM14" s="133" t="n"/>
-      <c r="AN14" s="130" t="n"/>
-      <c r="AO14" s="130" t="n"/>
-      <c r="AP14" s="121" t="n"/>
-      <c r="AQ14" s="121" t="n"/>
-    </row>
-    <row r="15" ht="15.6" customHeight="1" s="243">
-      <c r="A15" s="249" t="inlineStr">
+      <c r="M14" s="76" t="n"/>
+      <c r="N14" s="84" t="n"/>
+      <c r="O14" s="82" t="n"/>
+      <c r="P14" s="85" t="n"/>
+      <c r="Q14" s="92" t="n"/>
+      <c r="R14" s="92" t="n"/>
+      <c r="S14" s="92" t="n"/>
+      <c r="T14" s="93" t="n"/>
+      <c r="U14" s="93" t="n"/>
+      <c r="V14" s="92" t="n"/>
+      <c r="W14" s="92" t="n"/>
+      <c r="X14" s="92" t="n"/>
+      <c r="Y14" s="93" t="n"/>
+      <c r="Z14" s="93" t="n"/>
+      <c r="AA14" s="76" t="n"/>
+      <c r="AB14" s="84" t="n"/>
+      <c r="AC14" s="76" t="n"/>
+      <c r="AD14" s="82" t="n"/>
+      <c r="AE14" s="85" t="n"/>
+      <c r="AF14" s="92" t="n"/>
+      <c r="AG14" s="92" t="n"/>
+      <c r="AH14" s="92" t="n"/>
+      <c r="AI14" s="93" t="n"/>
+      <c r="AJ14" s="93" t="n"/>
+      <c r="AK14" s="96" t="n"/>
+      <c r="AL14" s="96" t="n"/>
+      <c r="AM14" s="96" t="n"/>
+      <c r="AN14" s="93" t="n"/>
+      <c r="AO14" s="93" t="n"/>
+      <c r="AP14" s="86" t="n"/>
+      <c r="AQ14" s="86" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="146">
+      <c r="A15" s="152" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B15" s="254" t="n"/>
-      <c r="C15" s="89" t="inlineStr">
-        <is>
-          <t>25249</t>
-        </is>
-      </c>
-      <c r="D15" s="251" t="n"/>
-      <c r="E15" s="251" t="n"/>
-      <c r="F15" s="90" t="inlineStr">
+      <c r="B15" s="157" t="n"/>
+      <c r="C15" s="33" t="inlineStr">
+        <is>
+          <t>10808</t>
+        </is>
+      </c>
+      <c r="D15" s="154" t="n"/>
+      <c r="E15" s="154" t="n"/>
+      <c r="F15" s="34" t="inlineStr">
         <is>
           <t>04:57</t>
         </is>
       </c>
-      <c r="G15" s="90" t="inlineStr">
+      <c r="G15" s="34" t="inlineStr">
         <is>
           <t>11:37</t>
         </is>
       </c>
-      <c r="H15" s="89" t="inlineStr">
-        <is>
-          <t>26108</t>
-        </is>
-      </c>
-      <c r="I15" s="251" t="n"/>
-      <c r="J15" s="251" t="n"/>
-      <c r="K15" s="90" t="inlineStr">
+      <c r="H15" s="33" t="inlineStr">
+        <is>
+          <t>54630</t>
+        </is>
+      </c>
+      <c r="I15" s="154" t="n"/>
+      <c r="J15" s="154" t="n"/>
+      <c r="K15" s="34" t="inlineStr">
         <is>
           <t>16:56</t>
         </is>
       </c>
-      <c r="L15" s="90" t="inlineStr">
+      <c r="L15" s="34" t="inlineStr">
         <is>
           <t>01:07</t>
         </is>
       </c>
-      <c r="M15" s="111" t="n"/>
-      <c r="N15" s="116" t="n"/>
-      <c r="O15" s="117" t="n"/>
-      <c r="P15" s="120" t="n"/>
-      <c r="Q15" s="127" t="n"/>
-      <c r="R15" s="127" t="n"/>
-      <c r="S15" s="127" t="n"/>
-      <c r="T15" s="128" t="n"/>
-      <c r="U15" s="128" t="n"/>
-      <c r="V15" s="131" t="n"/>
-      <c r="W15" s="131" t="n"/>
-      <c r="X15" s="131" t="n"/>
-      <c r="Y15" s="128" t="n"/>
-      <c r="Z15" s="128" t="n"/>
-      <c r="AA15" s="111" t="n"/>
-      <c r="AB15" s="116" t="n"/>
-      <c r="AC15" s="111" t="n"/>
-      <c r="AD15" s="117" t="n"/>
-      <c r="AE15" s="118" t="n"/>
-      <c r="AF15" s="127" t="n"/>
-      <c r="AG15" s="127" t="n"/>
-      <c r="AH15" s="127" t="n"/>
-      <c r="AI15" s="128" t="n"/>
-      <c r="AJ15" s="128" t="n"/>
-      <c r="AK15" s="127" t="n"/>
-      <c r="AL15" s="127" t="n"/>
-      <c r="AM15" s="127" t="n"/>
-      <c r="AN15" s="128" t="n"/>
-      <c r="AO15" s="128" t="n"/>
-      <c r="AP15" s="121" t="n"/>
-      <c r="AQ15" s="121" t="n"/>
-    </row>
-    <row r="16" ht="16.35" customHeight="1" s="243">
-      <c r="A16" s="252" t="n"/>
-      <c r="B16" s="255" t="n"/>
-      <c r="C16" s="92" t="n"/>
-      <c r="D16" s="248" t="n"/>
-      <c r="E16" s="248" t="n"/>
-      <c r="F16" s="93" t="inlineStr">
+      <c r="M15" s="76" t="n"/>
+      <c r="N15" s="81" t="n"/>
+      <c r="O15" s="82" t="n"/>
+      <c r="P15" s="85" t="n"/>
+      <c r="Q15" s="90" t="n"/>
+      <c r="R15" s="90" t="n"/>
+      <c r="S15" s="90" t="n"/>
+      <c r="T15" s="91" t="n"/>
+      <c r="U15" s="91" t="n"/>
+      <c r="V15" s="94" t="n"/>
+      <c r="W15" s="94" t="n"/>
+      <c r="X15" s="94" t="n"/>
+      <c r="Y15" s="91" t="n"/>
+      <c r="Z15" s="91" t="n"/>
+      <c r="AA15" s="76" t="n"/>
+      <c r="AB15" s="81" t="n"/>
+      <c r="AC15" s="76" t="n"/>
+      <c r="AD15" s="82" t="n"/>
+      <c r="AE15" s="83" t="n"/>
+      <c r="AF15" s="90" t="n"/>
+      <c r="AG15" s="90" t="n"/>
+      <c r="AH15" s="90" t="n"/>
+      <c r="AI15" s="91" t="n"/>
+      <c r="AJ15" s="91" t="n"/>
+      <c r="AK15" s="90" t="n"/>
+      <c r="AL15" s="90" t="n"/>
+      <c r="AM15" s="90" t="n"/>
+      <c r="AN15" s="91" t="n"/>
+      <c r="AO15" s="91" t="n"/>
+      <c r="AP15" s="86" t="n"/>
+      <c r="AQ15" s="86" t="n"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" s="146">
+      <c r="A16" s="155" t="n"/>
+      <c r="B16" s="158" t="n"/>
+      <c r="C16" s="37" t="n"/>
+      <c r="D16" s="151" t="n"/>
+      <c r="E16" s="151" t="n"/>
+      <c r="F16" s="38" t="inlineStr">
         <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="G16" s="93" t="inlineStr">
+      <c r="G16" s="38" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H16" s="92" t="n"/>
-      <c r="I16" s="248" t="n"/>
-      <c r="J16" s="248" t="n"/>
-      <c r="K16" s="93" t="inlineStr">
+      <c r="H16" s="37" t="n"/>
+      <c r="I16" s="151" t="n"/>
+      <c r="J16" s="151" t="n"/>
+      <c r="K16" s="38" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L16" s="93" t="inlineStr">
+      <c r="L16" s="38" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="M16" s="111" t="n"/>
-      <c r="N16" s="119" t="n"/>
-      <c r="O16" s="117" t="n"/>
-      <c r="P16" s="120" t="n"/>
-      <c r="Q16" s="129" t="n"/>
-      <c r="R16" s="129" t="n"/>
-      <c r="S16" s="129" t="n"/>
-      <c r="T16" s="130" t="n"/>
-      <c r="U16" s="130" t="n"/>
-      <c r="V16" s="129" t="n"/>
-      <c r="W16" s="129" t="n"/>
-      <c r="X16" s="129" t="n"/>
-      <c r="Y16" s="130" t="n"/>
-      <c r="Z16" s="130" t="n"/>
-      <c r="AA16" s="111" t="n"/>
-      <c r="AB16" s="119" t="n"/>
-      <c r="AC16" s="111" t="n"/>
-      <c r="AD16" s="117" t="n"/>
-      <c r="AE16" s="118" t="n"/>
-      <c r="AF16" s="129" t="n"/>
-      <c r="AG16" s="129" t="n"/>
-      <c r="AH16" s="129" t="n"/>
-      <c r="AI16" s="130" t="n"/>
-      <c r="AJ16" s="130" t="n"/>
-      <c r="AK16" s="129" t="n"/>
-      <c r="AL16" s="129" t="n"/>
-      <c r="AM16" s="129" t="n"/>
-      <c r="AN16" s="130" t="n"/>
-      <c r="AO16" s="130" t="n"/>
-      <c r="AP16" s="121" t="n"/>
-      <c r="AQ16" s="121" t="n"/>
-    </row>
-    <row r="17" ht="15.6" customHeight="1" s="243">
-      <c r="A17" s="249" t="inlineStr">
+      <c r="M16" s="76" t="n"/>
+      <c r="N16" s="84" t="n"/>
+      <c r="O16" s="82" t="n"/>
+      <c r="P16" s="85" t="n"/>
+      <c r="Q16" s="92" t="n"/>
+      <c r="R16" s="92" t="n"/>
+      <c r="S16" s="92" t="n"/>
+      <c r="T16" s="93" t="n"/>
+      <c r="U16" s="93" t="n"/>
+      <c r="V16" s="92" t="n"/>
+      <c r="W16" s="92" t="n"/>
+      <c r="X16" s="92" t="n"/>
+      <c r="Y16" s="93" t="n"/>
+      <c r="Z16" s="93" t="n"/>
+      <c r="AA16" s="76" t="n"/>
+      <c r="AB16" s="84" t="n"/>
+      <c r="AC16" s="76" t="n"/>
+      <c r="AD16" s="82" t="n"/>
+      <c r="AE16" s="83" t="n"/>
+      <c r="AF16" s="92" t="n"/>
+      <c r="AG16" s="92" t="n"/>
+      <c r="AH16" s="92" t="n"/>
+      <c r="AI16" s="93" t="n"/>
+      <c r="AJ16" s="93" t="n"/>
+      <c r="AK16" s="92" t="n"/>
+      <c r="AL16" s="92" t="n"/>
+      <c r="AM16" s="92" t="n"/>
+      <c r="AN16" s="93" t="n"/>
+      <c r="AO16" s="93" t="n"/>
+      <c r="AP16" s="86" t="n"/>
+      <c r="AQ16" s="86" t="n"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="146">
+      <c r="A17" s="152" t="inlineStr">
         <is>
           <t>7 Ш</t>
         </is>
       </c>
-      <c r="B17" s="91" t="n"/>
-      <c r="C17" s="89" t="inlineStr">
-        <is>
-          <t>25285</t>
-        </is>
-      </c>
-      <c r="D17" s="251" t="n"/>
-      <c r="E17" s="251" t="n"/>
-      <c r="F17" s="90" t="inlineStr">
+      <c r="B17" s="40" t="n"/>
+      <c r="C17" s="33" t="inlineStr">
+        <is>
+          <t>10964</t>
+        </is>
+      </c>
+      <c r="D17" s="154" t="n"/>
+      <c r="E17" s="154" t="n"/>
+      <c r="F17" s="34" t="inlineStr">
         <is>
           <t>04:58</t>
         </is>
       </c>
-      <c r="G17" s="90" t="inlineStr">
+      <c r="G17" s="34" t="inlineStr">
         <is>
           <t>12:32</t>
         </is>
       </c>
-      <c r="H17" s="54" t="inlineStr">
-        <is>
-          <t>26145</t>
-        </is>
-      </c>
-      <c r="I17" s="251" t="n"/>
-      <c r="J17" s="251" t="n"/>
-      <c r="K17" s="90" t="inlineStr">
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>54681</t>
+        </is>
+      </c>
+      <c r="I17" s="154" t="n"/>
+      <c r="J17" s="154" t="n"/>
+      <c r="K17" s="34" t="inlineStr">
         <is>
           <t>12:32</t>
         </is>
       </c>
-      <c r="L17" s="90" t="inlineStr">
+      <c r="L17" s="34" t="inlineStr">
         <is>
           <t>21:40</t>
         </is>
       </c>
-      <c r="M17" s="111" t="n"/>
-      <c r="N17" s="116" t="n"/>
-      <c r="O17" s="117" t="n"/>
-      <c r="P17" s="120" t="n"/>
-      <c r="Q17" s="127" t="n"/>
-      <c r="R17" s="127" t="n"/>
-      <c r="S17" s="127" t="n"/>
-      <c r="T17" s="128" t="n"/>
-      <c r="U17" s="128" t="n"/>
-      <c r="V17" s="127" t="n"/>
-      <c r="W17" s="127" t="n"/>
-      <c r="X17" s="127" t="n"/>
-      <c r="Y17" s="128" t="n"/>
-      <c r="Z17" s="128" t="n"/>
-      <c r="AA17" s="111" t="n"/>
-      <c r="AB17" s="116" t="n"/>
-      <c r="AC17" s="111" t="n"/>
-      <c r="AD17" s="117" t="n"/>
-      <c r="AE17" s="120" t="n"/>
-      <c r="AF17" s="127" t="n"/>
-      <c r="AG17" s="127" t="n"/>
-      <c r="AH17" s="127" t="n"/>
-      <c r="AI17" s="128" t="n"/>
-      <c r="AJ17" s="128" t="n"/>
-      <c r="AK17" s="127" t="n"/>
-      <c r="AL17" s="127" t="n"/>
-      <c r="AM17" s="127" t="n"/>
-      <c r="AN17" s="128" t="n"/>
-      <c r="AO17" s="128" t="n"/>
-      <c r="AP17" s="121" t="n"/>
-      <c r="AQ17" s="121" t="n"/>
-    </row>
-    <row r="18" ht="15.6" customHeight="1" s="243">
-      <c r="A18" s="252" t="n"/>
-      <c r="B18" s="248" t="n"/>
-      <c r="C18" s="92" t="n"/>
-      <c r="D18" s="248" t="n"/>
-      <c r="E18" s="248" t="n"/>
-      <c r="F18" s="93" t="inlineStr">
+      <c r="M17" s="76" t="n"/>
+      <c r="N17" s="81" t="n"/>
+      <c r="O17" s="82" t="n"/>
+      <c r="P17" s="85" t="n"/>
+      <c r="Q17" s="90" t="n"/>
+      <c r="R17" s="90" t="n"/>
+      <c r="S17" s="90" t="n"/>
+      <c r="T17" s="91" t="n"/>
+      <c r="U17" s="91" t="n"/>
+      <c r="V17" s="90" t="n"/>
+      <c r="W17" s="90" t="n"/>
+      <c r="X17" s="90" t="n"/>
+      <c r="Y17" s="91" t="n"/>
+      <c r="Z17" s="91" t="n"/>
+      <c r="AA17" s="76" t="n"/>
+      <c r="AB17" s="81" t="n"/>
+      <c r="AC17" s="76" t="n"/>
+      <c r="AD17" s="82" t="n"/>
+      <c r="AE17" s="85" t="n"/>
+      <c r="AF17" s="90" t="n"/>
+      <c r="AG17" s="90" t="n"/>
+      <c r="AH17" s="90" t="n"/>
+      <c r="AI17" s="91" t="n"/>
+      <c r="AJ17" s="91" t="n"/>
+      <c r="AK17" s="90" t="n"/>
+      <c r="AL17" s="90" t="n"/>
+      <c r="AM17" s="90" t="n"/>
+      <c r="AN17" s="91" t="n"/>
+      <c r="AO17" s="91" t="n"/>
+      <c r="AP17" s="86" t="n"/>
+      <c r="AQ17" s="86" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="146">
+      <c r="A18" s="155" t="n"/>
+      <c r="B18" s="151" t="n"/>
+      <c r="C18" s="37" t="n"/>
+      <c r="D18" s="151" t="n"/>
+      <c r="E18" s="151" t="n"/>
+      <c r="F18" s="38" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G18" s="93" t="inlineStr">
+      <c r="G18" s="38" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="H18" s="92" t="n"/>
-      <c r="I18" s="248" t="n"/>
-      <c r="J18" s="248" t="n"/>
-      <c r="K18" s="93" t="inlineStr">
+      <c r="H18" s="37" t="n"/>
+      <c r="I18" s="151" t="n"/>
+      <c r="J18" s="151" t="n"/>
+      <c r="K18" s="38" t="inlineStr">
         <is>
           <t>9,6</t>
         </is>
       </c>
-      <c r="L18" s="93" t="inlineStr">
+      <c r="L18" s="38" t="inlineStr">
         <is>
           <t>9,9</t>
         </is>
       </c>
-      <c r="M18" s="111" t="n"/>
-      <c r="N18" s="119" t="n"/>
-      <c r="O18" s="117" t="n"/>
-      <c r="P18" s="120" t="n"/>
-      <c r="Q18" s="129" t="n"/>
-      <c r="R18" s="129" t="n"/>
-      <c r="S18" s="129" t="n"/>
-      <c r="T18" s="130" t="n"/>
-      <c r="U18" s="130" t="n"/>
-      <c r="V18" s="129" t="n"/>
-      <c r="W18" s="129" t="n"/>
-      <c r="X18" s="129" t="n"/>
-      <c r="Y18" s="130" t="n"/>
-      <c r="Z18" s="130" t="n"/>
-      <c r="AA18" s="111" t="n"/>
-      <c r="AB18" s="119" t="n"/>
-      <c r="AC18" s="111" t="n"/>
-      <c r="AD18" s="117" t="n"/>
-      <c r="AE18" s="120" t="n"/>
-      <c r="AF18" s="129" t="n"/>
-      <c r="AG18" s="129" t="n"/>
-      <c r="AH18" s="129" t="n"/>
-      <c r="AI18" s="130" t="n"/>
-      <c r="AJ18" s="130" t="n"/>
-      <c r="AK18" s="129" t="n"/>
-      <c r="AL18" s="129" t="n"/>
-      <c r="AM18" s="129" t="n"/>
-      <c r="AN18" s="130" t="n"/>
-      <c r="AO18" s="130" t="n"/>
-      <c r="AP18" s="121" t="n"/>
-      <c r="AQ18" s="121" t="n"/>
-    </row>
-    <row r="19" ht="15.6" customHeight="1" s="243">
-      <c r="A19" s="249" t="inlineStr">
+      <c r="M18" s="76" t="n"/>
+      <c r="N18" s="84" t="n"/>
+      <c r="O18" s="82" t="n"/>
+      <c r="P18" s="85" t="n"/>
+      <c r="Q18" s="92" t="n"/>
+      <c r="R18" s="92" t="n"/>
+      <c r="S18" s="92" t="n"/>
+      <c r="T18" s="93" t="n"/>
+      <c r="U18" s="93" t="n"/>
+      <c r="V18" s="92" t="n"/>
+      <c r="W18" s="92" t="n"/>
+      <c r="X18" s="92" t="n"/>
+      <c r="Y18" s="93" t="n"/>
+      <c r="Z18" s="93" t="n"/>
+      <c r="AA18" s="76" t="n"/>
+      <c r="AB18" s="84" t="n"/>
+      <c r="AC18" s="76" t="n"/>
+      <c r="AD18" s="82" t="n"/>
+      <c r="AE18" s="85" t="n"/>
+      <c r="AF18" s="92" t="n"/>
+      <c r="AG18" s="92" t="n"/>
+      <c r="AH18" s="92" t="n"/>
+      <c r="AI18" s="93" t="n"/>
+      <c r="AJ18" s="93" t="n"/>
+      <c r="AK18" s="92" t="n"/>
+      <c r="AL18" s="92" t="n"/>
+      <c r="AM18" s="92" t="n"/>
+      <c r="AN18" s="93" t="n"/>
+      <c r="AO18" s="93" t="n"/>
+      <c r="AP18" s="86" t="n"/>
+      <c r="AQ18" s="86" t="n"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="146">
+      <c r="A19" s="152" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B19" s="250" t="n"/>
-      <c r="C19" s="89" t="inlineStr">
-        <is>
-          <t>25952</t>
-        </is>
-      </c>
-      <c r="D19" s="251" t="n"/>
-      <c r="E19" s="251" t="n"/>
-      <c r="F19" s="90" t="inlineStr">
+      <c r="B19" s="153" t="n"/>
+      <c r="C19" s="33" t="inlineStr">
+        <is>
+          <t>11058</t>
+        </is>
+      </c>
+      <c r="D19" s="154" t="n"/>
+      <c r="E19" s="154" t="n"/>
+      <c r="F19" s="34" t="inlineStr">
         <is>
           <t>05:02</t>
         </is>
       </c>
-      <c r="G19" s="90" t="inlineStr">
+      <c r="G19" s="34" t="inlineStr">
         <is>
           <t>12:28</t>
         </is>
       </c>
-      <c r="H19" s="89" t="inlineStr">
-        <is>
-          <t>26532</t>
-        </is>
-      </c>
-      <c r="I19" s="251" t="n"/>
-      <c r="J19" s="251" t="n"/>
-      <c r="K19" s="90" t="inlineStr">
+      <c r="H19" s="33" t="inlineStr">
+        <is>
+          <t>54690</t>
+        </is>
+      </c>
+      <c r="I19" s="154" t="n"/>
+      <c r="J19" s="154" t="n"/>
+      <c r="K19" s="34" t="inlineStr">
         <is>
           <t>15:43</t>
         </is>
       </c>
-      <c r="L19" s="90" t="inlineStr">
+      <c r="L19" s="34" t="inlineStr">
         <is>
           <t>00:02</t>
         </is>
       </c>
-      <c r="M19" s="111" t="n"/>
-      <c r="N19" s="116" t="n"/>
-      <c r="O19" s="117" t="n"/>
-      <c r="P19" s="118" t="n"/>
-      <c r="Q19" s="127" t="n"/>
-      <c r="R19" s="127" t="n"/>
-      <c r="S19" s="127" t="n"/>
-      <c r="T19" s="128" t="n"/>
-      <c r="U19" s="128" t="n"/>
-      <c r="V19" s="127" t="n"/>
-      <c r="W19" s="127" t="n"/>
-      <c r="X19" s="127" t="n"/>
-      <c r="Y19" s="128" t="n"/>
-      <c r="Z19" s="128" t="n"/>
-      <c r="AA19" s="111" t="n"/>
-      <c r="AB19" s="111" t="n"/>
-      <c r="AC19" s="111" t="n"/>
-      <c r="AD19" s="117" t="n"/>
-      <c r="AE19" s="118" t="n"/>
-      <c r="AF19" s="127" t="n"/>
-      <c r="AG19" s="127" t="n"/>
-      <c r="AH19" s="127" t="n"/>
-      <c r="AI19" s="128" t="n"/>
-      <c r="AJ19" s="128" t="n"/>
-      <c r="AK19" s="127" t="n"/>
-      <c r="AL19" s="127" t="n"/>
-      <c r="AM19" s="127" t="n"/>
-      <c r="AN19" s="128" t="n"/>
-      <c r="AO19" s="128" t="n"/>
-      <c r="AP19" s="121" t="n"/>
-      <c r="AQ19" s="121" t="n"/>
-    </row>
-    <row r="20" ht="15.6" customHeight="1" s="243">
-      <c r="A20" s="252" t="n"/>
-      <c r="B20" s="248" t="n"/>
-      <c r="C20" s="94" t="n"/>
-      <c r="D20" s="248" t="n"/>
-      <c r="E20" s="248" t="n"/>
-      <c r="F20" s="93" t="inlineStr">
+      <c r="M19" s="76" t="n"/>
+      <c r="N19" s="81" t="n"/>
+      <c r="O19" s="82" t="n"/>
+      <c r="P19" s="83" t="n"/>
+      <c r="Q19" s="90" t="n"/>
+      <c r="R19" s="90" t="n"/>
+      <c r="S19" s="90" t="n"/>
+      <c r="T19" s="91" t="n"/>
+      <c r="U19" s="91" t="n"/>
+      <c r="V19" s="90" t="n"/>
+      <c r="W19" s="90" t="n"/>
+      <c r="X19" s="90" t="n"/>
+      <c r="Y19" s="91" t="n"/>
+      <c r="Z19" s="91" t="n"/>
+      <c r="AA19" s="76" t="n"/>
+      <c r="AB19" s="76" t="n"/>
+      <c r="AC19" s="76" t="n"/>
+      <c r="AD19" s="82" t="n"/>
+      <c r="AE19" s="83" t="n"/>
+      <c r="AF19" s="90" t="n"/>
+      <c r="AG19" s="90" t="n"/>
+      <c r="AH19" s="90" t="n"/>
+      <c r="AI19" s="91" t="n"/>
+      <c r="AJ19" s="91" t="n"/>
+      <c r="AK19" s="90" t="n"/>
+      <c r="AL19" s="90" t="n"/>
+      <c r="AM19" s="90" t="n"/>
+      <c r="AN19" s="91" t="n"/>
+      <c r="AO19" s="91" t="n"/>
+      <c r="AP19" s="86" t="n"/>
+      <c r="AQ19" s="86" t="n"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="146">
+      <c r="A20" s="155" t="n"/>
+      <c r="B20" s="151" t="n"/>
+      <c r="C20" s="63" t="n"/>
+      <c r="D20" s="151" t="n"/>
+      <c r="E20" s="151" t="n"/>
+      <c r="F20" s="38" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G20" s="93" t="inlineStr">
+      <c r="G20" s="38" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="H20" s="92" t="n"/>
-      <c r="I20" s="248" t="n"/>
-      <c r="J20" s="248" t="n"/>
-      <c r="K20" s="93" t="inlineStr">
+      <c r="H20" s="37" t="n"/>
+      <c r="I20" s="151" t="n"/>
+      <c r="J20" s="151" t="n"/>
+      <c r="K20" s="38" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="L20" s="93" t="inlineStr">
+      <c r="L20" s="38" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="M20" s="111" t="n"/>
-      <c r="N20" s="119" t="n"/>
-      <c r="O20" s="117" t="n"/>
-      <c r="P20" s="118" t="n"/>
-      <c r="Q20" s="129" t="n"/>
-      <c r="R20" s="129" t="n"/>
-      <c r="S20" s="129" t="n"/>
-      <c r="T20" s="130" t="n"/>
-      <c r="U20" s="130" t="n"/>
-      <c r="V20" s="129" t="n"/>
-      <c r="W20" s="129" t="n"/>
-      <c r="X20" s="129" t="n"/>
-      <c r="Y20" s="130" t="n"/>
-      <c r="Z20" s="130" t="n"/>
-      <c r="AA20" s="111" t="n"/>
-      <c r="AB20" s="111" t="n"/>
-      <c r="AC20" s="111" t="n"/>
-      <c r="AD20" s="117" t="n"/>
-      <c r="AE20" s="118" t="n"/>
-      <c r="AF20" s="129" t="n"/>
-      <c r="AG20" s="129" t="n"/>
-      <c r="AH20" s="129" t="n"/>
-      <c r="AI20" s="130" t="n"/>
-      <c r="AJ20" s="130" t="n"/>
-      <c r="AK20" s="129" t="n"/>
-      <c r="AL20" s="129" t="n"/>
-      <c r="AM20" s="129" t="n"/>
-      <c r="AN20" s="130" t="n"/>
-      <c r="AO20" s="130" t="n"/>
-      <c r="AP20" s="121" t="n"/>
-      <c r="AQ20" s="121" t="n"/>
-    </row>
-    <row r="21" ht="15.6" customHeight="1" s="243">
-      <c r="A21" s="249" t="inlineStr">
+      <c r="M20" s="76" t="n"/>
+      <c r="N20" s="84" t="n"/>
+      <c r="O20" s="82" t="n"/>
+      <c r="P20" s="83" t="n"/>
+      <c r="Q20" s="92" t="n"/>
+      <c r="R20" s="92" t="n"/>
+      <c r="S20" s="92" t="n"/>
+      <c r="T20" s="93" t="n"/>
+      <c r="U20" s="93" t="n"/>
+      <c r="V20" s="92" t="n"/>
+      <c r="W20" s="92" t="n"/>
+      <c r="X20" s="92" t="n"/>
+      <c r="Y20" s="93" t="n"/>
+      <c r="Z20" s="93" t="n"/>
+      <c r="AA20" s="76" t="n"/>
+      <c r="AB20" s="76" t="n"/>
+      <c r="AC20" s="76" t="n"/>
+      <c r="AD20" s="82" t="n"/>
+      <c r="AE20" s="83" t="n"/>
+      <c r="AF20" s="92" t="n"/>
+      <c r="AG20" s="92" t="n"/>
+      <c r="AH20" s="92" t="n"/>
+      <c r="AI20" s="93" t="n"/>
+      <c r="AJ20" s="93" t="n"/>
+      <c r="AK20" s="92" t="n"/>
+      <c r="AL20" s="92" t="n"/>
+      <c r="AM20" s="92" t="n"/>
+      <c r="AN20" s="93" t="n"/>
+      <c r="AO20" s="93" t="n"/>
+      <c r="AP20" s="86" t="n"/>
+      <c r="AQ20" s="86" t="n"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="146">
+      <c r="A21" s="152" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B21" s="250" t="n"/>
-      <c r="C21" s="89" t="inlineStr">
-        <is>
-          <t>26107</t>
-        </is>
-      </c>
-      <c r="D21" s="251" t="n"/>
-      <c r="E21" s="251" t="n"/>
-      <c r="F21" s="90" t="inlineStr">
+      <c r="B21" s="153" t="n"/>
+      <c r="C21" s="33" t="inlineStr">
+        <is>
+          <t>11102</t>
+        </is>
+      </c>
+      <c r="D21" s="154" t="n"/>
+      <c r="E21" s="154" t="n"/>
+      <c r="F21" s="34" t="inlineStr">
         <is>
           <t>05:05</t>
         </is>
       </c>
-      <c r="G21" s="90" t="inlineStr">
+      <c r="G21" s="34" t="inlineStr">
         <is>
           <t>11:46</t>
         </is>
       </c>
-      <c r="H21" s="89" t="inlineStr">
-        <is>
-          <t>26611</t>
-        </is>
-      </c>
-      <c r="I21" s="251" t="n"/>
-      <c r="J21" s="251" t="n"/>
-      <c r="K21" s="90" t="inlineStr">
+      <c r="H21" s="33" t="inlineStr">
+        <is>
+          <t>54767</t>
+        </is>
+      </c>
+      <c r="I21" s="154" t="n"/>
+      <c r="J21" s="154" t="n"/>
+      <c r="K21" s="34" t="inlineStr">
         <is>
           <t>16:09</t>
         </is>
       </c>
-      <c r="L21" s="90" t="inlineStr">
+      <c r="L21" s="34" t="inlineStr">
         <is>
           <t>00:28</t>
         </is>
       </c>
-      <c r="M21" s="111" t="n"/>
-      <c r="N21" s="116" t="n"/>
-      <c r="O21" s="117" t="n"/>
-      <c r="P21" s="118" t="n"/>
-      <c r="Q21" s="127" t="n"/>
-      <c r="R21" s="127" t="n"/>
-      <c r="S21" s="127" t="n"/>
-      <c r="T21" s="128" t="n"/>
-      <c r="U21" s="128" t="n"/>
-      <c r="V21" s="127" t="n"/>
-      <c r="W21" s="127" t="n"/>
-      <c r="X21" s="127" t="n"/>
-      <c r="Y21" s="128" t="n"/>
-      <c r="Z21" s="128" t="n"/>
-      <c r="AA21" s="111" t="n"/>
-      <c r="AB21" s="116" t="n"/>
-      <c r="AC21" s="111" t="n"/>
-      <c r="AD21" s="117" t="n"/>
-      <c r="AE21" s="120" t="n"/>
-      <c r="AF21" s="127" t="n"/>
-      <c r="AG21" s="127" t="n"/>
-      <c r="AH21" s="127" t="n"/>
-      <c r="AI21" s="128" t="n"/>
-      <c r="AJ21" s="128" t="n"/>
-      <c r="AK21" s="127" t="n"/>
-      <c r="AL21" s="127" t="n"/>
-      <c r="AM21" s="127" t="n"/>
-      <c r="AN21" s="128" t="n"/>
-      <c r="AO21" s="128" t="n"/>
-      <c r="AP21" s="121" t="n"/>
-      <c r="AQ21" s="121" t="n"/>
-    </row>
-    <row r="22" ht="15.6" customHeight="1" s="243">
-      <c r="A22" s="252" t="n"/>
-      <c r="B22" s="248" t="n"/>
-      <c r="C22" s="92" t="n"/>
-      <c r="D22" s="248" t="n"/>
-      <c r="E22" s="248" t="n"/>
-      <c r="F22" s="93" t="inlineStr">
+      <c r="M21" s="76" t="n"/>
+      <c r="N21" s="81" t="n"/>
+      <c r="O21" s="82" t="n"/>
+      <c r="P21" s="83" t="n"/>
+      <c r="Q21" s="90" t="n"/>
+      <c r="R21" s="90" t="n"/>
+      <c r="S21" s="90" t="n"/>
+      <c r="T21" s="91" t="n"/>
+      <c r="U21" s="91" t="n"/>
+      <c r="V21" s="90" t="n"/>
+      <c r="W21" s="90" t="n"/>
+      <c r="X21" s="90" t="n"/>
+      <c r="Y21" s="91" t="n"/>
+      <c r="Z21" s="91" t="n"/>
+      <c r="AA21" s="76" t="n"/>
+      <c r="AB21" s="81" t="n"/>
+      <c r="AC21" s="76" t="n"/>
+      <c r="AD21" s="82" t="n"/>
+      <c r="AE21" s="85" t="n"/>
+      <c r="AF21" s="90" t="n"/>
+      <c r="AG21" s="90" t="n"/>
+      <c r="AH21" s="90" t="n"/>
+      <c r="AI21" s="91" t="n"/>
+      <c r="AJ21" s="91" t="n"/>
+      <c r="AK21" s="90" t="n"/>
+      <c r="AL21" s="90" t="n"/>
+      <c r="AM21" s="90" t="n"/>
+      <c r="AN21" s="91" t="n"/>
+      <c r="AO21" s="91" t="n"/>
+      <c r="AP21" s="86" t="n"/>
+      <c r="AQ21" s="86" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="146">
+      <c r="A22" s="155" t="n"/>
+      <c r="B22" s="151" t="n"/>
+      <c r="C22" s="37" t="n"/>
+      <c r="D22" s="151" t="n"/>
+      <c r="E22" s="151" t="n"/>
+      <c r="F22" s="38" t="inlineStr">
         <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="G22" s="93" t="inlineStr">
+      <c r="G22" s="38" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H22" s="92" t="n"/>
-      <c r="I22" s="248" t="n"/>
-      <c r="J22" s="248" t="n"/>
-      <c r="K22" s="93" t="inlineStr">
+      <c r="H22" s="37" t="n"/>
+      <c r="I22" s="151" t="n"/>
+      <c r="J22" s="151" t="n"/>
+      <c r="K22" s="38" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="L22" s="93" t="inlineStr">
+      <c r="L22" s="38" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="M22" s="111" t="n"/>
-      <c r="N22" s="119" t="n"/>
-      <c r="O22" s="117" t="n"/>
-      <c r="P22" s="118" t="n"/>
-      <c r="Q22" s="129" t="n"/>
-      <c r="R22" s="129" t="n"/>
-      <c r="S22" s="129" t="n"/>
-      <c r="T22" s="130" t="n"/>
-      <c r="U22" s="130" t="n"/>
-      <c r="V22" s="129" t="n"/>
-      <c r="W22" s="129" t="n"/>
-      <c r="X22" s="129" t="n"/>
-      <c r="Y22" s="130" t="n"/>
-      <c r="Z22" s="130" t="n"/>
-      <c r="AA22" s="111" t="n"/>
-      <c r="AB22" s="119" t="n"/>
-      <c r="AC22" s="111" t="n"/>
-      <c r="AD22" s="117" t="n"/>
-      <c r="AE22" s="120" t="n"/>
-      <c r="AF22" s="129" t="n"/>
-      <c r="AG22" s="129" t="n"/>
-      <c r="AH22" s="129" t="n"/>
-      <c r="AI22" s="130" t="n"/>
-      <c r="AJ22" s="130" t="n"/>
-      <c r="AK22" s="129" t="n"/>
-      <c r="AL22" s="129" t="n"/>
-      <c r="AM22" s="129" t="n"/>
-      <c r="AN22" s="130" t="n"/>
-      <c r="AO22" s="130" t="n"/>
-      <c r="AP22" s="121" t="n"/>
-      <c r="AQ22" s="121" t="n"/>
-    </row>
-    <row r="23" ht="15.6" customHeight="1" s="243">
-      <c r="A23" s="249" t="inlineStr">
+      <c r="M22" s="76" t="n"/>
+      <c r="N22" s="84" t="n"/>
+      <c r="O22" s="82" t="n"/>
+      <c r="P22" s="83" t="n"/>
+      <c r="Q22" s="92" t="n"/>
+      <c r="R22" s="92" t="n"/>
+      <c r="S22" s="92" t="n"/>
+      <c r="T22" s="93" t="n"/>
+      <c r="U22" s="93" t="n"/>
+      <c r="V22" s="92" t="n"/>
+      <c r="W22" s="92" t="n"/>
+      <c r="X22" s="92" t="n"/>
+      <c r="Y22" s="93" t="n"/>
+      <c r="Z22" s="93" t="n"/>
+      <c r="AA22" s="76" t="n"/>
+      <c r="AB22" s="84" t="n"/>
+      <c r="AC22" s="76" t="n"/>
+      <c r="AD22" s="82" t="n"/>
+      <c r="AE22" s="85" t="n"/>
+      <c r="AF22" s="92" t="n"/>
+      <c r="AG22" s="92" t="n"/>
+      <c r="AH22" s="92" t="n"/>
+      <c r="AI22" s="93" t="n"/>
+      <c r="AJ22" s="93" t="n"/>
+      <c r="AK22" s="92" t="n"/>
+      <c r="AL22" s="92" t="n"/>
+      <c r="AM22" s="92" t="n"/>
+      <c r="AN22" s="93" t="n"/>
+      <c r="AO22" s="93" t="n"/>
+      <c r="AP22" s="86" t="n"/>
+      <c r="AQ22" s="86" t="n"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" s="146">
+      <c r="A23" s="152" t="inlineStr">
         <is>
           <t>10 Ш</t>
         </is>
       </c>
-      <c r="B23" s="250" t="n"/>
-      <c r="C23" s="89" t="inlineStr">
-        <is>
-          <t>26221</t>
-        </is>
-      </c>
-      <c r="D23" s="251" t="n"/>
-      <c r="E23" s="251" t="n"/>
-      <c r="F23" s="90" t="inlineStr">
+      <c r="B23" s="153" t="n"/>
+      <c r="C23" s="33" t="inlineStr">
+        <is>
+          <t>11185</t>
+        </is>
+      </c>
+      <c r="D23" s="154" t="n"/>
+      <c r="E23" s="154" t="n"/>
+      <c r="F23" s="34" t="inlineStr">
         <is>
           <t>05:07</t>
         </is>
       </c>
-      <c r="G23" s="90" t="inlineStr">
+      <c r="G23" s="34" t="inlineStr">
         <is>
           <t>12:48</t>
         </is>
       </c>
-      <c r="H23" s="89" t="inlineStr">
-        <is>
-          <t>26615</t>
-        </is>
-      </c>
-      <c r="I23" s="251" t="n"/>
-      <c r="J23" s="251" t="n"/>
-      <c r="K23" s="90" t="inlineStr">
+      <c r="H23" s="33" t="inlineStr">
+        <is>
+          <t>54784</t>
+        </is>
+      </c>
+      <c r="I23" s="154" t="n"/>
+      <c r="J23" s="154" t="n"/>
+      <c r="K23" s="34" t="inlineStr">
         <is>
           <t>12:48</t>
         </is>
       </c>
-      <c r="L23" s="90" t="inlineStr">
+      <c r="L23" s="34" t="inlineStr">
         <is>
           <t>21:56</t>
         </is>
       </c>
-      <c r="M23" s="111" t="n"/>
-      <c r="N23" s="116" t="n"/>
-      <c r="O23" s="117" t="n"/>
-      <c r="P23" s="118" t="n"/>
-      <c r="Q23" s="127" t="n"/>
-      <c r="R23" s="127" t="n"/>
-      <c r="S23" s="127" t="n"/>
-      <c r="T23" s="128" t="n"/>
-      <c r="U23" s="128" t="n"/>
-      <c r="V23" s="127" t="n"/>
-      <c r="W23" s="127" t="n"/>
-      <c r="X23" s="127" t="n"/>
-      <c r="Y23" s="128" t="n"/>
-      <c r="Z23" s="128" t="n"/>
-      <c r="AA23" s="111" t="n"/>
-      <c r="AB23" s="116" t="n"/>
-      <c r="AC23" s="111" t="n"/>
-      <c r="AD23" s="117" t="n"/>
-      <c r="AE23" s="118" t="n"/>
-      <c r="AF23" s="127" t="n"/>
-      <c r="AG23" s="127" t="n"/>
-      <c r="AH23" s="127" t="n"/>
-      <c r="AI23" s="128" t="n"/>
-      <c r="AJ23" s="128" t="n"/>
-      <c r="AK23" s="127" t="n"/>
-      <c r="AL23" s="127" t="n"/>
-      <c r="AM23" s="127" t="n"/>
-      <c r="AN23" s="128" t="n"/>
-      <c r="AO23" s="128" t="n"/>
-      <c r="AP23" s="121" t="n"/>
-      <c r="AQ23" s="121" t="n"/>
-    </row>
-    <row r="24" ht="15.6" customHeight="1" s="243">
-      <c r="A24" s="252" t="n"/>
-      <c r="B24" s="248" t="n"/>
-      <c r="C24" s="92" t="n"/>
-      <c r="D24" s="248" t="n"/>
-      <c r="E24" s="248" t="n"/>
-      <c r="F24" s="93" t="inlineStr">
+      <c r="M23" s="76" t="n"/>
+      <c r="N23" s="81" t="n"/>
+      <c r="O23" s="82" t="n"/>
+      <c r="P23" s="83" t="n"/>
+      <c r="Q23" s="90" t="n"/>
+      <c r="R23" s="90" t="n"/>
+      <c r="S23" s="90" t="n"/>
+      <c r="T23" s="91" t="n"/>
+      <c r="U23" s="91" t="n"/>
+      <c r="V23" s="90" t="n"/>
+      <c r="W23" s="90" t="n"/>
+      <c r="X23" s="90" t="n"/>
+      <c r="Y23" s="91" t="n"/>
+      <c r="Z23" s="91" t="n"/>
+      <c r="AA23" s="76" t="n"/>
+      <c r="AB23" s="81" t="n"/>
+      <c r="AC23" s="76" t="n"/>
+      <c r="AD23" s="82" t="n"/>
+      <c r="AE23" s="83" t="n"/>
+      <c r="AF23" s="90" t="n"/>
+      <c r="AG23" s="90" t="n"/>
+      <c r="AH23" s="90" t="n"/>
+      <c r="AI23" s="91" t="n"/>
+      <c r="AJ23" s="91" t="n"/>
+      <c r="AK23" s="90" t="n"/>
+      <c r="AL23" s="90" t="n"/>
+      <c r="AM23" s="90" t="n"/>
+      <c r="AN23" s="91" t="n"/>
+      <c r="AO23" s="91" t="n"/>
+      <c r="AP23" s="86" t="n"/>
+      <c r="AQ23" s="86" t="n"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" s="146">
+      <c r="A24" s="155" t="n"/>
+      <c r="B24" s="151" t="n"/>
+      <c r="C24" s="37" t="n"/>
+      <c r="D24" s="151" t="n"/>
+      <c r="E24" s="151" t="n"/>
+      <c r="F24" s="38" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
-      <c r="G24" s="93" t="inlineStr">
+      <c r="G24" s="38" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="H24" s="100" t="n"/>
-      <c r="I24" s="248" t="n"/>
-      <c r="J24" s="248" t="n"/>
-      <c r="K24" s="93" t="inlineStr">
+      <c r="H24" s="65" t="n"/>
+      <c r="I24" s="151" t="n"/>
+      <c r="J24" s="151" t="n"/>
+      <c r="K24" s="38" t="inlineStr">
         <is>
           <t>9,6</t>
         </is>
       </c>
-      <c r="L24" s="93" t="inlineStr">
+      <c r="L24" s="38" t="inlineStr">
         <is>
           <t>9,9</t>
         </is>
       </c>
-      <c r="M24" s="111" t="n"/>
-      <c r="N24" s="119" t="n"/>
-      <c r="O24" s="117" t="n"/>
-      <c r="P24" s="118" t="n"/>
-      <c r="Q24" s="129" t="n"/>
-      <c r="R24" s="129" t="n"/>
-      <c r="S24" s="129" t="n"/>
-      <c r="T24" s="130" t="n"/>
-      <c r="U24" s="130" t="n"/>
-      <c r="V24" s="129" t="n"/>
-      <c r="W24" s="129" t="n"/>
-      <c r="X24" s="129" t="n"/>
-      <c r="Y24" s="130" t="n"/>
-      <c r="Z24" s="130" t="n"/>
-      <c r="AA24" s="111" t="n"/>
-      <c r="AB24" s="119" t="n"/>
-      <c r="AC24" s="111" t="n"/>
-      <c r="AD24" s="117" t="n"/>
-      <c r="AE24" s="118" t="n"/>
-      <c r="AF24" s="129" t="n"/>
-      <c r="AG24" s="129" t="n"/>
-      <c r="AH24" s="129" t="n"/>
-      <c r="AI24" s="130" t="n"/>
-      <c r="AJ24" s="130" t="n"/>
-      <c r="AK24" s="129" t="n"/>
-      <c r="AL24" s="129" t="n"/>
-      <c r="AM24" s="129" t="n"/>
-      <c r="AN24" s="130" t="n"/>
-      <c r="AO24" s="130" t="n"/>
-      <c r="AP24" s="121" t="n"/>
-      <c r="AQ24" s="121" t="n"/>
-    </row>
-    <row r="25" ht="15.6" customHeight="1" s="243">
-      <c r="A25" s="249" t="inlineStr">
+      <c r="M24" s="76" t="n"/>
+      <c r="N24" s="84" t="n"/>
+      <c r="O24" s="82" t="n"/>
+      <c r="P24" s="83" t="n"/>
+      <c r="Q24" s="92" t="n"/>
+      <c r="R24" s="92" t="n"/>
+      <c r="S24" s="92" t="n"/>
+      <c r="T24" s="93" t="n"/>
+      <c r="U24" s="93" t="n"/>
+      <c r="V24" s="92" t="n"/>
+      <c r="W24" s="92" t="n"/>
+      <c r="X24" s="92" t="n"/>
+      <c r="Y24" s="93" t="n"/>
+      <c r="Z24" s="93" t="n"/>
+      <c r="AA24" s="76" t="n"/>
+      <c r="AB24" s="84" t="n"/>
+      <c r="AC24" s="76" t="n"/>
+      <c r="AD24" s="82" t="n"/>
+      <c r="AE24" s="83" t="n"/>
+      <c r="AF24" s="92" t="n"/>
+      <c r="AG24" s="92" t="n"/>
+      <c r="AH24" s="92" t="n"/>
+      <c r="AI24" s="93" t="n"/>
+      <c r="AJ24" s="93" t="n"/>
+      <c r="AK24" s="92" t="n"/>
+      <c r="AL24" s="92" t="n"/>
+      <c r="AM24" s="92" t="n"/>
+      <c r="AN24" s="93" t="n"/>
+      <c r="AO24" s="93" t="n"/>
+      <c r="AP24" s="86" t="n"/>
+      <c r="AQ24" s="86" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="146">
+      <c r="A25" s="152" t="inlineStr">
         <is>
           <t>11 Ш</t>
         </is>
       </c>
-      <c r="B25" s="253" t="n"/>
-      <c r="C25" s="89" t="inlineStr">
-        <is>
-          <t>26554</t>
-        </is>
-      </c>
-      <c r="D25" s="251" t="n"/>
-      <c r="E25" s="251" t="n"/>
-      <c r="F25" s="90" t="inlineStr">
+      <c r="B25" s="156" t="n"/>
+      <c r="C25" s="33" t="inlineStr">
+        <is>
+          <t>11236</t>
+        </is>
+      </c>
+      <c r="D25" s="154" t="n"/>
+      <c r="E25" s="154" t="n"/>
+      <c r="F25" s="34" t="inlineStr">
         <is>
           <t>05:12</t>
         </is>
       </c>
-      <c r="G25" s="90" t="inlineStr">
+      <c r="G25" s="34" t="inlineStr">
         <is>
           <t>12:52</t>
         </is>
       </c>
-      <c r="H25" s="89" t="inlineStr">
-        <is>
-          <t>26670</t>
-        </is>
-      </c>
-      <c r="I25" s="251" t="n"/>
-      <c r="J25" s="251" t="n"/>
-      <c r="K25" s="90" t="inlineStr">
+      <c r="H25" s="33" t="inlineStr">
+        <is>
+          <t>54786</t>
+        </is>
+      </c>
+      <c r="I25" s="154" t="n"/>
+      <c r="J25" s="154" t="n"/>
+      <c r="K25" s="34" t="inlineStr">
         <is>
           <t>12:52</t>
         </is>
       </c>
-      <c r="L25" s="90" t="inlineStr">
+      <c r="L25" s="34" t="inlineStr">
         <is>
           <t>22:06</t>
         </is>
       </c>
-      <c r="M25" s="111" t="n"/>
-      <c r="N25" s="116" t="n"/>
-      <c r="O25" s="117" t="n"/>
-      <c r="P25" s="118" t="n"/>
-      <c r="Q25" s="127" t="n"/>
-      <c r="R25" s="127" t="n"/>
-      <c r="S25" s="127" t="n"/>
-      <c r="T25" s="128" t="n"/>
-      <c r="U25" s="128" t="n"/>
-      <c r="V25" s="127" t="n"/>
-      <c r="W25" s="127" t="n"/>
-      <c r="X25" s="127" t="n"/>
-      <c r="Y25" s="128" t="n"/>
-      <c r="Z25" s="128" t="n"/>
-      <c r="AA25" s="111" t="n"/>
-      <c r="AB25" s="116" t="n"/>
-      <c r="AC25" s="111" t="n"/>
-      <c r="AD25" s="117" t="n"/>
-      <c r="AE25" s="118" t="n"/>
-      <c r="AF25" s="127" t="n"/>
-      <c r="AG25" s="127" t="n"/>
-      <c r="AH25" s="127" t="n"/>
-      <c r="AI25" s="128" t="n"/>
-      <c r="AJ25" s="128" t="n"/>
-      <c r="AK25" s="127" t="n"/>
-      <c r="AL25" s="127" t="n"/>
-      <c r="AM25" s="127" t="n"/>
-      <c r="AN25" s="128" t="n"/>
-      <c r="AO25" s="128" t="n"/>
-      <c r="AP25" s="121" t="n"/>
-      <c r="AQ25" s="121" t="n"/>
-    </row>
-    <row r="26" ht="15.6" customHeight="1" s="243">
-      <c r="A26" s="252" t="n"/>
-      <c r="B26" s="248" t="n"/>
-      <c r="C26" s="92" t="n"/>
-      <c r="D26" s="248" t="n"/>
-      <c r="E26" s="248" t="n"/>
-      <c r="F26" s="93" t="inlineStr">
+      <c r="M25" s="76" t="n"/>
+      <c r="N25" s="81" t="n"/>
+      <c r="O25" s="82" t="n"/>
+      <c r="P25" s="83" t="n"/>
+      <c r="Q25" s="90" t="n"/>
+      <c r="R25" s="90" t="n"/>
+      <c r="S25" s="90" t="n"/>
+      <c r="T25" s="91" t="n"/>
+      <c r="U25" s="91" t="n"/>
+      <c r="V25" s="90" t="n"/>
+      <c r="W25" s="90" t="n"/>
+      <c r="X25" s="90" t="n"/>
+      <c r="Y25" s="91" t="n"/>
+      <c r="Z25" s="91" t="n"/>
+      <c r="AA25" s="76" t="n"/>
+      <c r="AB25" s="81" t="n"/>
+      <c r="AC25" s="76" t="n"/>
+      <c r="AD25" s="82" t="n"/>
+      <c r="AE25" s="83" t="n"/>
+      <c r="AF25" s="90" t="n"/>
+      <c r="AG25" s="90" t="n"/>
+      <c r="AH25" s="90" t="n"/>
+      <c r="AI25" s="91" t="n"/>
+      <c r="AJ25" s="91" t="n"/>
+      <c r="AK25" s="90" t="n"/>
+      <c r="AL25" s="90" t="n"/>
+      <c r="AM25" s="90" t="n"/>
+      <c r="AN25" s="91" t="n"/>
+      <c r="AO25" s="91" t="n"/>
+      <c r="AP25" s="86" t="n"/>
+      <c r="AQ25" s="86" t="n"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" s="146">
+      <c r="A26" s="155" t="n"/>
+      <c r="B26" s="151" t="n"/>
+      <c r="C26" s="37" t="n"/>
+      <c r="D26" s="151" t="n"/>
+      <c r="E26" s="151" t="n"/>
+      <c r="F26" s="38" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
-      <c r="G26" s="93" t="inlineStr">
+      <c r="G26" s="38" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="H26" s="100" t="n"/>
-      <c r="I26" s="248" t="n"/>
-      <c r="J26" s="248" t="n"/>
-      <c r="K26" s="93" t="inlineStr">
+      <c r="H26" s="65" t="n"/>
+      <c r="I26" s="151" t="n"/>
+      <c r="J26" s="151" t="n"/>
+      <c r="K26" s="38" t="inlineStr">
         <is>
           <t>9,7</t>
         </is>
       </c>
-      <c r="L26" s="93" t="inlineStr">
+      <c r="L26" s="38" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M26" s="111" t="n"/>
-      <c r="N26" s="119" t="n"/>
-      <c r="O26" s="117" t="n"/>
-      <c r="P26" s="118" t="n"/>
-      <c r="Q26" s="129" t="n"/>
-      <c r="R26" s="129" t="n"/>
-      <c r="S26" s="129" t="n"/>
-      <c r="T26" s="130" t="n"/>
-      <c r="U26" s="130" t="n"/>
-      <c r="V26" s="129" t="n"/>
-      <c r="W26" s="129" t="n"/>
-      <c r="X26" s="129" t="n"/>
-      <c r="Y26" s="130" t="n"/>
-      <c r="Z26" s="130" t="n"/>
-      <c r="AA26" s="111" t="n"/>
-      <c r="AB26" s="119" t="n"/>
-      <c r="AC26" s="111" t="n"/>
-      <c r="AD26" s="117" t="n"/>
-      <c r="AE26" s="118" t="n"/>
-      <c r="AF26" s="129" t="n"/>
-      <c r="AG26" s="129" t="n"/>
-      <c r="AH26" s="129" t="n"/>
-      <c r="AI26" s="130" t="n"/>
-      <c r="AJ26" s="130" t="n"/>
-      <c r="AK26" s="133" t="n"/>
-      <c r="AL26" s="133" t="n"/>
-      <c r="AM26" s="133" t="n"/>
-      <c r="AN26" s="130" t="n"/>
-      <c r="AO26" s="130" t="n"/>
-      <c r="AP26" s="121" t="n"/>
-      <c r="AQ26" s="121" t="n"/>
-    </row>
-    <row r="27" ht="15.6" customHeight="1" s="243">
-      <c r="A27" s="249" t="inlineStr">
+      <c r="M26" s="76" t="n"/>
+      <c r="N26" s="84" t="n"/>
+      <c r="O26" s="82" t="n"/>
+      <c r="P26" s="83" t="n"/>
+      <c r="Q26" s="92" t="n"/>
+      <c r="R26" s="92" t="n"/>
+      <c r="S26" s="92" t="n"/>
+      <c r="T26" s="93" t="n"/>
+      <c r="U26" s="93" t="n"/>
+      <c r="V26" s="92" t="n"/>
+      <c r="W26" s="92" t="n"/>
+      <c r="X26" s="92" t="n"/>
+      <c r="Y26" s="93" t="n"/>
+      <c r="Z26" s="93" t="n"/>
+      <c r="AA26" s="76" t="n"/>
+      <c r="AB26" s="84" t="n"/>
+      <c r="AC26" s="76" t="n"/>
+      <c r="AD26" s="82" t="n"/>
+      <c r="AE26" s="83" t="n"/>
+      <c r="AF26" s="92" t="n"/>
+      <c r="AG26" s="92" t="n"/>
+      <c r="AH26" s="92" t="n"/>
+      <c r="AI26" s="93" t="n"/>
+      <c r="AJ26" s="93" t="n"/>
+      <c r="AK26" s="96" t="n"/>
+      <c r="AL26" s="96" t="n"/>
+      <c r="AM26" s="96" t="n"/>
+      <c r="AN26" s="93" t="n"/>
+      <c r="AO26" s="93" t="n"/>
+      <c r="AP26" s="86" t="n"/>
+      <c r="AQ26" s="86" t="n"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" s="146">
+      <c r="A27" s="152" t="inlineStr">
         <is>
           <t>12 Ш</t>
         </is>
       </c>
-      <c r="B27" s="250" t="n"/>
-      <c r="C27" s="89" t="inlineStr">
-        <is>
-          <t>26564</t>
-        </is>
-      </c>
-      <c r="D27" s="251" t="n"/>
-      <c r="E27" s="251" t="n"/>
-      <c r="F27" s="90" t="inlineStr">
+      <c r="B27" s="153" t="n"/>
+      <c r="C27" s="33" t="inlineStr">
+        <is>
+          <t>11307</t>
+        </is>
+      </c>
+      <c r="D27" s="154" t="n"/>
+      <c r="E27" s="154" t="n"/>
+      <c r="F27" s="34" t="inlineStr">
         <is>
           <t>05:14</t>
         </is>
       </c>
-      <c r="G27" s="90" t="inlineStr">
+      <c r="G27" s="34" t="inlineStr">
         <is>
           <t>13:57</t>
         </is>
       </c>
-      <c r="H27" s="89" t="inlineStr">
-        <is>
-          <t>27008</t>
-        </is>
-      </c>
-      <c r="I27" s="251" t="n"/>
-      <c r="J27" s="251" t="n"/>
-      <c r="K27" s="90" t="inlineStr">
+      <c r="H27" s="33" t="inlineStr">
+        <is>
+          <t>54794</t>
+        </is>
+      </c>
+      <c r="I27" s="154" t="n"/>
+      <c r="J27" s="154" t="n"/>
+      <c r="K27" s="34" t="inlineStr">
         <is>
           <t>13:57</t>
         </is>
       </c>
-      <c r="L27" s="90" t="inlineStr">
+      <c r="L27" s="34" t="inlineStr">
         <is>
           <t>22:02</t>
         </is>
       </c>
-      <c r="M27" s="111" t="n"/>
-      <c r="N27" s="116" t="n"/>
-      <c r="O27" s="111" t="n"/>
-      <c r="P27" s="111" t="n"/>
-      <c r="Q27" s="111" t="n"/>
-      <c r="R27" s="111" t="n"/>
-      <c r="S27" s="111" t="n"/>
-      <c r="T27" s="111" t="n"/>
-      <c r="U27" s="111" t="n"/>
-      <c r="V27" s="111" t="n"/>
-      <c r="W27" s="111" t="n"/>
-      <c r="X27" s="111" t="n"/>
-      <c r="Y27" s="111" t="n"/>
-      <c r="Z27" s="111" t="n"/>
-      <c r="AA27" s="111" t="n"/>
-      <c r="AB27" s="116" t="n"/>
-      <c r="AC27" s="111" t="n"/>
-      <c r="AD27" s="117" t="n"/>
-      <c r="AE27" s="120" t="n"/>
-      <c r="AF27" s="127" t="n"/>
-      <c r="AG27" s="127" t="n"/>
-      <c r="AH27" s="127" t="n"/>
-      <c r="AI27" s="128" t="n"/>
-      <c r="AJ27" s="128" t="n"/>
-      <c r="AK27" s="127" t="n"/>
-      <c r="AL27" s="127" t="n"/>
-      <c r="AM27" s="127" t="n"/>
-      <c r="AN27" s="128" t="n"/>
-      <c r="AO27" s="128" t="n"/>
-      <c r="AP27" s="121" t="n"/>
-      <c r="AQ27" s="121" t="n"/>
-    </row>
-    <row r="28" ht="15.6" customHeight="1" s="243">
-      <c r="A28" s="252" t="n"/>
-      <c r="B28" s="248" t="n"/>
-      <c r="C28" s="58" t="n"/>
-      <c r="D28" s="248" t="n"/>
-      <c r="E28" s="248" t="n"/>
-      <c r="F28" s="93" t="inlineStr">
+      <c r="M27" s="76" t="n"/>
+      <c r="N27" s="81" t="n"/>
+      <c r="O27" s="76" t="n"/>
+      <c r="P27" s="76" t="n"/>
+      <c r="Q27" s="76" t="n"/>
+      <c r="R27" s="76" t="n"/>
+      <c r="S27" s="76" t="n"/>
+      <c r="T27" s="76" t="n"/>
+      <c r="U27" s="76" t="n"/>
+      <c r="V27" s="76" t="n"/>
+      <c r="W27" s="76" t="n"/>
+      <c r="X27" s="76" t="n"/>
+      <c r="Y27" s="76" t="n"/>
+      <c r="Z27" s="76" t="n"/>
+      <c r="AA27" s="76" t="n"/>
+      <c r="AB27" s="81" t="n"/>
+      <c r="AC27" s="76" t="n"/>
+      <c r="AD27" s="82" t="n"/>
+      <c r="AE27" s="85" t="n"/>
+      <c r="AF27" s="90" t="n"/>
+      <c r="AG27" s="90" t="n"/>
+      <c r="AH27" s="90" t="n"/>
+      <c r="AI27" s="91" t="n"/>
+      <c r="AJ27" s="91" t="n"/>
+      <c r="AK27" s="90" t="n"/>
+      <c r="AL27" s="90" t="n"/>
+      <c r="AM27" s="90" t="n"/>
+      <c r="AN27" s="91" t="n"/>
+      <c r="AO27" s="91" t="n"/>
+      <c r="AP27" s="86" t="n"/>
+      <c r="AQ27" s="86" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="146">
+      <c r="A28" s="155" t="n"/>
+      <c r="B28" s="151" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="151" t="n"/>
+      <c r="E28" s="151" t="n"/>
+      <c r="F28" s="38" t="inlineStr">
         <is>
           <t>9,1</t>
         </is>
       </c>
-      <c r="G28" s="93" t="inlineStr">
+      <c r="G28" s="38" t="inlineStr">
         <is>
           <t>9,5</t>
         </is>
       </c>
-      <c r="H28" s="100" t="n"/>
-      <c r="I28" s="248" t="n"/>
-      <c r="J28" s="248" t="n"/>
-      <c r="K28" s="93" t="inlineStr">
+      <c r="H28" s="65" t="n"/>
+      <c r="I28" s="151" t="n"/>
+      <c r="J28" s="151" t="n"/>
+      <c r="K28" s="38" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="L28" s="93" t="inlineStr">
+      <c r="L28" s="38" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="M28" s="111" t="n"/>
-      <c r="N28" s="119" t="n"/>
-      <c r="O28" s="111" t="n"/>
-      <c r="P28" s="111" t="n"/>
-      <c r="Q28" s="111" t="n"/>
-      <c r="R28" s="111" t="n"/>
-      <c r="S28" s="111" t="n"/>
-      <c r="T28" s="111" t="n"/>
-      <c r="U28" s="111" t="n"/>
-      <c r="V28" s="111" t="n"/>
-      <c r="W28" s="111" t="n"/>
-      <c r="X28" s="111" t="n"/>
-      <c r="Y28" s="111" t="n"/>
-      <c r="Z28" s="111" t="n"/>
-      <c r="AA28" s="111" t="n"/>
-      <c r="AB28" s="119" t="n"/>
-      <c r="AC28" s="111" t="n"/>
-      <c r="AD28" s="117" t="n"/>
-      <c r="AE28" s="120" t="n"/>
-      <c r="AF28" s="129" t="n"/>
-      <c r="AG28" s="129" t="n"/>
-      <c r="AH28" s="129" t="n"/>
-      <c r="AI28" s="130" t="n"/>
-      <c r="AJ28" s="130" t="n"/>
-      <c r="AK28" s="129" t="n"/>
-      <c r="AL28" s="129" t="n"/>
-      <c r="AM28" s="129" t="n"/>
-      <c r="AN28" s="130" t="n"/>
-      <c r="AO28" s="130" t="n"/>
-      <c r="AP28" s="121" t="n"/>
-      <c r="AQ28" s="121" t="n"/>
-    </row>
-    <row r="29" ht="15.6" customHeight="1" s="243">
-      <c r="A29" s="249" t="inlineStr">
+      <c r="M28" s="76" t="n"/>
+      <c r="N28" s="84" t="n"/>
+      <c r="O28" s="76" t="n"/>
+      <c r="P28" s="76" t="n"/>
+      <c r="Q28" s="76" t="n"/>
+      <c r="R28" s="76" t="n"/>
+      <c r="S28" s="76" t="n"/>
+      <c r="T28" s="76" t="n"/>
+      <c r="U28" s="76" t="n"/>
+      <c r="V28" s="76" t="n"/>
+      <c r="W28" s="76" t="n"/>
+      <c r="X28" s="76" t="n"/>
+      <c r="Y28" s="76" t="n"/>
+      <c r="Z28" s="76" t="n"/>
+      <c r="AA28" s="76" t="n"/>
+      <c r="AB28" s="84" t="n"/>
+      <c r="AC28" s="76" t="n"/>
+      <c r="AD28" s="82" t="n"/>
+      <c r="AE28" s="85" t="n"/>
+      <c r="AF28" s="92" t="n"/>
+      <c r="AG28" s="92" t="n"/>
+      <c r="AH28" s="92" t="n"/>
+      <c r="AI28" s="93" t="n"/>
+      <c r="AJ28" s="93" t="n"/>
+      <c r="AK28" s="92" t="n"/>
+      <c r="AL28" s="92" t="n"/>
+      <c r="AM28" s="92" t="n"/>
+      <c r="AN28" s="93" t="n"/>
+      <c r="AO28" s="93" t="n"/>
+      <c r="AP28" s="86" t="n"/>
+      <c r="AQ28" s="86" t="n"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" s="146">
+      <c r="A29" s="152" t="inlineStr">
         <is>
           <t>13 Ш</t>
         </is>
       </c>
-      <c r="B29" s="250" t="n"/>
-      <c r="C29" s="89" t="inlineStr">
-        <is>
-          <t>26569</t>
-        </is>
-      </c>
-      <c r="D29" s="251" t="n"/>
-      <c r="E29" s="251" t="n"/>
-      <c r="F29" s="90" t="inlineStr">
+      <c r="B29" s="153" t="n"/>
+      <c r="C29" s="33" t="inlineStr">
+        <is>
+          <t>11316</t>
+        </is>
+      </c>
+      <c r="D29" s="154" t="n"/>
+      <c r="E29" s="154" t="n"/>
+      <c r="F29" s="34" t="inlineStr">
         <is>
           <t>05:17</t>
         </is>
       </c>
-      <c r="G29" s="90" t="inlineStr">
+      <c r="G29" s="34" t="inlineStr">
         <is>
           <t>12:56</t>
         </is>
       </c>
-      <c r="H29" s="89" t="inlineStr">
-        <is>
-          <t>27058</t>
-        </is>
-      </c>
-      <c r="I29" s="251" t="n"/>
-      <c r="J29" s="251" t="n"/>
-      <c r="K29" s="90" t="inlineStr">
+      <c r="H29" s="33" t="inlineStr">
+        <is>
+          <t>54821</t>
+        </is>
+      </c>
+      <c r="I29" s="154" t="n"/>
+      <c r="J29" s="154" t="n"/>
+      <c r="K29" s="34" t="inlineStr">
         <is>
           <t>12:56</t>
         </is>
       </c>
-      <c r="L29" s="90" t="inlineStr">
+      <c r="L29" s="34" t="inlineStr">
         <is>
           <t>21:06</t>
         </is>
       </c>
-      <c r="M29" s="121" t="n"/>
-      <c r="N29" s="121" t="n"/>
-      <c r="O29" s="121" t="n"/>
-      <c r="P29" s="121" t="n"/>
-      <c r="Q29" s="121" t="n"/>
-      <c r="R29" s="121" t="n"/>
-      <c r="S29" s="121" t="n"/>
-      <c r="T29" s="121" t="n"/>
-      <c r="U29" s="121" t="n"/>
-      <c r="V29" s="121" t="n"/>
-      <c r="W29" s="121" t="n"/>
-      <c r="X29" s="121" t="n"/>
-      <c r="Y29" s="121" t="n"/>
-      <c r="Z29" s="121" t="n"/>
-      <c r="AA29" s="121" t="n"/>
-      <c r="AB29" s="121" t="n"/>
-      <c r="AC29" s="121" t="n"/>
-      <c r="AD29" s="121" t="n"/>
-      <c r="AE29" s="121" t="n"/>
-      <c r="AF29" s="121" t="n"/>
-      <c r="AG29" s="121" t="n"/>
-      <c r="AH29" s="121" t="n"/>
-      <c r="AI29" s="121" t="n"/>
-      <c r="AJ29" s="121" t="n"/>
-      <c r="AK29" s="121" t="n"/>
-      <c r="AL29" s="121" t="n"/>
-      <c r="AM29" s="121" t="n"/>
-      <c r="AN29" s="121" t="n"/>
-      <c r="AO29" s="121" t="n"/>
-      <c r="AP29" s="121" t="n"/>
-      <c r="AQ29" s="121" t="n"/>
-    </row>
-    <row r="30" ht="15.6" customHeight="1" s="243">
-      <c r="A30" s="252" t="n"/>
-      <c r="B30" s="248" t="n"/>
-      <c r="C30" s="92" t="n"/>
-      <c r="D30" s="248" t="n"/>
-      <c r="E30" s="248" t="n"/>
-      <c r="F30" s="93" t="inlineStr">
+      <c r="M29" s="86" t="n"/>
+      <c r="N29" s="86" t="n"/>
+      <c r="O29" s="86" t="n"/>
+      <c r="P29" s="86" t="n"/>
+      <c r="Q29" s="86" t="n"/>
+      <c r="R29" s="86" t="n"/>
+      <c r="S29" s="86" t="n"/>
+      <c r="T29" s="86" t="n"/>
+      <c r="U29" s="86" t="n"/>
+      <c r="V29" s="86" t="n"/>
+      <c r="W29" s="86" t="n"/>
+      <c r="X29" s="86" t="n"/>
+      <c r="Y29" s="86" t="n"/>
+      <c r="Z29" s="86" t="n"/>
+      <c r="AA29" s="86" t="n"/>
+      <c r="AB29" s="86" t="n"/>
+      <c r="AC29" s="86" t="n"/>
+      <c r="AD29" s="86" t="n"/>
+      <c r="AE29" s="86" t="n"/>
+      <c r="AF29" s="86" t="n"/>
+      <c r="AG29" s="86" t="n"/>
+      <c r="AH29" s="86" t="n"/>
+      <c r="AI29" s="86" t="n"/>
+      <c r="AJ29" s="86" t="n"/>
+      <c r="AK29" s="86" t="n"/>
+      <c r="AL29" s="86" t="n"/>
+      <c r="AM29" s="86" t="n"/>
+      <c r="AN29" s="86" t="n"/>
+      <c r="AO29" s="86" t="n"/>
+      <c r="AP29" s="86" t="n"/>
+      <c r="AQ29" s="86" t="n"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" s="146">
+      <c r="A30" s="155" t="n"/>
+      <c r="B30" s="151" t="n"/>
+      <c r="C30" s="37" t="n"/>
+      <c r="D30" s="151" t="n"/>
+      <c r="E30" s="151" t="n"/>
+      <c r="F30" s="38" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
-      <c r="G30" s="93" t="inlineStr">
+      <c r="G30" s="38" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="H30" s="92" t="n"/>
-      <c r="I30" s="248" t="n"/>
-      <c r="J30" s="248" t="n"/>
-      <c r="K30" s="93" t="inlineStr">
+      <c r="H30" s="37" t="n"/>
+      <c r="I30" s="151" t="n"/>
+      <c r="J30" s="151" t="n"/>
+      <c r="K30" s="38" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="L30" s="93" t="inlineStr">
+      <c r="L30" s="38" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M30" s="121" t="n"/>
-      <c r="N30" s="121" t="n"/>
-      <c r="O30" s="121" t="n"/>
-      <c r="P30" s="121" t="n"/>
-      <c r="Q30" s="121" t="n"/>
-      <c r="R30" s="121" t="n"/>
-      <c r="S30" s="121" t="n"/>
-      <c r="T30" s="121" t="n"/>
-      <c r="U30" s="121" t="n"/>
-      <c r="V30" s="121" t="n"/>
-      <c r="W30" s="121" t="n"/>
-      <c r="X30" s="121" t="n"/>
-      <c r="Y30" s="121" t="n"/>
-      <c r="Z30" s="121" t="n"/>
-      <c r="AA30" s="121" t="n"/>
-      <c r="AB30" s="121" t="n"/>
-      <c r="AC30" s="121" t="n"/>
-      <c r="AD30" s="121" t="n"/>
-      <c r="AE30" s="121" t="n"/>
-      <c r="AF30" s="121" t="n"/>
-      <c r="AG30" s="121" t="n"/>
-      <c r="AH30" s="121" t="n"/>
-      <c r="AI30" s="121" t="n"/>
-      <c r="AJ30" s="121" t="n"/>
-      <c r="AK30" s="121" t="n"/>
-      <c r="AL30" s="121" t="n"/>
-      <c r="AM30" s="121" t="n"/>
-      <c r="AN30" s="121" t="n"/>
-      <c r="AO30" s="121" t="n"/>
-      <c r="AP30" s="121" t="n"/>
-      <c r="AQ30" s="121" t="n"/>
-    </row>
-    <row r="31" ht="15.6" customHeight="1" s="243">
-      <c r="A31" s="256" t="inlineStr">
+      <c r="M30" s="86" t="n"/>
+      <c r="N30" s="86" t="n"/>
+      <c r="O30" s="86" t="n"/>
+      <c r="P30" s="86" t="n"/>
+      <c r="Q30" s="86" t="n"/>
+      <c r="R30" s="86" t="n"/>
+      <c r="S30" s="86" t="n"/>
+      <c r="T30" s="86" t="n"/>
+      <c r="U30" s="86" t="n"/>
+      <c r="V30" s="86" t="n"/>
+      <c r="W30" s="86" t="n"/>
+      <c r="X30" s="86" t="n"/>
+      <c r="Y30" s="86" t="n"/>
+      <c r="Z30" s="86" t="n"/>
+      <c r="AA30" s="86" t="n"/>
+      <c r="AB30" s="86" t="n"/>
+      <c r="AC30" s="86" t="n"/>
+      <c r="AD30" s="86" t="n"/>
+      <c r="AE30" s="86" t="n"/>
+      <c r="AF30" s="86" t="n"/>
+      <c r="AG30" s="86" t="n"/>
+      <c r="AH30" s="86" t="n"/>
+      <c r="AI30" s="86" t="n"/>
+      <c r="AJ30" s="86" t="n"/>
+      <c r="AK30" s="86" t="n"/>
+      <c r="AL30" s="86" t="n"/>
+      <c r="AM30" s="86" t="n"/>
+      <c r="AN30" s="86" t="n"/>
+      <c r="AO30" s="86" t="n"/>
+      <c r="AP30" s="86" t="n"/>
+      <c r="AQ30" s="86" t="n"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" s="146">
+      <c r="A31" s="159" t="inlineStr">
         <is>
           <t>14 Ш</t>
         </is>
       </c>
-      <c r="B31" s="257" t="n"/>
-      <c r="C31" s="63" t="inlineStr">
-        <is>
-          <t>26607</t>
-        </is>
-      </c>
-      <c r="D31" s="251" t="n"/>
-      <c r="E31" s="251" t="n"/>
-      <c r="F31" s="103" t="inlineStr">
+      <c r="B31" s="160" t="n"/>
+      <c r="C31" s="18" t="inlineStr">
+        <is>
+          <t>11481</t>
+        </is>
+      </c>
+      <c r="D31" s="154" t="n"/>
+      <c r="E31" s="154" t="n"/>
+      <c r="F31" s="68" t="inlineStr">
         <is>
           <t>05:18</t>
         </is>
       </c>
-      <c r="G31" s="103" t="inlineStr">
+      <c r="G31" s="68" t="inlineStr">
         <is>
           <t>13:24</t>
         </is>
       </c>
-      <c r="H31" s="102" t="inlineStr">
-        <is>
-          <t>27182</t>
-        </is>
-      </c>
-      <c r="I31" s="251" t="n"/>
-      <c r="J31" s="251" t="n"/>
-      <c r="K31" s="103" t="inlineStr">
+      <c r="H31" s="67" t="inlineStr">
+        <is>
+          <t>54909</t>
+        </is>
+      </c>
+      <c r="I31" s="154" t="n"/>
+      <c r="J31" s="154" t="n"/>
+      <c r="K31" s="68" t="inlineStr">
         <is>
           <t>13:24</t>
         </is>
       </c>
-      <c r="L31" s="122" t="inlineStr">
+      <c r="L31" s="87" t="inlineStr">
         <is>
           <t>21:44</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15.6" customHeight="1" s="243">
-      <c r="A32" s="252" t="n"/>
-      <c r="B32" s="248" t="n"/>
-      <c r="C32" s="105" t="n"/>
-      <c r="D32" s="248" t="n"/>
-      <c r="E32" s="248" t="n"/>
-      <c r="F32" s="106" t="inlineStr">
+    <row r="32" ht="15.75" customHeight="1" s="146">
+      <c r="A32" s="155" t="n"/>
+      <c r="B32" s="151" t="n"/>
+      <c r="C32" s="70" t="n"/>
+      <c r="D32" s="151" t="n"/>
+      <c r="E32" s="151" t="n"/>
+      <c r="F32" s="71" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="G32" s="106" t="inlineStr">
+      <c r="G32" s="71" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="H32" s="105" t="n"/>
-      <c r="I32" s="248" t="n"/>
-      <c r="J32" s="248" t="n"/>
-      <c r="K32" s="106" t="inlineStr">
+      <c r="H32" s="70" t="n"/>
+      <c r="I32" s="151" t="n"/>
+      <c r="J32" s="151" t="n"/>
+      <c r="K32" s="71" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L32" s="123" t="inlineStr">
+      <c r="L32" s="88" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="15.6" customHeight="1" s="243">
-      <c r="A33" s="249" t="inlineStr">
+    <row r="33" ht="15.75" customHeight="1" s="146">
+      <c r="A33" s="152" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B33" s="250" t="n"/>
-      <c r="C33" s="89" t="inlineStr">
-        <is>
-          <t>26654</t>
-        </is>
-      </c>
-      <c r="D33" s="251" t="n"/>
-      <c r="E33" s="251" t="n"/>
-      <c r="F33" s="90" t="inlineStr">
+      <c r="B33" s="153" t="n"/>
+      <c r="C33" s="33" t="inlineStr">
+        <is>
+          <t>11533</t>
+        </is>
+      </c>
+      <c r="D33" s="154" t="n"/>
+      <c r="E33" s="154" t="n"/>
+      <c r="F33" s="34" t="inlineStr">
         <is>
           <t>05:21</t>
         </is>
       </c>
-      <c r="G33" s="90" t="inlineStr">
+      <c r="G33" s="34" t="inlineStr">
         <is>
           <t>12:45</t>
         </is>
       </c>
-      <c r="H33" s="89" t="inlineStr">
-        <is>
-          <t>27432</t>
-        </is>
-      </c>
-      <c r="I33" s="251" t="n"/>
-      <c r="J33" s="251" t="n"/>
-      <c r="K33" s="90" t="inlineStr">
+      <c r="H33" s="33" t="inlineStr">
+        <is>
+          <t>54935</t>
+        </is>
+      </c>
+      <c r="I33" s="154" t="n"/>
+      <c r="J33" s="154" t="n"/>
+      <c r="K33" s="34" t="inlineStr">
         <is>
           <t>16:01</t>
         </is>
       </c>
-      <c r="L33" s="124" t="inlineStr">
+      <c r="L33" s="42" t="inlineStr">
         <is>
           <t>00:20</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="15.6" customHeight="1" s="243">
-      <c r="A34" s="252" t="n"/>
-      <c r="B34" s="248" t="n"/>
-      <c r="C34" s="94" t="n"/>
-      <c r="D34" s="248" t="n"/>
-      <c r="E34" s="248" t="n"/>
-      <c r="F34" s="93" t="inlineStr">
+    <row r="34" ht="15.75" customHeight="1" s="146">
+      <c r="A34" s="155" t="n"/>
+      <c r="B34" s="151" t="n"/>
+      <c r="C34" s="63" t="n"/>
+      <c r="D34" s="151" t="n"/>
+      <c r="E34" s="151" t="n"/>
+      <c r="F34" s="38" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G34" s="93" t="inlineStr">
+      <c r="G34" s="38" t="inlineStr">
         <is>
           <t>7,7</t>
         </is>
       </c>
-      <c r="H34" s="92" t="n"/>
-      <c r="I34" s="248" t="n"/>
-      <c r="J34" s="248" t="n"/>
-      <c r="K34" s="93" t="inlineStr">
+      <c r="H34" s="37" t="n"/>
+      <c r="I34" s="151" t="n"/>
+      <c r="J34" s="151" t="n"/>
+      <c r="K34" s="38" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="L34" s="125" t="inlineStr">
+      <c r="L34" s="43" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="15.6" customHeight="1" s="243">
-      <c r="A35" s="249" t="inlineStr">
+    <row r="35" ht="15.75" customHeight="1" s="146">
+      <c r="A35" s="152" t="inlineStr">
         <is>
           <t>16 Ш</t>
         </is>
       </c>
-      <c r="B35" s="250" t="n"/>
-      <c r="C35" s="89" t="inlineStr">
-        <is>
-          <t>27055</t>
-        </is>
-      </c>
-      <c r="D35" s="251" t="n"/>
-      <c r="E35" s="251" t="n"/>
-      <c r="F35" s="90" t="inlineStr">
+      <c r="B35" s="153" t="n"/>
+      <c r="C35" s="33" t="inlineStr">
+        <is>
+          <t>11534</t>
+        </is>
+      </c>
+      <c r="D35" s="154" t="n"/>
+      <c r="E35" s="154" t="n"/>
+      <c r="F35" s="34" t="inlineStr">
         <is>
           <t>05:25</t>
         </is>
       </c>
-      <c r="G35" s="90" t="inlineStr">
+      <c r="G35" s="34" t="inlineStr">
         <is>
           <t>13:06</t>
         </is>
       </c>
-      <c r="H35" s="89" t="inlineStr">
-        <is>
-          <t>27581</t>
-        </is>
-      </c>
-      <c r="I35" s="251" t="n"/>
-      <c r="J35" s="251" t="n"/>
-      <c r="K35" s="90" t="inlineStr">
+      <c r="H35" s="33" t="inlineStr">
+        <is>
+          <t>55002</t>
+        </is>
+      </c>
+      <c r="I35" s="154" t="n"/>
+      <c r="J35" s="154" t="n"/>
+      <c r="K35" s="34" t="inlineStr">
         <is>
           <t>13:06</t>
         </is>
       </c>
-      <c r="L35" s="124" t="inlineStr">
+      <c r="L35" s="42" t="inlineStr">
         <is>
           <t>21:17</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="15.6" customHeight="1" s="243">
-      <c r="A36" s="252" t="n"/>
-      <c r="B36" s="248" t="n"/>
-      <c r="C36" s="92" t="n"/>
-      <c r="D36" s="248" t="n"/>
-      <c r="E36" s="248" t="n"/>
-      <c r="F36" s="93" t="inlineStr">
+    <row r="36" ht="15.75" customHeight="1" s="146">
+      <c r="A36" s="155" t="n"/>
+      <c r="B36" s="151" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="151" t="n"/>
+      <c r="E36" s="151" t="n"/>
+      <c r="F36" s="38" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
-      <c r="G36" s="93" t="inlineStr">
+      <c r="G36" s="38" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="H36" s="92" t="n"/>
-      <c r="I36" s="248" t="n"/>
-      <c r="J36" s="248" t="n"/>
-      <c r="K36" s="93" t="inlineStr">
+      <c r="H36" s="37" t="n"/>
+      <c r="I36" s="151" t="n"/>
+      <c r="J36" s="151" t="n"/>
+      <c r="K36" s="38" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="L36" s="125" t="inlineStr">
+      <c r="L36" s="43" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15.6" customHeight="1" s="243">
-      <c r="A37" s="249" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="146">
+      <c r="A37" s="152" t="inlineStr">
         <is>
           <t>17 Ш</t>
         </is>
       </c>
-      <c r="B37" s="253" t="n"/>
-      <c r="C37" s="89" t="inlineStr">
-        <is>
-          <t>27407</t>
-        </is>
-      </c>
-      <c r="D37" s="251" t="n"/>
-      <c r="E37" s="251" t="n"/>
-      <c r="F37" s="90" t="inlineStr">
+      <c r="B37" s="156" t="n"/>
+      <c r="C37" s="33" t="inlineStr">
+        <is>
+          <t>11536</t>
+        </is>
+      </c>
+      <c r="D37" s="154" t="n"/>
+      <c r="E37" s="154" t="n"/>
+      <c r="F37" s="34" t="inlineStr">
         <is>
           <t>05:26</t>
         </is>
       </c>
-      <c r="G37" s="90" t="inlineStr">
+      <c r="G37" s="34" t="inlineStr">
         <is>
           <t>14:07</t>
         </is>
       </c>
-      <c r="H37" s="89" t="inlineStr">
-        <is>
-          <t>27881</t>
-        </is>
-      </c>
-      <c r="I37" s="251" t="n"/>
-      <c r="J37" s="251" t="n"/>
-      <c r="K37" s="90" t="inlineStr">
+      <c r="H37" s="33" t="inlineStr">
+        <is>
+          <t>5559</t>
+        </is>
+      </c>
+      <c r="I37" s="154" t="n"/>
+      <c r="J37" s="154" t="n"/>
+      <c r="K37" s="34" t="inlineStr">
         <is>
           <t>14:07</t>
         </is>
       </c>
-      <c r="L37" s="124" t="inlineStr">
+      <c r="L37" s="42" t="inlineStr">
         <is>
           <t>22:11</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="15.6" customHeight="1" s="243">
-      <c r="A38" s="252" t="n"/>
-      <c r="B38" s="248" t="n"/>
-      <c r="C38" s="92" t="n"/>
-      <c r="D38" s="248" t="n"/>
-      <c r="E38" s="248" t="n"/>
-      <c r="F38" s="93" t="inlineStr">
+    <row r="38" ht="15.75" customHeight="1" s="146">
+      <c r="A38" s="155" t="n"/>
+      <c r="B38" s="151" t="n"/>
+      <c r="C38" s="37" t="n"/>
+      <c r="D38" s="151" t="n"/>
+      <c r="E38" s="151" t="n"/>
+      <c r="F38" s="38" t="inlineStr">
         <is>
           <t>9,1</t>
         </is>
       </c>
-      <c r="G38" s="93" t="inlineStr">
+      <c r="G38" s="38" t="inlineStr">
         <is>
           <t>9,5</t>
         </is>
       </c>
-      <c r="H38" s="92" t="n"/>
-      <c r="I38" s="248" t="n"/>
-      <c r="J38" s="248" t="n"/>
-      <c r="K38" s="93" t="inlineStr">
+      <c r="H38" s="37" t="n"/>
+      <c r="I38" s="151" t="n"/>
+      <c r="J38" s="151" t="n"/>
+      <c r="K38" s="38" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="L38" s="125" t="inlineStr">
+      <c r="L38" s="43" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="15.6" customHeight="1" s="243">
-      <c r="A39" s="256" t="inlineStr">
+    <row r="39" ht="15.75" customHeight="1" s="146">
+      <c r="A39" s="159" t="inlineStr">
         <is>
           <t>18 Ш</t>
         </is>
       </c>
-      <c r="B39" s="258" t="n"/>
-      <c r="C39" s="102" t="inlineStr">
-        <is>
-          <t>27426</t>
-        </is>
-      </c>
-      <c r="D39" s="251" t="n"/>
-      <c r="E39" s="251" t="n"/>
-      <c r="F39" s="103" t="inlineStr">
+      <c r="B39" s="161" t="n"/>
+      <c r="C39" s="67" t="inlineStr">
+        <is>
+          <t>11620</t>
+        </is>
+      </c>
+      <c r="D39" s="154" t="n"/>
+      <c r="E39" s="154" t="n"/>
+      <c r="F39" s="68" t="inlineStr">
         <is>
           <t>05:28</t>
         </is>
       </c>
-      <c r="G39" s="103" t="inlineStr">
+      <c r="G39" s="68" t="inlineStr">
         <is>
           <t>13:31</t>
         </is>
       </c>
-      <c r="H39" s="63" t="inlineStr">
-        <is>
-          <t>27950</t>
-        </is>
-      </c>
-      <c r="I39" s="251" t="n"/>
-      <c r="J39" s="251" t="n"/>
-      <c r="K39" s="103" t="inlineStr">
+      <c r="H39" s="18" t="inlineStr">
+        <is>
+          <t>6219</t>
+        </is>
+      </c>
+      <c r="I39" s="154" t="n"/>
+      <c r="J39" s="154" t="n"/>
+      <c r="K39" s="68" t="inlineStr">
         <is>
           <t>13:31</t>
         </is>
       </c>
-      <c r="L39" s="122" t="inlineStr">
+      <c r="L39" s="87" t="inlineStr">
         <is>
           <t>21:55</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="15.6" customHeight="1" s="243">
-      <c r="A40" s="252" t="n"/>
-      <c r="B40" s="248" t="n"/>
-      <c r="C40" s="105" t="n"/>
-      <c r="D40" s="248" t="n"/>
-      <c r="E40" s="248" t="n"/>
-      <c r="F40" s="106" t="inlineStr">
+    <row r="40" ht="15.75" customHeight="1" s="146">
+      <c r="A40" s="155" t="n"/>
+      <c r="B40" s="151" t="n"/>
+      <c r="C40" s="70" t="n"/>
+      <c r="D40" s="151" t="n"/>
+      <c r="E40" s="151" t="n"/>
+      <c r="F40" s="71" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="G40" s="106" t="inlineStr">
+      <c r="G40" s="71" t="inlineStr">
         <is>
           <t>8,3</t>
         </is>
       </c>
-      <c r="H40" s="105" t="n"/>
-      <c r="I40" s="248" t="n"/>
-      <c r="J40" s="248" t="n"/>
-      <c r="K40" s="106" t="inlineStr">
+      <c r="H40" s="70" t="n"/>
+      <c r="I40" s="151" t="n"/>
+      <c r="J40" s="151" t="n"/>
+      <c r="K40" s="71" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L40" s="123" t="inlineStr">
+      <c r="L40" s="88" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="15.6" customHeight="1" s="243">
-      <c r="A41" s="249" t="inlineStr">
+    <row r="41" ht="15.75" customHeight="1" s="146">
+      <c r="A41" s="152" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B41" s="253" t="n"/>
-      <c r="C41" s="89" t="inlineStr">
-        <is>
-          <t>27470</t>
-        </is>
-      </c>
-      <c r="D41" s="251" t="n"/>
-      <c r="E41" s="251" t="n"/>
-      <c r="F41" s="90" t="inlineStr">
+      <c r="B41" s="156" t="n"/>
+      <c r="C41" s="33" t="inlineStr">
+        <is>
+          <t>11629</t>
+        </is>
+      </c>
+      <c r="D41" s="154" t="n"/>
+      <c r="E41" s="154" t="n"/>
+      <c r="F41" s="34" t="inlineStr">
         <is>
           <t>05:29</t>
         </is>
       </c>
-      <c r="G41" s="90" t="inlineStr">
+      <c r="G41" s="34" t="inlineStr">
         <is>
           <t>12:55</t>
         </is>
       </c>
-      <c r="H41" s="89" t="inlineStr">
-        <is>
-          <t>27978</t>
-        </is>
-      </c>
-      <c r="I41" s="251" t="n"/>
-      <c r="J41" s="251" t="n"/>
-      <c r="K41" s="90" t="inlineStr">
+      <c r="H41" s="33" t="inlineStr">
+        <is>
+          <t>6356</t>
+        </is>
+      </c>
+      <c r="I41" s="154" t="n"/>
+      <c r="J41" s="154" t="n"/>
+      <c r="K41" s="34" t="inlineStr">
         <is>
           <t>16:46</t>
         </is>
       </c>
-      <c r="L41" s="124" t="inlineStr">
+      <c r="L41" s="42" t="inlineStr">
         <is>
           <t>00:58</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="15.6" customHeight="1" s="243">
-      <c r="A42" s="252" t="n"/>
-      <c r="B42" s="248" t="n"/>
-      <c r="C42" s="92" t="n"/>
-      <c r="D42" s="248" t="n"/>
-      <c r="E42" s="248" t="n"/>
-      <c r="F42" s="93" t="inlineStr">
+    <row r="42" ht="15.75" customHeight="1" s="146">
+      <c r="A42" s="155" t="n"/>
+      <c r="B42" s="151" t="n"/>
+      <c r="C42" s="37" t="n"/>
+      <c r="D42" s="151" t="n"/>
+      <c r="E42" s="151" t="n"/>
+      <c r="F42" s="38" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G42" s="93" t="inlineStr">
+      <c r="G42" s="38" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="H42" s="92" t="n"/>
-      <c r="I42" s="248" t="n"/>
-      <c r="J42" s="248" t="n"/>
-      <c r="K42" s="93" t="inlineStr">
+      <c r="H42" s="37" t="n"/>
+      <c r="I42" s="151" t="n"/>
+      <c r="J42" s="151" t="n"/>
+      <c r="K42" s="38" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L42" s="125" t="inlineStr">
+      <c r="L42" s="43" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="15.6" customHeight="1" s="243">
-      <c r="A43" s="256" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="146">
+      <c r="A43" s="159" t="inlineStr">
         <is>
           <t>20 Ш</t>
         </is>
       </c>
-      <c r="B43" s="257" t="n"/>
-      <c r="C43" s="102" t="inlineStr">
-        <is>
-          <t>27736</t>
-        </is>
-      </c>
-      <c r="D43" s="251" t="n"/>
-      <c r="E43" s="251" t="n"/>
-      <c r="F43" s="103" t="inlineStr">
+      <c r="B43" s="160" t="n"/>
+      <c r="C43" s="67" t="inlineStr">
+        <is>
+          <t>11641</t>
+        </is>
+      </c>
+      <c r="D43" s="154" t="n"/>
+      <c r="E43" s="154" t="n"/>
+      <c r="F43" s="68" t="inlineStr">
         <is>
           <t>05:36</t>
         </is>
       </c>
-      <c r="G43" s="103" t="inlineStr">
+      <c r="G43" s="68" t="inlineStr">
         <is>
           <t>13:39</t>
         </is>
       </c>
-      <c r="H43" s="102" t="inlineStr">
-        <is>
-          <t>29592</t>
-        </is>
-      </c>
-      <c r="I43" s="251" t="n"/>
-      <c r="J43" s="251" t="n"/>
-      <c r="K43" s="103" t="inlineStr">
+      <c r="H43" s="67" t="inlineStr">
+        <is>
+          <t>65086</t>
+        </is>
+      </c>
+      <c r="I43" s="154" t="n"/>
+      <c r="J43" s="154" t="n"/>
+      <c r="K43" s="68" t="inlineStr">
         <is>
           <t>13:39</t>
         </is>
       </c>
-      <c r="L43" s="122" t="inlineStr">
+      <c r="L43" s="87" t="inlineStr">
         <is>
           <t>22:04</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.6" customHeight="1" s="243">
-      <c r="A44" s="252" t="n"/>
-      <c r="B44" s="248" t="n"/>
-      <c r="C44" s="105" t="n"/>
-      <c r="D44" s="248" t="n"/>
-      <c r="E44" s="248" t="n"/>
-      <c r="F44" s="106" t="inlineStr">
+    <row r="44" ht="15.75" customHeight="1" s="146">
+      <c r="A44" s="155" t="n"/>
+      <c r="B44" s="151" t="n"/>
+      <c r="C44" s="70" t="n"/>
+      <c r="D44" s="151" t="n"/>
+      <c r="E44" s="151" t="n"/>
+      <c r="F44" s="71" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="G44" s="106" t="inlineStr">
+      <c r="G44" s="71" t="inlineStr">
         <is>
           <t>8,3</t>
         </is>
       </c>
-      <c r="H44" s="105" t="n"/>
-      <c r="I44" s="248" t="n"/>
-      <c r="J44" s="248" t="n"/>
-      <c r="K44" s="106" t="inlineStr">
+      <c r="H44" s="70" t="n"/>
+      <c r="I44" s="151" t="n"/>
+      <c r="J44" s="151" t="n"/>
+      <c r="K44" s="71" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L44" s="123" t="inlineStr">
+      <c r="L44" s="88" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="15.6" customHeight="1" s="243">
-      <c r="A45" s="249" t="inlineStr">
+    <row r="45" ht="15.75" customHeight="1" s="146">
+      <c r="A45" s="152" t="inlineStr">
         <is>
           <t>21 Ш</t>
         </is>
       </c>
-      <c r="B45" s="250" t="n"/>
-      <c r="C45" s="89" t="inlineStr">
-        <is>
-          <t>27833</t>
-        </is>
-      </c>
-      <c r="D45" s="251" t="n"/>
-      <c r="E45" s="251" t="n"/>
-      <c r="F45" s="90" t="inlineStr">
+      <c r="B45" s="153" t="n"/>
+      <c r="C45" s="33" t="inlineStr">
+        <is>
+          <t>11735</t>
+        </is>
+      </c>
+      <c r="D45" s="154" t="n"/>
+      <c r="E45" s="154" t="n"/>
+      <c r="F45" s="34" t="inlineStr">
         <is>
           <t>05:36</t>
         </is>
       </c>
-      <c r="G45" s="90" t="inlineStr">
+      <c r="G45" s="34" t="inlineStr">
         <is>
           <t>14:16</t>
         </is>
       </c>
-      <c r="H45" s="89" t="inlineStr">
-        <is>
-          <t>29748</t>
-        </is>
-      </c>
-      <c r="I45" s="251" t="n"/>
-      <c r="J45" s="251" t="n"/>
-      <c r="K45" s="90" t="inlineStr">
+      <c r="H45" s="33" t="inlineStr">
+        <is>
+          <t>65119</t>
+        </is>
+      </c>
+      <c r="I45" s="154" t="n"/>
+      <c r="J45" s="154" t="n"/>
+      <c r="K45" s="34" t="inlineStr">
         <is>
           <t>14:16</t>
         </is>
       </c>
-      <c r="L45" s="124" t="inlineStr">
+      <c r="L45" s="42" t="inlineStr">
         <is>
           <t>20:43</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="15.6" customHeight="1" s="243">
-      <c r="A46" s="252" t="n"/>
-      <c r="B46" s="248" t="n"/>
-      <c r="C46" s="92" t="n"/>
-      <c r="D46" s="248" t="n"/>
-      <c r="E46" s="248" t="n"/>
-      <c r="F46" s="93" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="146">
+      <c r="A46" s="155" t="n"/>
+      <c r="B46" s="151" t="n"/>
+      <c r="C46" s="37" t="n"/>
+      <c r="D46" s="151" t="n"/>
+      <c r="E46" s="151" t="n"/>
+      <c r="F46" s="38" t="inlineStr">
         <is>
           <t>9,1</t>
         </is>
       </c>
-      <c r="G46" s="93" t="inlineStr">
+      <c r="G46" s="38" t="inlineStr">
         <is>
           <t>9,5</t>
         </is>
       </c>
-      <c r="H46" s="92" t="n"/>
-      <c r="I46" s="248" t="n"/>
-      <c r="J46" s="248" t="n"/>
-      <c r="K46" s="93" t="inlineStr">
+      <c r="H46" s="37" t="n"/>
+      <c r="I46" s="151" t="n"/>
+      <c r="J46" s="151" t="n"/>
+      <c r="K46" s="38" t="inlineStr">
         <is>
           <t>6,9</t>
         </is>
       </c>
-      <c r="L46" s="125" t="inlineStr">
+      <c r="L46" s="43" t="inlineStr">
         <is>
           <t>7,2</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="15.6" customHeight="1" s="243">
-      <c r="A47" s="256" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="146">
+      <c r="A47" s="159" t="inlineStr">
         <is>
           <t>22 Ш</t>
         </is>
       </c>
-      <c r="B47" s="257" t="n"/>
-      <c r="C47" s="102" t="inlineStr">
-        <is>
-          <t>27852</t>
-        </is>
-      </c>
-      <c r="D47" s="251" t="n"/>
-      <c r="E47" s="251" t="n"/>
-      <c r="F47" s="103" t="inlineStr">
+      <c r="B47" s="160" t="n"/>
+      <c r="C47" s="67" t="inlineStr">
+        <is>
+          <t>11822</t>
+        </is>
+      </c>
+      <c r="D47" s="154" t="n"/>
+      <c r="E47" s="154" t="n"/>
+      <c r="F47" s="68" t="inlineStr">
         <is>
           <t>05:44</t>
         </is>
       </c>
-      <c r="G47" s="103" t="inlineStr">
+      <c r="G47" s="68" t="inlineStr">
         <is>
           <t>13:48</t>
         </is>
       </c>
-      <c r="H47" s="102" t="inlineStr">
-        <is>
-          <t>29869</t>
-        </is>
-      </c>
-      <c r="I47" s="251" t="n"/>
-      <c r="J47" s="251" t="n"/>
-      <c r="K47" s="103" t="inlineStr">
+      <c r="H47" s="67" t="inlineStr">
+        <is>
+          <t>65202</t>
+        </is>
+      </c>
+      <c r="I47" s="154" t="n"/>
+      <c r="J47" s="154" t="n"/>
+      <c r="K47" s="68" t="inlineStr">
         <is>
           <t>13:48</t>
         </is>
       </c>
-      <c r="L47" s="122" t="inlineStr">
+      <c r="L47" s="87" t="inlineStr">
         <is>
           <t>22:13</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="15.6" customHeight="1" s="243">
-      <c r="A48" s="252" t="n"/>
-      <c r="B48" s="248" t="n"/>
-      <c r="C48" s="105" t="n"/>
-      <c r="D48" s="248" t="n"/>
-      <c r="E48" s="248" t="n"/>
-      <c r="F48" s="106" t="inlineStr">
+    <row r="48" ht="15.75" customHeight="1" s="146">
+      <c r="A48" s="155" t="n"/>
+      <c r="B48" s="151" t="n"/>
+      <c r="C48" s="70" t="n"/>
+      <c r="D48" s="151" t="n"/>
+      <c r="E48" s="151" t="n"/>
+      <c r="F48" s="71" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="G48" s="106" t="inlineStr">
+      <c r="G48" s="71" t="inlineStr">
         <is>
           <t>8,3</t>
         </is>
       </c>
-      <c r="H48" s="105" t="n"/>
-      <c r="I48" s="248" t="n"/>
-      <c r="J48" s="248" t="n"/>
-      <c r="K48" s="106" t="inlineStr">
+      <c r="H48" s="70" t="n"/>
+      <c r="I48" s="151" t="n"/>
+      <c r="J48" s="151" t="n"/>
+      <c r="K48" s="71" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L48" s="123" t="inlineStr">
+      <c r="L48" s="88" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="15.6" customHeight="1" s="243">
-      <c r="A49" s="256" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="146">
+      <c r="A49" s="159" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="B49" s="257" t="n"/>
-      <c r="C49" s="102" t="inlineStr">
-        <is>
-          <t>27985</t>
-        </is>
-      </c>
-      <c r="D49" s="251" t="n"/>
-      <c r="E49" s="251" t="n"/>
-      <c r="F49" s="103" t="inlineStr">
+      <c r="B49" s="160" t="n"/>
+      <c r="C49" s="67" t="inlineStr">
+        <is>
+          <t>11924</t>
+        </is>
+      </c>
+      <c r="D49" s="154" t="n"/>
+      <c r="E49" s="154" t="n"/>
+      <c r="F49" s="68" t="inlineStr">
         <is>
           <t>05:55</t>
         </is>
       </c>
-      <c r="G49" s="103" t="inlineStr">
+      <c r="G49" s="68" t="inlineStr">
         <is>
           <t>11:15</t>
         </is>
       </c>
-      <c r="H49" s="102" t="inlineStr">
-        <is>
-          <t>29902</t>
-        </is>
-      </c>
-      <c r="I49" s="251" t="n"/>
-      <c r="J49" s="251" t="n"/>
-      <c r="K49" s="103" t="inlineStr">
+      <c r="H49" s="67" t="inlineStr">
+        <is>
+          <t>65298</t>
+        </is>
+      </c>
+      <c r="I49" s="154" t="n"/>
+      <c r="J49" s="154" t="n"/>
+      <c r="K49" s="68" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="L49" s="122" t="inlineStr">
+      <c r="L49" s="87" t="inlineStr">
         <is>
           <t>00:17</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="15.6" customHeight="1" s="243">
-      <c r="A50" s="252" t="n"/>
-      <c r="B50" s="248" t="n"/>
-      <c r="C50" s="105" t="n"/>
-      <c r="D50" s="248" t="n"/>
-      <c r="E50" s="248" t="n"/>
-      <c r="F50" s="106" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="146">
+      <c r="A50" s="155" t="n"/>
+      <c r="B50" s="151" t="n"/>
+      <c r="C50" s="70" t="n"/>
+      <c r="D50" s="151" t="n"/>
+      <c r="E50" s="151" t="n"/>
+      <c r="F50" s="71" t="inlineStr">
         <is>
           <t>5,9</t>
         </is>
       </c>
-      <c r="G50" s="106" t="inlineStr">
+      <c r="G50" s="71" t="inlineStr">
         <is>
           <t>5,7</t>
         </is>
       </c>
-      <c r="H50" s="105" t="n"/>
-      <c r="I50" s="248" t="n"/>
-      <c r="J50" s="248" t="n"/>
-      <c r="K50" s="106" t="inlineStr">
+      <c r="H50" s="70" t="n"/>
+      <c r="I50" s="151" t="n"/>
+      <c r="J50" s="151" t="n"/>
+      <c r="K50" s="71" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="L50" s="123" t="inlineStr">
+      <c r="L50" s="88" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="15.6" customHeight="1" s="243">
-      <c r="A51" s="249" t="inlineStr">
+    <row r="51" ht="15.75" customHeight="1" s="146">
+      <c r="A51" s="152" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B51" s="250" t="n"/>
-      <c r="C51" s="89" t="inlineStr">
-        <is>
-          <t>27990</t>
-        </is>
-      </c>
-      <c r="D51" s="251" t="n"/>
-      <c r="E51" s="251" t="n"/>
-      <c r="F51" s="90" t="inlineStr">
+      <c r="B51" s="153" t="n"/>
+      <c r="C51" s="33" t="inlineStr">
+        <is>
+          <t>12258</t>
+        </is>
+      </c>
+      <c r="D51" s="154" t="n"/>
+      <c r="E51" s="154" t="n"/>
+      <c r="F51" s="34" t="inlineStr">
         <is>
           <t>06:01</t>
         </is>
       </c>
-      <c r="G51" s="90" t="inlineStr">
+      <c r="G51" s="34" t="inlineStr">
         <is>
           <t>12:41</t>
         </is>
       </c>
-      <c r="H51" s="54" t="inlineStr">
-        <is>
-          <t>29929</t>
-        </is>
-      </c>
-      <c r="I51" s="251" t="n"/>
-      <c r="J51" s="251" t="n"/>
-      <c r="K51" s="90" t="inlineStr">
+      <c r="H51" s="6" t="inlineStr">
+        <is>
+          <t>7048</t>
+        </is>
+      </c>
+      <c r="I51" s="154" t="n"/>
+      <c r="J51" s="154" t="n"/>
+      <c r="K51" s="34" t="inlineStr">
         <is>
           <t>16:19</t>
         </is>
       </c>
-      <c r="L51" s="124" t="inlineStr">
+      <c r="L51" s="42" t="inlineStr">
         <is>
           <t>01:27</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="15.6" customHeight="1" s="243">
-      <c r="A52" s="252" t="n"/>
-      <c r="B52" s="248" t="n"/>
-      <c r="C52" s="92" t="n"/>
-      <c r="D52" s="248" t="n"/>
-      <c r="E52" s="248" t="n"/>
-      <c r="F52" s="93" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="146">
+      <c r="A52" s="155" t="n"/>
+      <c r="B52" s="151" t="n"/>
+      <c r="C52" s="37" t="n"/>
+      <c r="D52" s="151" t="n"/>
+      <c r="E52" s="151" t="n"/>
+      <c r="F52" s="38" t="inlineStr">
         <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="G52" s="93" t="inlineStr">
+      <c r="G52" s="38" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="H52" s="100" t="n"/>
-      <c r="I52" s="248" t="n"/>
-      <c r="J52" s="248" t="n"/>
-      <c r="K52" s="93" t="inlineStr">
+      <c r="H52" s="65" t="n"/>
+      <c r="I52" s="151" t="n"/>
+      <c r="J52" s="151" t="n"/>
+      <c r="K52" s="38" t="inlineStr">
         <is>
           <t>9,7</t>
         </is>
       </c>
-      <c r="L52" s="125" t="inlineStr">
+      <c r="L52" s="43" t="inlineStr">
         <is>
           <t>9,5</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="15.6" customHeight="1" s="243">
-      <c r="A53" s="256" t="inlineStr">
+    <row r="53" ht="15.75" customHeight="1" s="146">
+      <c r="A53" s="159" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B53" s="257" t="n"/>
-      <c r="C53" s="102" t="inlineStr">
-        <is>
-          <t>29721</t>
-        </is>
-      </c>
-      <c r="D53" s="251" t="n"/>
-      <c r="E53" s="251" t="n"/>
-      <c r="F53" s="103" t="inlineStr">
+      <c r="B53" s="160" t="n"/>
+      <c r="C53" s="67" t="inlineStr">
+        <is>
+          <t>37881</t>
+        </is>
+      </c>
+      <c r="D53" s="154" t="n"/>
+      <c r="E53" s="154" t="n"/>
+      <c r="F53" s="68" t="inlineStr">
         <is>
           <t>06:06</t>
         </is>
       </c>
-      <c r="G53" s="103" t="inlineStr">
+      <c r="G53" s="68" t="inlineStr">
         <is>
           <t>11:25</t>
         </is>
       </c>
-      <c r="H53" s="102" t="inlineStr">
-        <is>
-          <t>30015</t>
-        </is>
-      </c>
-      <c r="I53" s="251" t="n"/>
-      <c r="J53" s="251" t="n"/>
-      <c r="K53" s="103" t="inlineStr">
+      <c r="H53" s="67" t="inlineStr">
+        <is>
+          <t>9063</t>
+        </is>
+      </c>
+      <c r="I53" s="154" t="n"/>
+      <c r="J53" s="154" t="n"/>
+      <c r="K53" s="68" t="inlineStr">
         <is>
           <t>16:39</t>
         </is>
       </c>
-      <c r="L53" s="122" t="inlineStr">
+      <c r="L53" s="87" t="inlineStr">
         <is>
           <t>00:26</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="15.6" customHeight="1" s="243">
-      <c r="A54" s="252" t="n"/>
-      <c r="B54" s="248" t="n"/>
-      <c r="C54" s="109" t="n"/>
-      <c r="D54" s="248" t="n"/>
-      <c r="E54" s="248" t="n"/>
-      <c r="F54" s="106" t="inlineStr">
+    <row r="54" ht="15.75" customHeight="1" s="146">
+      <c r="A54" s="155" t="n"/>
+      <c r="B54" s="151" t="n"/>
+      <c r="C54" s="74" t="n"/>
+      <c r="D54" s="151" t="n"/>
+      <c r="E54" s="151" t="n"/>
+      <c r="F54" s="71" t="inlineStr">
         <is>
           <t>5,9</t>
         </is>
       </c>
-      <c r="G54" s="106" t="inlineStr">
+      <c r="G54" s="71" t="inlineStr">
         <is>
           <t>5,7</t>
         </is>
       </c>
-      <c r="H54" s="105" t="n"/>
-      <c r="I54" s="248" t="n"/>
-      <c r="J54" s="248" t="n"/>
-      <c r="K54" s="106" t="inlineStr">
+      <c r="H54" s="70" t="n"/>
+      <c r="I54" s="151" t="n"/>
+      <c r="J54" s="151" t="n"/>
+      <c r="K54" s="71" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="L54" s="123" t="inlineStr">
+      <c r="L54" s="88" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="15.6" customHeight="1" s="243">
-      <c r="A55" s="249" t="inlineStr">
+    <row r="55" ht="15.75" customHeight="1" s="146">
+      <c r="A55" s="152" t="inlineStr">
         <is>
           <t>26 Ш</t>
         </is>
       </c>
-      <c r="B55" s="250" t="n"/>
-      <c r="C55" s="89" t="inlineStr">
-        <is>
-          <t>30059</t>
-        </is>
-      </c>
-      <c r="D55" s="251" t="n"/>
-      <c r="E55" s="251" t="n"/>
-      <c r="F55" s="90" t="inlineStr">
+      <c r="B55" s="153" t="n"/>
+      <c r="C55" s="33" t="inlineStr">
+        <is>
+          <t>54020</t>
+        </is>
+      </c>
+      <c r="D55" s="154" t="n"/>
+      <c r="E55" s="154" t="n"/>
+      <c r="F55" s="34" t="inlineStr">
         <is>
           <t>06:06</t>
         </is>
       </c>
-      <c r="G55" s="90" t="inlineStr">
+      <c r="G55" s="34" t="inlineStr">
         <is>
           <t>14:45</t>
         </is>
       </c>
-      <c r="H55" s="89" t="inlineStr">
-        <is>
-          <t>30390</t>
-        </is>
-      </c>
-      <c r="I55" s="251" t="n"/>
-      <c r="J55" s="251" t="n"/>
-      <c r="K55" s="90" t="inlineStr">
+      <c r="H55" s="33" t="inlineStr">
+        <is>
+          <t>9116</t>
+        </is>
+      </c>
+      <c r="I55" s="154" t="n"/>
+      <c r="J55" s="154" t="n"/>
+      <c r="K55" s="34" t="inlineStr">
         <is>
           <t>14:45</t>
         </is>
       </c>
-      <c r="L55" s="124" t="inlineStr">
+      <c r="L55" s="42" t="inlineStr">
         <is>
           <t>21:12</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="15.6" customHeight="1" s="243">
-      <c r="A56" s="252" t="n"/>
-      <c r="B56" s="248" t="n"/>
-      <c r="C56" s="92" t="n"/>
-      <c r="D56" s="248" t="n"/>
-      <c r="E56" s="248" t="n"/>
-      <c r="F56" s="93" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="146">
+      <c r="A56" s="155" t="n"/>
+      <c r="B56" s="151" t="n"/>
+      <c r="C56" s="37" t="n"/>
+      <c r="D56" s="151" t="n"/>
+      <c r="E56" s="151" t="n"/>
+      <c r="F56" s="38" t="inlineStr">
         <is>
           <t>9,1</t>
         </is>
       </c>
-      <c r="G56" s="93" t="inlineStr">
+      <c r="G56" s="38" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>
       </c>
-      <c r="H56" s="100" t="n"/>
-      <c r="I56" s="248" t="n"/>
-      <c r="J56" s="248" t="n"/>
-      <c r="K56" s="93" t="inlineStr">
+      <c r="H56" s="65" t="n"/>
+      <c r="I56" s="151" t="n"/>
+      <c r="J56" s="151" t="n"/>
+      <c r="K56" s="38" t="inlineStr">
         <is>
           <t>6,9</t>
         </is>
       </c>
-      <c r="L56" s="125" t="inlineStr">
+      <c r="L56" s="43" t="inlineStr">
         <is>
           <t>7,2</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="15.6" customHeight="1" s="243">
-      <c r="A57" s="256" t="inlineStr">
+    <row r="57" ht="15.75" customHeight="1" s="146">
+      <c r="A57" s="159" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="B57" s="257" t="n"/>
-      <c r="C57" s="102" t="inlineStr">
-        <is>
-          <t>30312</t>
-        </is>
-      </c>
-      <c r="D57" s="251" t="n"/>
-      <c r="E57" s="251" t="n"/>
-      <c r="F57" s="103" t="inlineStr">
+      <c r="B57" s="160" t="n"/>
+      <c r="C57" s="67" t="inlineStr">
+        <is>
+          <t>54125</t>
+        </is>
+      </c>
+      <c r="D57" s="154" t="n"/>
+      <c r="E57" s="154" t="n"/>
+      <c r="F57" s="68" t="inlineStr">
         <is>
           <t>06:16</t>
         </is>
       </c>
-      <c r="G57" s="103" t="inlineStr">
+      <c r="G57" s="68" t="inlineStr">
         <is>
           <t>11:36</t>
         </is>
       </c>
-      <c r="H57" s="102" t="inlineStr">
-        <is>
-          <t>30588</t>
-        </is>
-      </c>
-      <c r="I57" s="251" t="n"/>
-      <c r="J57" s="251" t="n"/>
-      <c r="K57" s="103" t="inlineStr">
+      <c r="H57" s="67" t="inlineStr">
+        <is>
+          <t>9136</t>
+        </is>
+      </c>
+      <c r="I57" s="154" t="n"/>
+      <c r="J57" s="154" t="n"/>
+      <c r="K57" s="68" t="inlineStr">
         <is>
           <t>18:03</t>
         </is>
       </c>
-      <c r="L57" s="122" t="inlineStr">
+      <c r="L57" s="87" t="inlineStr">
         <is>
           <t>23:18</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="15.6" customHeight="1" s="243">
-      <c r="A58" s="252" t="n"/>
-      <c r="B58" s="248" t="n"/>
-      <c r="C58" s="105" t="n"/>
-      <c r="D58" s="248" t="n"/>
-      <c r="E58" s="248" t="n"/>
-      <c r="F58" s="106" t="inlineStr">
+    <row r="58" ht="15.75" customHeight="1" s="146">
+      <c r="A58" s="155" t="n"/>
+      <c r="B58" s="151" t="n"/>
+      <c r="C58" s="70" t="n"/>
+      <c r="D58" s="151" t="n"/>
+      <c r="E58" s="151" t="n"/>
+      <c r="F58" s="71" t="inlineStr">
         <is>
           <t>5,9</t>
         </is>
       </c>
-      <c r="G58" s="106" t="inlineStr">
+      <c r="G58" s="71" t="inlineStr">
         <is>
           <t>5,7</t>
         </is>
       </c>
-      <c r="H58" s="109" t="n"/>
-      <c r="I58" s="248" t="n"/>
-      <c r="J58" s="248" t="n"/>
-      <c r="K58" s="106" t="inlineStr">
+      <c r="H58" s="74" t="n"/>
+      <c r="I58" s="151" t="n"/>
+      <c r="J58" s="151" t="n"/>
+      <c r="K58" s="71" t="inlineStr">
         <is>
           <t>5,8</t>
         </is>
       </c>
-      <c r="L58" s="123" t="inlineStr">
+      <c r="L58" s="88" t="inlineStr">
         <is>
           <t>5,6</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="15.6" customHeight="1" s="243">
-      <c r="A59" s="256" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="146">
+      <c r="A59" s="159" t="inlineStr">
         <is>
           <t>28 Ш</t>
         </is>
       </c>
-      <c r="B59" s="258" t="n"/>
-      <c r="C59" s="102" t="inlineStr">
-        <is>
-          <t>30381</t>
-        </is>
-      </c>
-      <c r="D59" s="251" t="n"/>
-      <c r="E59" s="251" t="n"/>
-      <c r="F59" s="103" t="inlineStr">
+      <c r="B59" s="161" t="n"/>
+      <c r="C59" s="67" t="inlineStr">
+        <is>
+          <t>54188</t>
+        </is>
+      </c>
+      <c r="D59" s="154" t="n"/>
+      <c r="E59" s="154" t="n"/>
+      <c r="F59" s="68" t="inlineStr">
         <is>
           <t>06:22</t>
         </is>
       </c>
-      <c r="G59" s="103" t="inlineStr">
+      <c r="G59" s="68" t="inlineStr">
         <is>
           <t>14:25</t>
         </is>
       </c>
-      <c r="H59" s="102" t="inlineStr">
-        <is>
-          <t>32475</t>
-        </is>
-      </c>
-      <c r="I59" s="251" t="n"/>
-      <c r="J59" s="251" t="n"/>
-      <c r="K59" s="103" t="inlineStr">
+      <c r="H59" s="67" t="inlineStr">
+        <is>
+          <t>9173</t>
+        </is>
+      </c>
+      <c r="I59" s="154" t="n"/>
+      <c r="J59" s="154" t="n"/>
+      <c r="K59" s="68" t="inlineStr">
         <is>
           <t>14:25</t>
         </is>
       </c>
-      <c r="L59" s="122" t="inlineStr">
+      <c r="L59" s="87" t="inlineStr">
         <is>
           <t>20:04</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="15.6" customHeight="1" s="243">
-      <c r="A60" s="252" t="n"/>
-      <c r="B60" s="248" t="n"/>
-      <c r="C60" s="105" t="n"/>
-      <c r="D60" s="248" t="n"/>
-      <c r="E60" s="248" t="n"/>
-      <c r="F60" s="106" t="inlineStr">
+    <row r="60" ht="15.75" customHeight="1" s="146">
+      <c r="A60" s="155" t="n"/>
+      <c r="B60" s="151" t="n"/>
+      <c r="C60" s="70" t="n"/>
+      <c r="D60" s="151" t="n"/>
+      <c r="E60" s="151" t="n"/>
+      <c r="F60" s="71" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="G60" s="106" t="inlineStr">
+      <c r="G60" s="71" t="inlineStr">
         <is>
           <t>8,3</t>
         </is>
       </c>
-      <c r="H60" s="109" t="n"/>
-      <c r="I60" s="248" t="n"/>
-      <c r="J60" s="248" t="n"/>
-      <c r="K60" s="106" t="inlineStr">
+      <c r="H60" s="74" t="n"/>
+      <c r="I60" s="151" t="n"/>
+      <c r="J60" s="151" t="n"/>
+      <c r="K60" s="71" t="inlineStr">
         <is>
           <t>6,1</t>
         </is>
       </c>
-      <c r="L60" s="123" t="inlineStr">
+      <c r="L60" s="88" t="inlineStr">
         <is>
           <t>5,9</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="15.6" customHeight="1" s="243">
-      <c r="A61" s="256" t="inlineStr">
+    <row r="61" ht="15.75" customHeight="1" s="146">
+      <c r="A61" s="159" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="B61" s="257" t="n"/>
-      <c r="C61" s="102" t="inlineStr">
-        <is>
-          <t>30425</t>
-        </is>
-      </c>
-      <c r="D61" s="251" t="n"/>
-      <c r="E61" s="251" t="n"/>
-      <c r="F61" s="103" t="inlineStr">
+      <c r="B61" s="160" t="n"/>
+      <c r="C61" s="67" t="inlineStr">
+        <is>
+          <t>54211</t>
+        </is>
+      </c>
+      <c r="D61" s="154" t="n"/>
+      <c r="E61" s="154" t="n"/>
+      <c r="F61" s="68" t="inlineStr">
         <is>
           <t>06:25</t>
         </is>
       </c>
-      <c r="G61" s="103" t="inlineStr">
+      <c r="G61" s="68" t="inlineStr">
         <is>
           <t>11:48</t>
         </is>
       </c>
-      <c r="H61" s="102" t="inlineStr">
-        <is>
-          <t>32947</t>
-        </is>
-      </c>
-      <c r="I61" s="251" t="n"/>
-      <c r="J61" s="251" t="n"/>
-      <c r="K61" s="103" t="inlineStr">
+      <c r="H61" s="67" t="inlineStr">
+        <is>
+          <t>9226</t>
+        </is>
+      </c>
+      <c r="I61" s="154" t="n"/>
+      <c r="J61" s="154" t="n"/>
+      <c r="K61" s="68" t="inlineStr">
         <is>
           <t>16:07</t>
         </is>
       </c>
-      <c r="L61" s="122" t="inlineStr">
+      <c r="L61" s="87" t="inlineStr">
         <is>
           <t>00:01</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="15.6" customHeight="1" s="243">
-      <c r="A62" s="252" t="n"/>
-      <c r="B62" s="248" t="n"/>
-      <c r="C62" s="105" t="n"/>
-      <c r="D62" s="248" t="n"/>
-      <c r="E62" s="248" t="n"/>
-      <c r="F62" s="106" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="146">
+      <c r="A62" s="155" t="n"/>
+      <c r="B62" s="151" t="n"/>
+      <c r="C62" s="70" t="n"/>
+      <c r="D62" s="151" t="n"/>
+      <c r="E62" s="151" t="n"/>
+      <c r="F62" s="71" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G62" s="106" t="inlineStr">
+      <c r="G62" s="71" t="inlineStr">
         <is>
           <t>5,7</t>
         </is>
       </c>
-      <c r="H62" s="105" t="n"/>
-      <c r="I62" s="248" t="n"/>
-      <c r="J62" s="248" t="n"/>
-      <c r="K62" s="106" t="inlineStr">
+      <c r="H62" s="70" t="n"/>
+      <c r="I62" s="151" t="n"/>
+      <c r="J62" s="151" t="n"/>
+      <c r="K62" s="71" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="L62" s="123" t="inlineStr">
+      <c r="L62" s="88" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="15.6" customHeight="1" s="243">
-      <c r="A63" s="256" t="inlineStr">
+    <row r="63" ht="15.75" customHeight="1" s="146">
+      <c r="A63" s="159" t="inlineStr">
         <is>
           <t>30 Ш</t>
         </is>
       </c>
-      <c r="B63" s="258" t="n"/>
-      <c r="C63" s="102" t="inlineStr">
-        <is>
-          <t>30472</t>
-        </is>
-      </c>
-      <c r="D63" s="251" t="n"/>
-      <c r="E63" s="251" t="n"/>
-      <c r="F63" s="103" t="inlineStr">
+      <c r="B63" s="161" t="n"/>
+      <c r="C63" s="67" t="inlineStr">
+        <is>
+          <t>54231</t>
+        </is>
+      </c>
+      <c r="D63" s="154" t="n"/>
+      <c r="E63" s="154" t="n"/>
+      <c r="F63" s="68" t="inlineStr">
         <is>
           <t>06:31</t>
         </is>
       </c>
-      <c r="G63" s="103" t="inlineStr">
+      <c r="G63" s="68" t="inlineStr">
         <is>
           <t>14:36</t>
         </is>
       </c>
-      <c r="H63" s="102" t="inlineStr">
-        <is>
-          <t>60000</t>
-        </is>
-      </c>
-      <c r="I63" s="251" t="n"/>
-      <c r="J63" s="251" t="n"/>
-      <c r="K63" s="103" t="inlineStr">
+      <c r="H63" s="67" t="inlineStr">
+        <is>
+          <t>9301</t>
+        </is>
+      </c>
+      <c r="I63" s="154" t="n"/>
+      <c r="J63" s="154" t="n"/>
+      <c r="K63" s="68" t="inlineStr">
         <is>
           <t>14:36</t>
         </is>
       </c>
-      <c r="L63" s="122" t="inlineStr">
+      <c r="L63" s="87" t="inlineStr">
         <is>
           <t>22:55</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="15.6" customHeight="1" s="243">
-      <c r="A64" s="252" t="n"/>
-      <c r="B64" s="248" t="n"/>
-      <c r="C64" s="105" t="n"/>
-      <c r="D64" s="248" t="n"/>
-      <c r="E64" s="248" t="n"/>
-      <c r="F64" s="106" t="inlineStr">
+    <row r="64" ht="15.75" customHeight="1" s="146">
+      <c r="A64" s="155" t="n"/>
+      <c r="B64" s="151" t="n"/>
+      <c r="C64" s="70" t="n"/>
+      <c r="D64" s="151" t="n"/>
+      <c r="E64" s="151" t="n"/>
+      <c r="F64" s="71" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="G64" s="106" t="inlineStr">
+      <c r="G64" s="71" t="inlineStr">
         <is>
           <t>8,3</t>
         </is>
       </c>
-      <c r="H64" s="105" t="n"/>
-      <c r="I64" s="248" t="n"/>
-      <c r="J64" s="248" t="n"/>
-      <c r="K64" s="106" t="inlineStr">
+      <c r="H64" s="70" t="n"/>
+      <c r="I64" s="151" t="n"/>
+      <c r="J64" s="151" t="n"/>
+      <c r="K64" s="71" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="L64" s="123" t="inlineStr">
+      <c r="L64" s="88" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15.6" customHeight="1" s="243">
-      <c r="A65" s="256" t="inlineStr">
+    <row r="65" ht="15.75" customHeight="1" s="146">
+      <c r="A65" s="159" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="B65" s="257" t="n"/>
-      <c r="C65" s="102" t="inlineStr">
-        <is>
-          <t>30527</t>
-        </is>
-      </c>
-      <c r="D65" s="251" t="n"/>
-      <c r="E65" s="251" t="n"/>
-      <c r="F65" s="103" t="inlineStr">
+      <c r="B65" s="160" t="n"/>
+      <c r="C65" s="67" t="inlineStr">
+        <is>
+          <t>54239</t>
+        </is>
+      </c>
+      <c r="D65" s="154" t="n"/>
+      <c r="E65" s="154" t="n"/>
+      <c r="F65" s="68" t="inlineStr">
         <is>
           <t>06:46</t>
         </is>
       </c>
-      <c r="G65" s="103" t="inlineStr">
+      <c r="G65" s="68" t="inlineStr">
         <is>
           <t>12:11</t>
         </is>
       </c>
-      <c r="H65" s="102" t="inlineStr">
-        <is>
-          <t>60038</t>
-        </is>
-      </c>
-      <c r="I65" s="251" t="n"/>
-      <c r="J65" s="251" t="n"/>
-      <c r="K65" s="103" t="inlineStr">
+      <c r="H65" s="67" t="inlineStr">
+        <is>
+          <t>9305</t>
+        </is>
+      </c>
+      <c r="I65" s="154" t="n"/>
+      <c r="J65" s="154" t="n"/>
+      <c r="K65" s="68" t="inlineStr">
         <is>
           <t>16:48</t>
         </is>
       </c>
-      <c r="L65" s="122" t="inlineStr">
+      <c r="L65" s="87" t="inlineStr">
         <is>
           <t>00:35</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="15.6" customHeight="1" s="243">
-      <c r="A66" s="252" t="n"/>
-      <c r="B66" s="248" t="n"/>
-      <c r="C66" s="105" t="n"/>
-      <c r="D66" s="248" t="n"/>
-      <c r="E66" s="248" t="n"/>
-      <c r="F66" s="106" t="inlineStr">
+    <row r="66" ht="15.75" customHeight="1" s="146">
+      <c r="A66" s="155" t="n"/>
+      <c r="B66" s="151" t="n"/>
+      <c r="C66" s="70" t="n"/>
+      <c r="D66" s="151" t="n"/>
+      <c r="E66" s="151" t="n"/>
+      <c r="F66" s="71" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G66" s="106" t="inlineStr">
+      <c r="G66" s="71" t="inlineStr">
         <is>
           <t>5,8</t>
         </is>
       </c>
-      <c r="H66" s="105" t="n"/>
-      <c r="I66" s="248" t="n"/>
-      <c r="J66" s="248" t="n"/>
-      <c r="K66" s="106" t="inlineStr">
+      <c r="H66" s="70" t="n"/>
+      <c r="I66" s="151" t="n"/>
+      <c r="J66" s="151" t="n"/>
+      <c r="K66" s="71" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="L66" s="123" t="inlineStr">
+      <c r="L66" s="88" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="15.6" customHeight="1" s="243">
-      <c r="A67" s="256" t="inlineStr">
+    <row r="67" ht="15.75" customHeight="1" s="146">
+      <c r="A67" s="159" t="inlineStr">
         <is>
           <t>32 Ш</t>
         </is>
       </c>
-      <c r="B67" s="258" t="n"/>
-      <c r="C67" s="102" t="inlineStr">
-        <is>
-          <t>30592</t>
-        </is>
-      </c>
-      <c r="D67" s="251" t="n"/>
-      <c r="E67" s="251" t="n"/>
-      <c r="F67" s="103" t="inlineStr">
+      <c r="B67" s="161" t="n"/>
+      <c r="C67" s="67" t="inlineStr">
+        <is>
+          <t>54309</t>
+        </is>
+      </c>
+      <c r="D67" s="154" t="n"/>
+      <c r="E67" s="154" t="n"/>
+      <c r="F67" s="68" t="inlineStr">
         <is>
           <t>07:01</t>
         </is>
       </c>
-      <c r="G67" s="103" t="inlineStr">
+      <c r="G67" s="68" t="inlineStr">
         <is>
           <t>15:04</t>
         </is>
       </c>
-      <c r="H67" s="102" t="inlineStr">
-        <is>
-          <t>60039</t>
-        </is>
-      </c>
-      <c r="I67" s="251" t="n"/>
-      <c r="J67" s="251" t="n"/>
-      <c r="K67" s="103" t="inlineStr">
+      <c r="H67" s="67" t="inlineStr">
+        <is>
+          <t>9332</t>
+        </is>
+      </c>
+      <c r="I67" s="154" t="n"/>
+      <c r="J67" s="154" t="n"/>
+      <c r="K67" s="68" t="inlineStr">
         <is>
           <t>15:04</t>
         </is>
       </c>
-      <c r="L67" s="122" t="inlineStr">
+      <c r="L67" s="87" t="inlineStr">
         <is>
           <t>20:44</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="15.6" customHeight="1" s="243">
-      <c r="A68" s="252" t="n"/>
-      <c r="B68" s="248" t="n"/>
-      <c r="C68" s="105" t="n"/>
-      <c r="D68" s="248" t="n"/>
-      <c r="E68" s="248" t="n"/>
-      <c r="F68" s="106" t="inlineStr">
+    <row r="68" ht="15.75" customHeight="1" s="146">
+      <c r="A68" s="155" t="n"/>
+      <c r="B68" s="151" t="n"/>
+      <c r="C68" s="70" t="n"/>
+      <c r="D68" s="151" t="n"/>
+      <c r="E68" s="151" t="n"/>
+      <c r="F68" s="71" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="G68" s="106" t="inlineStr">
+      <c r="G68" s="71" t="inlineStr">
         <is>
           <t>8,3</t>
         </is>
       </c>
-      <c r="H68" s="105" t="n"/>
-      <c r="I68" s="248" t="n"/>
-      <c r="J68" s="248" t="n"/>
-      <c r="K68" s="106" t="inlineStr">
+      <c r="H68" s="70" t="n"/>
+      <c r="I68" s="151" t="n"/>
+      <c r="J68" s="151" t="n"/>
+      <c r="K68" s="71" t="inlineStr">
         <is>
           <t>6,1</t>
         </is>
       </c>
-      <c r="L68" s="123" t="inlineStr">
+      <c r="L68" s="88" t="inlineStr">
         <is>
           <t>5,9</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="15.6" customHeight="1" s="243">
-      <c r="A69" s="256" t="inlineStr">
+    <row r="69" ht="15.75" customHeight="1" s="146">
+      <c r="A69" s="159" t="inlineStr">
         <is>
           <t>33 Ш</t>
         </is>
       </c>
-      <c r="B69" s="257" t="n"/>
-      <c r="C69" s="102" t="inlineStr">
-        <is>
-          <t>30608</t>
-        </is>
-      </c>
-      <c r="D69" s="251" t="n"/>
-      <c r="E69" s="251" t="n"/>
-      <c r="F69" s="103" t="inlineStr">
+      <c r="B69" s="160" t="n"/>
+      <c r="C69" s="67" t="inlineStr">
+        <is>
+          <t>54322</t>
+        </is>
+      </c>
+      <c r="D69" s="154" t="n"/>
+      <c r="E69" s="154" t="n"/>
+      <c r="F69" s="68" t="inlineStr">
         <is>
           <t>07:14</t>
         </is>
       </c>
-      <c r="G69" s="103" t="inlineStr">
+      <c r="G69" s="68" t="inlineStr">
         <is>
           <t>15:23</t>
         </is>
       </c>
-      <c r="H69" s="102" t="inlineStr">
-        <is>
-          <t>60089</t>
-        </is>
-      </c>
-      <c r="I69" s="251" t="n"/>
-      <c r="J69" s="251" t="n"/>
-      <c r="K69" s="103" t="inlineStr">
+      <c r="H69" s="67" t="inlineStr">
+        <is>
+          <t>9340</t>
+        </is>
+      </c>
+      <c r="I69" s="154" t="n"/>
+      <c r="J69" s="154" t="n"/>
+      <c r="K69" s="68" t="inlineStr">
         <is>
           <t>15:23</t>
         </is>
       </c>
-      <c r="L69" s="122" t="inlineStr">
+      <c r="L69" s="87" t="inlineStr">
         <is>
           <t>21:02</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="15.6" customHeight="1" s="243">
-      <c r="A70" s="252" t="n"/>
-      <c r="B70" s="248" t="n"/>
-      <c r="C70" s="105" t="n"/>
-      <c r="D70" s="248" t="n"/>
-      <c r="E70" s="248" t="n"/>
-      <c r="F70" s="106" t="inlineStr">
+    <row r="70" ht="15.75" customHeight="1" s="146">
+      <c r="A70" s="155" t="n"/>
+      <c r="B70" s="151" t="n"/>
+      <c r="C70" s="70" t="n"/>
+      <c r="D70" s="151" t="n"/>
+      <c r="E70" s="151" t="n"/>
+      <c r="F70" s="71" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="G70" s="106" t="inlineStr">
+      <c r="G70" s="71" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="H70" s="105" t="n"/>
-      <c r="I70" s="248" t="n"/>
-      <c r="J70" s="248" t="n"/>
-      <c r="K70" s="106" t="inlineStr">
+      <c r="H70" s="70" t="n"/>
+      <c r="I70" s="151" t="n"/>
+      <c r="J70" s="151" t="n"/>
+      <c r="K70" s="71" t="inlineStr">
         <is>
           <t>6,1</t>
         </is>
       </c>
-      <c r="L70" s="123" t="inlineStr">
+      <c r="L70" s="88" t="inlineStr">
         <is>
           <t>5,9</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="15.6" customHeight="1" s="243">
-      <c r="A71" s="249" t="inlineStr">
+    <row r="71" ht="15.75" customHeight="1" s="146">
+      <c r="A71" s="152" t="inlineStr">
         <is>
           <t>34 Ш</t>
         </is>
       </c>
-      <c r="B71" s="88" t="n"/>
-      <c r="C71" s="89" t="inlineStr">
-        <is>
-          <t>30660</t>
-        </is>
-      </c>
-      <c r="D71" s="251" t="n"/>
-      <c r="E71" s="251" t="n"/>
-      <c r="F71" s="90" t="inlineStr">
+      <c r="B71" s="41" t="n"/>
+      <c r="C71" s="33" t="inlineStr">
+        <is>
+          <t>54394</t>
+        </is>
+      </c>
+      <c r="D71" s="154" t="n"/>
+      <c r="E71" s="154" t="n"/>
+      <c r="F71" s="34" t="inlineStr">
         <is>
           <t>08:11</t>
         </is>
       </c>
-      <c r="G71" s="90" t="inlineStr">
+      <c r="G71" s="34" t="inlineStr">
         <is>
           <t>16:03</t>
         </is>
       </c>
-      <c r="H71" s="89" t="inlineStr">
-        <is>
-          <t>60097</t>
-        </is>
-      </c>
-      <c r="I71" s="251" t="n"/>
-      <c r="J71" s="251" t="n"/>
-      <c r="K71" s="90" t="inlineStr">
+      <c r="H71" s="33" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="I71" s="154" t="n"/>
+      <c r="J71" s="154" t="n"/>
+      <c r="K71" s="34" t="inlineStr">
         <is>
           <t>16:03</t>
         </is>
       </c>
-      <c r="L71" s="124" t="inlineStr">
+      <c r="L71" s="42" t="inlineStr">
         <is>
           <t>00:44</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="16.35" customHeight="1" s="243">
-      <c r="A72" s="252" t="n"/>
-      <c r="C72" s="92" t="n"/>
-      <c r="D72" s="248" t="n"/>
-      <c r="E72" s="248" t="n"/>
-      <c r="F72" s="93" t="inlineStr">
+    <row r="72" ht="16.5" customHeight="1" s="146">
+      <c r="A72" s="155" t="n"/>
+      <c r="C72" s="37" t="n"/>
+      <c r="D72" s="151" t="n"/>
+      <c r="E72" s="151" t="n"/>
+      <c r="F72" s="38" t="inlineStr">
         <is>
           <t>8,3</t>
         </is>
       </c>
-      <c r="G72" s="93" t="inlineStr">
+      <c r="G72" s="38" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="H72" s="100" t="n"/>
-      <c r="I72" s="248" t="n"/>
-      <c r="J72" s="248" t="n"/>
-      <c r="K72" s="93" t="inlineStr">
+      <c r="H72" s="65" t="n"/>
+      <c r="I72" s="151" t="n"/>
+      <c r="J72" s="151" t="n"/>
+      <c r="K72" s="38" t="inlineStr">
         <is>
           <t>9,1</t>
         </is>
       </c>
-      <c r="L72" s="125" t="inlineStr">
+      <c r="L72" s="43" t="inlineStr">
         <is>
           <t>9,5</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="15.6" customHeight="1" s="243">
-      <c r="A73" s="249" t="inlineStr">
+    <row r="73" ht="15.75" customHeight="1" s="146">
+      <c r="A73" s="152" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="B73" s="254" t="n"/>
-      <c r="C73" s="89" t="n"/>
-      <c r="D73" s="251" t="n"/>
-      <c r="E73" s="251" t="n"/>
-      <c r="F73" s="90" t="n"/>
-      <c r="G73" s="90" t="n"/>
-      <c r="H73" s="89" t="inlineStr">
-        <is>
-          <t>60133</t>
-        </is>
-      </c>
-      <c r="I73" s="251" t="n"/>
-      <c r="J73" s="251" t="n"/>
-      <c r="K73" s="90" t="inlineStr">
+      <c r="B73" s="157" t="n"/>
+      <c r="C73" s="33" t="n"/>
+      <c r="D73" s="154" t="n"/>
+      <c r="E73" s="154" t="n"/>
+      <c r="F73" s="34" t="n"/>
+      <c r="G73" s="34" t="n"/>
+      <c r="H73" s="33" t="inlineStr">
+        <is>
+          <t>9354</t>
+        </is>
+      </c>
+      <c r="I73" s="154" t="n"/>
+      <c r="J73" s="154" t="n"/>
+      <c r="K73" s="34" t="inlineStr">
         <is>
           <t>17:06</t>
         </is>
       </c>
-      <c r="L73" s="124" t="inlineStr">
+      <c r="L73" s="42" t="inlineStr">
         <is>
           <t>01:17</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="16.35" customHeight="1" s="243">
-      <c r="A74" s="252" t="n"/>
-      <c r="B74" s="255" t="n"/>
-      <c r="C74" s="92" t="n"/>
-      <c r="D74" s="248" t="n"/>
-      <c r="E74" s="248" t="n"/>
-      <c r="F74" s="93" t="n"/>
-      <c r="G74" s="93" t="n"/>
-      <c r="H74" s="92" t="n"/>
-      <c r="I74" s="248" t="n"/>
-      <c r="J74" s="248" t="n"/>
-      <c r="K74" s="93" t="inlineStr">
+    <row r="74" ht="16.5" customHeight="1" s="146">
+      <c r="A74" s="155" t="n"/>
+      <c r="B74" s="158" t="n"/>
+      <c r="C74" s="37" t="n"/>
+      <c r="D74" s="151" t="n"/>
+      <c r="E74" s="151" t="n"/>
+      <c r="F74" s="38" t="n"/>
+      <c r="G74" s="38" t="n"/>
+      <c r="H74" s="37" t="n"/>
+      <c r="I74" s="151" t="n"/>
+      <c r="J74" s="151" t="n"/>
+      <c r="K74" s="38" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L74" s="125" t="inlineStr">
+      <c r="L74" s="43" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
